--- a/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export.xlsx
+++ b/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\Google Drive (raphael@remo.marketing)\Remo\_web\remo\FacebookCatalog\Evapore\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -6594,8 +6599,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6641,6 +6646,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6687,7 +6700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6719,9 +6732,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6753,6 +6767,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6928,14 +6943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7090,7 +7105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25762793</v>
       </c>
@@ -7152,7 +7167,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>27352588</v>
       </c>
@@ -7220,7 +7235,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13441289</v>
       </c>
@@ -7288,7 +7303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>22943553</v>
       </c>
@@ -7335,7 +7350,7 @@
         <v>59</v>
       </c>
       <c r="Y5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AC5" t="s">
         <v>67</v>
@@ -7356,7 +7371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23240731</v>
       </c>
@@ -7427,7 +7442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7293516</v>
       </c>
@@ -7492,7 +7507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>27352076</v>
       </c>
@@ -7554,7 +7569,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>29365439</v>
       </c>
@@ -7619,7 +7634,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>26705595</v>
       </c>
@@ -7675,7 +7690,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>27512115</v>
       </c>
@@ -7737,7 +7752,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30327988</v>
       </c>
@@ -7793,7 +7808,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23148707</v>
       </c>
@@ -7855,7 +7870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30801495</v>
       </c>
@@ -7902,7 +7917,7 @@
         <v>59</v>
       </c>
       <c r="Y14">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -7923,7 +7938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7293519</v>
       </c>
@@ -7991,7 +8006,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22941985</v>
       </c>
@@ -8038,7 +8053,7 @@
         <v>59</v>
       </c>
       <c r="Y16">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AC16" t="s">
         <v>140</v>
@@ -8050,7 +8065,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22942003</v>
       </c>
@@ -8097,7 +8112,7 @@
         <v>59</v>
       </c>
       <c r="Y17">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AC17" t="s">
         <v>140</v>
@@ -8112,7 +8127,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22941833</v>
       </c>
@@ -8159,7 +8174,7 @@
         <v>59</v>
       </c>
       <c r="Y18">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AC18" t="s">
         <v>140</v>
@@ -8171,7 +8186,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25838113</v>
       </c>
@@ -8233,7 +8248,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>26885961</v>
       </c>
@@ -8283,7 +8298,7 @@
         <v>59</v>
       </c>
       <c r="Y20">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Z20">
         <v>10</v>
@@ -8307,7 +8322,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26089909</v>
       </c>
@@ -8360,7 +8375,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26085987</v>
       </c>
@@ -8410,7 +8425,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26086498</v>
       </c>
@@ -8457,7 +8472,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23239000</v>
       </c>
@@ -8510,7 +8525,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13440941</v>
       </c>
@@ -8569,7 +8584,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13447030</v>
       </c>
@@ -8622,7 +8637,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7293523</v>
       </c>
@@ -8681,7 +8696,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9798466</v>
       </c>
@@ -8734,7 +8749,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9798648</v>
       </c>
@@ -8781,7 +8796,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22939890</v>
       </c>
@@ -8822,7 +8837,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>22940365</v>
       </c>
@@ -8863,7 +8878,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22933710</v>
       </c>
@@ -8910,7 +8925,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30327131</v>
       </c>
@@ -8951,7 +8966,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30121167</v>
       </c>
@@ -8992,7 +9007,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30121486</v>
       </c>
@@ -9027,7 +9042,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7293524</v>
       </c>
@@ -9086,7 +9101,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>25818648</v>
       </c>
@@ -9133,7 +9148,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>23240500</v>
       </c>
@@ -9186,7 +9201,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>26022325</v>
       </c>
@@ -9239,7 +9254,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>26981246</v>
       </c>
@@ -9280,7 +9295,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>26980111</v>
       </c>
@@ -9318,7 +9333,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>30120444</v>
       </c>
@@ -9359,7 +9374,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>30120136</v>
       </c>
@@ -9397,7 +9412,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>29265282</v>
       </c>
@@ -9438,7 +9453,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>26669604</v>
       </c>
@@ -9476,7 +9491,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7293525</v>
       </c>
@@ -9535,7 +9550,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9797842</v>
       </c>
@@ -9591,7 +9606,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>30325568</v>
       </c>
@@ -9635,7 +9650,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13447523</v>
       </c>
@@ -9682,7 +9697,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>30326532</v>
       </c>
@@ -9726,7 +9741,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>30232918</v>
       </c>
@@ -9767,7 +9782,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>30328055</v>
       </c>
@@ -9811,7 +9826,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>30117699</v>
       </c>
@@ -9849,7 +9864,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>30118074</v>
       </c>
@@ -9884,7 +9899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7307515</v>
       </c>
@@ -9934,7 +9949,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>26706307</v>
       </c>
@@ -9978,7 +9993,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>26608614</v>
       </c>
@@ -10025,7 +10040,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22940679</v>
       </c>
@@ -10072,7 +10087,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>22940587</v>
       </c>
@@ -10113,7 +10128,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>26702925</v>
       </c>
@@ -10151,7 +10166,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7307801</v>
       </c>
@@ -10201,7 +10216,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30326625</v>
       </c>
@@ -10248,7 +10263,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>30327160</v>
       </c>
@@ -10292,7 +10307,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7293527</v>
       </c>
@@ -10342,7 +10357,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13542049</v>
       </c>
@@ -10389,7 +10404,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30118514</v>
       </c>
@@ -10430,7 +10445,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9828295</v>
       </c>
@@ -10462,7 +10477,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9828237</v>
       </c>
@@ -10494,7 +10509,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7293528</v>
       </c>
@@ -10532,7 +10547,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>25957936</v>
       </c>
@@ -10582,7 +10597,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>25957248</v>
       </c>
@@ -10626,7 +10641,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>25992875</v>
       </c>
@@ -10670,7 +10685,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>30327108</v>
       </c>
@@ -10717,7 +10732,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9826616</v>
       </c>
@@ -10764,7 +10779,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9798809</v>
       </c>
@@ -10805,7 +10820,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9798733</v>
       </c>
@@ -10852,7 +10867,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>9798702</v>
       </c>
@@ -10890,7 +10905,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>22940289</v>
       </c>
@@ -10931,7 +10946,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>26093216</v>
       </c>
@@ -10975,7 +10990,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>13542333</v>
       </c>
@@ -11016,7 +11031,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9827067</v>
       </c>
@@ -11057,7 +11072,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9796726</v>
       </c>
@@ -11107,7 +11122,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>9796596</v>
       </c>
@@ -11151,7 +11166,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9826767</v>
       </c>
@@ -11201,7 +11216,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>30122086</v>
       </c>
@@ -11242,7 +11257,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>30227889</v>
       </c>
@@ -11280,7 +11295,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>30122422</v>
       </c>
@@ -11321,7 +11336,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>25766395</v>
       </c>
@@ -11362,7 +11377,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>21401400</v>
       </c>
@@ -11406,7 +11421,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>30328032</v>
       </c>
@@ -11444,7 +11459,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>26027738</v>
       </c>
@@ -11497,7 +11512,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>27512403</v>
       </c>
@@ -11541,7 +11556,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>30327862</v>
       </c>
@@ -11579,7 +11594,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7293529</v>
       </c>
@@ -11623,7 +11638,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8146672</v>
       </c>
@@ -11676,7 +11691,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>30327703</v>
       </c>
@@ -11717,7 +11732,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="97" spans="1:37">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>22940736</v>
       </c>
@@ -11761,7 +11776,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="98" spans="1:37">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>25986585</v>
       </c>
@@ -11808,7 +11823,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="99" spans="1:37">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>22943467</v>
       </c>
@@ -11852,7 +11867,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="100" spans="1:37">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>30233012</v>
       </c>
@@ -11902,7 +11917,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="101" spans="1:37">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>26981035</v>
       </c>
@@ -11946,7 +11961,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="102" spans="1:37">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>23110650</v>
       </c>
@@ -11987,7 +12002,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="103" spans="1:37">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>25763947</v>
       </c>
@@ -12037,7 +12052,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="104" spans="1:37">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>26980885</v>
       </c>
@@ -12078,7 +12093,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="105" spans="1:37">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>29364374</v>
       </c>
@@ -12119,7 +12134,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="106" spans="1:37">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>25768089</v>
       </c>
@@ -12166,7 +12181,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:37">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>26981131</v>
       </c>
@@ -12204,7 +12219,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="108" spans="1:37">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9396715</v>
       </c>
@@ -12248,7 +12263,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="109" spans="1:37">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>30327825</v>
       </c>
@@ -12286,7 +12301,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="110" spans="1:37">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>30327789</v>
       </c>
@@ -12327,7 +12342,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="111" spans="1:37">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>9797724</v>
       </c>
@@ -12368,7 +12383,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="112" spans="1:37">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9797793</v>
       </c>
@@ -12409,7 +12424,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="113" spans="1:38">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7293531</v>
       </c>
@@ -12459,7 +12474,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="114" spans="1:38">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11950773</v>
       </c>
@@ -12497,7 +12512,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="115" spans="1:38">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>26152460</v>
       </c>
@@ -12538,7 +12553,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="116" spans="1:38">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9794837</v>
       </c>
@@ -12579,7 +12594,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="117" spans="1:38">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>25988466</v>
       </c>
@@ -12629,7 +12644,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="118" spans="1:38">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>26014484</v>
       </c>
@@ -12670,7 +12685,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="119" spans="1:38">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>25952663</v>
       </c>
@@ -12720,7 +12735,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="120" spans="1:38">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>22943670</v>
       </c>
@@ -12764,7 +12779,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="121" spans="1:38">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>11952252</v>
       </c>
@@ -12811,7 +12826,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="122" spans="1:38">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>30327911</v>
       </c>
@@ -12855,7 +12870,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="123" spans="1:38">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>30327939</v>
       </c>
@@ -12899,7 +12914,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="124" spans="1:38">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22942990</v>
       </c>
@@ -12952,7 +12967,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="125" spans="1:38">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>25949004</v>
       </c>
@@ -12993,7 +13008,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="126" spans="1:38">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>30227986</v>
       </c>
@@ -13037,7 +13052,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="127" spans="1:38">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>22940437</v>
       </c>
@@ -13078,7 +13093,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="128" spans="1:38">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>25986193</v>
       </c>
@@ -13128,7 +13143,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="129" spans="1:38">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>22931865</v>
       </c>
@@ -13172,7 +13187,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="130" spans="1:38">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>9391059</v>
       </c>
@@ -13216,7 +13231,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="131" spans="1:38">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>22932115</v>
       </c>
@@ -13257,7 +13272,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="132" spans="1:38">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>23239858</v>
       </c>
@@ -13304,7 +13319,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="133" spans="1:38">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>23210870</v>
       </c>
@@ -13357,7 +13372,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="134" spans="1:38">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>9797162</v>
       </c>
@@ -13401,7 +13416,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="135" spans="1:38">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>25837034</v>
       </c>
@@ -13448,7 +13463,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="136" spans="1:38">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9797337</v>
       </c>
@@ -13501,7 +13516,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="137" spans="1:38">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7293534</v>
       </c>
@@ -13542,7 +13557,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="138" spans="1:38">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>13443673</v>
       </c>
@@ -13580,7 +13595,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="139" spans="1:38">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>30327530</v>
       </c>
@@ -13624,7 +13639,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="140" spans="1:38">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>30327624</v>
       </c>
@@ -13671,7 +13686,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="141" spans="1:38">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>30327567</v>
       </c>
@@ -13715,7 +13730,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="142" spans="1:38">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>25987887</v>
       </c>
@@ -13759,7 +13774,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="143" spans="1:38">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>7293522</v>
       </c>
@@ -13800,7 +13815,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="144" spans="1:38">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>7307619</v>
       </c>
@@ -13847,7 +13862,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="145" spans="1:38">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>26700101</v>
       </c>
@@ -13882,7 +13897,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="146" spans="1:38">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>25950249</v>
       </c>
@@ -13929,7 +13944,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="147" spans="1:38">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>9798072</v>
       </c>
@@ -13973,7 +13988,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="148" spans="1:38">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>9798044</v>
       </c>
@@ -14017,7 +14032,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="149" spans="1:38">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>22942307</v>
       </c>
@@ -14061,7 +14076,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="150" spans="1:38">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>26484789</v>
       </c>
@@ -14105,7 +14120,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="151" spans="1:38">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>9797568</v>
       </c>
@@ -14146,7 +14161,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="152" spans="1:38">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>9797691</v>
       </c>
@@ -14184,7 +14199,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="153" spans="1:38">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>30227809</v>
       </c>
@@ -14231,7 +14246,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="154" spans="1:38">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9796027</v>
       </c>
@@ -14272,7 +14287,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="155" spans="1:38">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>9796165</v>
       </c>
@@ -14313,7 +14328,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="156" spans="1:38">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>22942395</v>
       </c>
@@ -14357,7 +14372,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="157" spans="1:38">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7293535</v>
       </c>
@@ -14404,7 +14419,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="158" spans="1:38">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>25992329</v>
       </c>
@@ -14457,7 +14472,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="159" spans="1:38">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7293536</v>
       </c>
@@ -14504,7 +14519,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="160" spans="1:38">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>26605138</v>
       </c>
@@ -14548,7 +14563,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="161" spans="1:38">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8149342</v>
       </c>
@@ -14592,7 +14607,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="162" spans="1:38">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>8149442</v>
       </c>
@@ -14642,7 +14657,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="163" spans="1:38">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>22942172</v>
       </c>
@@ -14686,7 +14701,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="164" spans="1:38">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>26091267</v>
       </c>
@@ -14733,7 +14748,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="165" spans="1:38">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>9797018</v>
       </c>
@@ -14774,7 +14789,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="166" spans="1:38">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>9797135</v>
       </c>
@@ -14815,7 +14830,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="167" spans="1:38">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>25955022</v>
       </c>
@@ -14862,7 +14877,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="168" spans="1:38">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>26023325</v>
       </c>
@@ -14912,7 +14927,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="169" spans="1:38">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>22942042</v>
       </c>
@@ -14956,7 +14971,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="170" spans="1:38">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>30327997</v>
       </c>
@@ -14997,7 +15012,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="171" spans="1:38">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>30328015</v>
       </c>
@@ -15035,7 +15050,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="172" spans="1:38">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>29367354</v>
       </c>
@@ -15076,7 +15091,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="173" spans="1:38">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>29368618</v>
       </c>
@@ -15117,7 +15132,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="174" spans="1:38">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>25990792</v>
       </c>
@@ -15161,7 +15176,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="175" spans="1:38">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>23141186</v>
       </c>
@@ -15208,7 +15223,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="176" spans="1:38">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>8149543</v>
       </c>
@@ -15255,7 +15270,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="177" spans="1:38">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25950922</v>
       </c>
@@ -15305,7 +15320,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="178" spans="1:38">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>26147916</v>
       </c>
@@ -15358,7 +15373,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="179" spans="1:38">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>7293537</v>
       </c>
@@ -15405,7 +15420,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="180" spans="1:38">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>30228192</v>
       </c>
@@ -15452,7 +15467,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="181" spans="1:38">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>9795637</v>
       </c>
@@ -15496,7 +15511,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="182" spans="1:38">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>9795849</v>
       </c>
@@ -15537,7 +15552,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="183" spans="1:38">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>25770355</v>
       </c>
@@ -15578,7 +15593,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="184" spans="1:38">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>9795109</v>
       </c>
@@ -15622,7 +15637,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="185" spans="1:38">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>22932350</v>
       </c>
@@ -15663,7 +15678,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="186" spans="1:38">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>25991845</v>
       </c>
@@ -15716,7 +15731,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="187" spans="1:38">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>30228398</v>
       </c>
@@ -15763,7 +15778,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="188" spans="1:38">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>26668547</v>
       </c>
@@ -15801,7 +15816,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="189" spans="1:38">
+    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>29364138</v>
       </c>
@@ -15839,7 +15854,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="190" spans="1:38">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>22933984</v>
       </c>
@@ -15886,7 +15901,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="191" spans="1:38">
+    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>30231833</v>
       </c>
@@ -15927,7 +15942,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="192" spans="1:38">
+    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>8149684</v>
       </c>
@@ -15974,7 +15989,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="193" spans="1:38">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>7293538</v>
       </c>
@@ -16024,7 +16039,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="194" spans="1:38">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>23067187</v>
       </c>
@@ -16068,7 +16083,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="195" spans="1:38">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>25989857</v>
       </c>
@@ -16121,7 +16136,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="196" spans="1:38">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>26482822</v>
       </c>
@@ -16159,7 +16174,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="197" spans="1:38">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>28107860</v>
       </c>
@@ -16203,7 +16218,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="198" spans="1:38">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>22934355</v>
       </c>
@@ -16247,7 +16262,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="199" spans="1:38">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>25839123</v>
       </c>
@@ -16288,7 +16303,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="200" spans="1:38">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>26485361</v>
       </c>
@@ -16335,7 +16350,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="201" spans="1:38">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>25760974</v>
       </c>
@@ -16382,7 +16397,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="202" spans="1:38">
+    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>25840720</v>
       </c>
@@ -16420,7 +16435,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="203" spans="1:38">
+    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>27352254</v>
       </c>
@@ -16461,7 +16476,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="204" spans="1:38">
+    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>8150013</v>
       </c>
@@ -16505,7 +16520,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="205" spans="1:38">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7293540</v>
       </c>
@@ -16549,7 +16564,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="206" spans="1:38">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9796255</v>
       </c>
@@ -16593,7 +16608,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="207" spans="1:38">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9796440</v>
       </c>
@@ -16646,7 +16661,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="208" spans="1:38">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>30327241</v>
       </c>
@@ -16687,7 +16702,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="209" spans="1:44">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>30327492</v>
       </c>
@@ -16731,7 +16746,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="210" spans="1:44">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>30327330</v>
       </c>
@@ -16775,7 +16790,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="211" spans="1:44">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>30327389</v>
       </c>
@@ -16816,7 +16831,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="212" spans="1:44">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>23238436</v>
       </c>
@@ -16863,7 +16878,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="213" spans="1:44">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>30328058</v>
       </c>
@@ -16910,7 +16925,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="214" spans="1:44">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>30328057</v>
       </c>
@@ -16957,7 +16972,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="215" spans="1:44">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>30328060</v>
       </c>
@@ -17004,7 +17019,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="216" spans="1:44">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>30328035</v>
       </c>
@@ -17051,7 +17066,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="217" spans="1:44">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>30328037</v>
       </c>
@@ -17098,7 +17113,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="218" spans="1:44">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>30328038</v>
       </c>
@@ -17145,7 +17160,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="219" spans="1:44">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>30328018</v>
       </c>
@@ -17192,7 +17207,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="220" spans="1:44">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>30328017</v>
       </c>
@@ -17236,7 +17251,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="221" spans="1:44">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>30328016</v>
       </c>
@@ -17280,7 +17295,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="222" spans="1:44">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>30327999</v>
       </c>
@@ -17324,7 +17339,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="223" spans="1:44">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>30327998</v>
       </c>
@@ -17371,7 +17386,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="224" spans="1:44">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>30328003</v>
       </c>
@@ -17415,7 +17430,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="225" spans="1:44">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>30327940</v>
       </c>
@@ -17462,7 +17477,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="226" spans="1:44">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>30327942</v>
       </c>
@@ -17509,7 +17524,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="227" spans="1:44">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>30327941</v>
       </c>
@@ -17556,7 +17571,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="228" spans="1:44">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>30327928</v>
       </c>
@@ -17603,7 +17618,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="229" spans="1:44">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>30327921</v>
       </c>
@@ -17650,7 +17665,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="230" spans="1:44">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>30327926</v>
       </c>
@@ -17697,7 +17712,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="231" spans="1:44">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>30327891</v>
       </c>
@@ -17744,7 +17759,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="232" spans="1:44">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>30327905</v>
       </c>
@@ -17791,7 +17806,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="233" spans="1:44">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>30327882</v>
       </c>
@@ -17838,7 +17853,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="234" spans="1:44">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>30327828</v>
       </c>
@@ -17885,7 +17900,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="235" spans="1:44">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>30327798</v>
       </c>
@@ -17932,7 +17947,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="236" spans="1:44">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>30327707</v>
       </c>
@@ -17979,7 +17994,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="237" spans="1:44">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>30327714</v>
       </c>
@@ -18026,7 +18041,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="238" spans="1:44">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>30327708</v>
       </c>
@@ -18073,7 +18088,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="239" spans="1:44">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>30327627</v>
       </c>
@@ -18120,7 +18135,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="240" spans="1:44">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>30327625</v>
       </c>
@@ -18167,7 +18182,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="241" spans="1:44">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>30327626</v>
       </c>
@@ -18214,7 +18229,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="242" spans="1:44">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>30327568</v>
       </c>
@@ -18261,7 +18276,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="243" spans="1:44">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>30327569</v>
       </c>
@@ -18308,7 +18323,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="244" spans="1:44">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>30327570</v>
       </c>
@@ -18355,7 +18370,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="245" spans="1:44">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>30327534</v>
       </c>
@@ -18402,7 +18417,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="246" spans="1:44">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>30327545</v>
       </c>
@@ -18449,7 +18464,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="247" spans="1:44">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>30327547</v>
       </c>
@@ -18496,7 +18511,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="248" spans="1:44">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>30327494</v>
       </c>
@@ -18543,7 +18558,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="249" spans="1:44">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>30327495</v>
       </c>
@@ -18590,7 +18605,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="250" spans="1:44">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>30327493</v>
       </c>
@@ -18637,7 +18652,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="251" spans="1:44">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>30327391</v>
       </c>
@@ -18684,7 +18699,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="252" spans="1:44">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>30327390</v>
       </c>
@@ -18731,7 +18746,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="253" spans="1:44">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>30327392</v>
       </c>
@@ -18778,7 +18793,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="254" spans="1:44">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>30327337</v>
       </c>
@@ -18825,7 +18840,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="255" spans="1:44">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>30327346</v>
       </c>
@@ -18872,7 +18887,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="256" spans="1:44">
+    <row r="256" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>30327334</v>
       </c>
@@ -18919,7 +18934,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="257" spans="1:44">
+    <row r="257" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>30327276</v>
       </c>
@@ -18966,7 +18981,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="258" spans="1:44">
+    <row r="258" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>30327248</v>
       </c>
@@ -19013,7 +19028,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="259" spans="1:44">
+    <row r="259" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>30327273</v>
       </c>
@@ -19060,7 +19075,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="260" spans="1:44">
+    <row r="260" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>30327161</v>
       </c>
@@ -19107,7 +19122,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="261" spans="1:44">
+    <row r="261" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>30327162</v>
       </c>
@@ -19154,7 +19169,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="262" spans="1:44">
+    <row r="262" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>30327163</v>
       </c>
@@ -19201,7 +19216,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="263" spans="1:44">
+    <row r="263" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>30327137</v>
       </c>
@@ -19248,7 +19263,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="264" spans="1:44">
+    <row r="264" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>30327141</v>
       </c>
@@ -19295,7 +19310,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="265" spans="1:44">
+    <row r="265" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>30327136</v>
       </c>
@@ -19342,7 +19357,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="266" spans="1:44">
+    <row r="266" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>30327111</v>
       </c>
@@ -19389,7 +19404,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="267" spans="1:44">
+    <row r="267" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>30327109</v>
       </c>
@@ -19436,7 +19451,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="268" spans="1:44">
+    <row r="268" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>30327110</v>
       </c>
@@ -19483,7 +19498,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="269" spans="1:44">
+    <row r="269" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>30326626</v>
       </c>
@@ -19530,7 +19545,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="270" spans="1:44">
+    <row r="270" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>30326627</v>
       </c>
@@ -19577,7 +19592,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="271" spans="1:44">
+    <row r="271" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>30326628</v>
       </c>
@@ -19624,7 +19639,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="272" spans="1:44">
+    <row r="272" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>30326533</v>
       </c>
@@ -19671,7 +19686,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="273" spans="1:44">
+    <row r="273" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>30326535</v>
       </c>
@@ -19718,7 +19733,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="274" spans="1:44">
+    <row r="274" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>30326534</v>
       </c>
@@ -19765,7 +19780,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="275" spans="1:44">
+    <row r="275" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>30325570</v>
       </c>
@@ -19812,7 +19827,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="276" spans="1:44">
+    <row r="276" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>30325571</v>
       </c>
@@ -19859,7 +19874,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="277" spans="1:44">
+    <row r="277" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>30325569</v>
       </c>
@@ -19906,7 +19921,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="278" spans="1:44">
+    <row r="278" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>30233013</v>
       </c>
@@ -19953,7 +19968,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="279" spans="1:44">
+    <row r="279" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>30233014</v>
       </c>
@@ -20000,7 +20015,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="280" spans="1:44">
+    <row r="280" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>30233015</v>
       </c>
@@ -20047,7 +20062,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="281" spans="1:44">
+    <row r="281" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>30232956</v>
       </c>
@@ -20094,7 +20109,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="282" spans="1:44">
+    <row r="282" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>30232959</v>
       </c>
@@ -20138,7 +20153,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="283" spans="1:44">
+    <row r="283" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>30232953</v>
       </c>
@@ -20185,7 +20200,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="284" spans="1:44">
+    <row r="284" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>30231836</v>
       </c>
@@ -20232,7 +20247,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="285" spans="1:44">
+    <row r="285" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>30231835</v>
       </c>
@@ -20279,7 +20294,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="286" spans="1:44">
+    <row r="286" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>30231834</v>
       </c>
@@ -20326,7 +20341,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="287" spans="1:44">
+    <row r="287" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>30228401</v>
       </c>
@@ -20373,7 +20388,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="288" spans="1:44">
+    <row r="288" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>30228400</v>
       </c>
@@ -20420,7 +20435,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="289" spans="1:44">
+    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>30228399</v>
       </c>
@@ -20467,7 +20482,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="290" spans="1:44">
+    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>30228194</v>
       </c>
@@ -20514,7 +20529,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="291" spans="1:44">
+    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>30228193</v>
       </c>
@@ -20561,7 +20576,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="292" spans="1:44">
+    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>30228195</v>
       </c>
@@ -20608,7 +20623,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="293" spans="1:44">
+    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>30227988</v>
       </c>
@@ -20655,7 +20670,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="294" spans="1:44">
+    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>30227989</v>
       </c>
@@ -20702,7 +20717,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="295" spans="1:44">
+    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>30227987</v>
       </c>
@@ -20749,7 +20764,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="296" spans="1:44">
+    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>30227909</v>
       </c>
@@ -20796,7 +20811,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="297" spans="1:44">
+    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>30227903</v>
       </c>
@@ -20843,7 +20858,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="298" spans="1:44">
+    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>30227913</v>
       </c>
@@ -20890,7 +20905,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="299" spans="1:44">
+    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>30227860</v>
       </c>
@@ -20937,7 +20952,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="300" spans="1:44">
+    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>30227865</v>
       </c>
@@ -20981,7 +20996,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="301" spans="1:44">
+    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>30227857</v>
       </c>
@@ -21028,7 +21043,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="302" spans="1:44">
+    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>30122462</v>
       </c>
@@ -21075,7 +21090,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="303" spans="1:44">
+    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>30122248</v>
       </c>
@@ -21122,7 +21137,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="304" spans="1:44">
+    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>30121532</v>
       </c>
@@ -21169,7 +21184,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="305" spans="1:44">
+    <row r="305" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>30121834</v>
       </c>
@@ -21216,7 +21231,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="306" spans="1:44">
+    <row r="306" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>30121780</v>
       </c>
@@ -21263,7 +21278,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="307" spans="1:44">
+    <row r="307" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>30121285</v>
       </c>
@@ -21310,7 +21325,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="308" spans="1:44">
+    <row r="308" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>30121376</v>
       </c>
@@ -21357,7 +21372,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="309" spans="1:44">
+    <row r="309" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>30121337</v>
       </c>
@@ -21404,7 +21419,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="310" spans="1:44">
+    <row r="310" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>30120653</v>
       </c>
@@ -21451,7 +21466,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="311" spans="1:44">
+    <row r="311" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>30120695</v>
       </c>
@@ -21498,7 +21513,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="312" spans="1:44">
+    <row r="312" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>30120743</v>
       </c>
@@ -21545,7 +21560,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="313" spans="1:44">
+    <row r="313" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>30120325</v>
       </c>
@@ -21592,7 +21607,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="314" spans="1:44">
+    <row r="314" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>30120297</v>
       </c>
@@ -21639,7 +21654,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="315" spans="1:44">
+    <row r="315" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>30120360</v>
       </c>
@@ -21686,7 +21701,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="316" spans="1:44">
+    <row r="316" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>30119461</v>
       </c>
@@ -21733,7 +21748,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="317" spans="1:44">
+    <row r="317" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>30118768</v>
       </c>
@@ -21780,7 +21795,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="318" spans="1:44">
+    <row r="318" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>30118802</v>
       </c>
@@ -21827,7 +21842,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="319" spans="1:44">
+    <row r="319" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>30118076</v>
       </c>
@@ -21874,7 +21889,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="320" spans="1:44">
+    <row r="320" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>30118075</v>
       </c>
@@ -21921,7 +21936,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="321" spans="1:44">
+    <row r="321" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>30118077</v>
       </c>
@@ -21968,7 +21983,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="322" spans="1:44">
+    <row r="322" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>30117821</v>
       </c>
@@ -22015,7 +22030,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="323" spans="1:44">
+    <row r="323" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>30117777</v>
       </c>
@@ -22062,7 +22077,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="324" spans="1:44">
+    <row r="324" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>30117865</v>
       </c>
@@ -22109,7 +22124,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="325" spans="1:44">
+    <row r="325" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>29368621</v>
       </c>
@@ -22156,7 +22171,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="326" spans="1:44">
+    <row r="326" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>29368619</v>
       </c>
@@ -22203,7 +22218,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="327" spans="1:44">
+    <row r="327" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>29368706</v>
       </c>
@@ -22250,7 +22265,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="328" spans="1:44">
+    <row r="328" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>29367420</v>
       </c>
@@ -22297,7 +22312,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="329" spans="1:44">
+    <row r="329" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>29367444</v>
       </c>
@@ -22344,7 +22359,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="330" spans="1:44">
+    <row r="330" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>29364376</v>
       </c>
@@ -22391,7 +22406,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="331" spans="1:44">
+    <row r="331" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>29364375</v>
       </c>
@@ -22438,7 +22453,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="332" spans="1:44">
+    <row r="332" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>29364140</v>
       </c>
@@ -22488,7 +22503,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="333" spans="1:44">
+    <row r="333" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>29364139</v>
       </c>
@@ -22538,7 +22553,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="334" spans="1:44">
+    <row r="334" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>29265285</v>
       </c>
@@ -22585,7 +22600,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="335" spans="1:44">
+    <row r="335" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>29265284</v>
       </c>
@@ -22632,7 +22647,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="336" spans="1:44">
+    <row r="336" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>28108221</v>
       </c>
@@ -22679,7 +22694,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="337" spans="1:44">
+    <row r="337" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>28108240</v>
       </c>
@@ -22726,7 +22741,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="338" spans="1:44">
+    <row r="338" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>27512406</v>
       </c>
@@ -22773,7 +22788,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="339" spans="1:44">
+    <row r="339" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>27512405</v>
       </c>
@@ -22820,7 +22835,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="340" spans="1:44">
+    <row r="340" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>27512404</v>
       </c>
@@ -22867,7 +22882,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="341" spans="1:44">
+    <row r="341" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>27352347</v>
       </c>
@@ -22914,7 +22929,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="342" spans="1:44">
+    <row r="342" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>27352359</v>
       </c>
@@ -22961,7 +22976,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="343" spans="1:44">
+    <row r="343" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>26981309</v>
       </c>
@@ -23008,7 +23023,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="344" spans="1:44">
+    <row r="344" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>26981293</v>
       </c>
@@ -23055,7 +23070,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="345" spans="1:44">
+    <row r="345" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>26981176</v>
       </c>
@@ -23102,7 +23117,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="346" spans="1:44">
+    <row r="346" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>26981204</v>
       </c>
@@ -23149,7 +23164,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="347" spans="1:44">
+    <row r="347" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>26981214</v>
       </c>
@@ -23196,7 +23211,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="348" spans="1:44">
+    <row r="348" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>26981084</v>
       </c>
@@ -23243,7 +23258,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="349" spans="1:44">
+    <row r="349" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>26981094</v>
       </c>
@@ -23290,7 +23305,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="350" spans="1:44">
+    <row r="350" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>26980973</v>
       </c>
@@ -23337,7 +23352,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="351" spans="1:44">
+    <row r="351" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>26980959</v>
       </c>
@@ -23384,7 +23399,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="352" spans="1:44">
+    <row r="352" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>26980985</v>
       </c>
@@ -23431,7 +23446,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="353" spans="1:44">
+    <row r="353" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>26980194</v>
       </c>
@@ -23478,7 +23493,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="354" spans="1:44">
+    <row r="354" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>26980223</v>
       </c>
@@ -23525,7 +23540,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="355" spans="1:44">
+    <row r="355" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>26706308</v>
       </c>
@@ -23572,7 +23587,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="356" spans="1:44">
+    <row r="356" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>26706310</v>
       </c>
@@ -23619,7 +23634,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="357" spans="1:44">
+    <row r="357" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>26706309</v>
       </c>
@@ -23666,7 +23681,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="358" spans="1:44">
+    <row r="358" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>26703112</v>
       </c>
@@ -23713,7 +23728,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="359" spans="1:44">
+    <row r="359" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>26703087</v>
       </c>
@@ -23760,7 +23775,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="360" spans="1:44">
+    <row r="360" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>26703046</v>
       </c>
@@ -23807,7 +23822,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="361" spans="1:44">
+    <row r="361" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>26700149</v>
       </c>
@@ -23854,7 +23869,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="362" spans="1:44">
+    <row r="362" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>26700162</v>
       </c>
@@ -23901,7 +23916,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="363" spans="1:44">
+    <row r="363" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>26700243</v>
       </c>
@@ -23948,7 +23963,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="364" spans="1:44">
+    <row r="364" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>26700272</v>
       </c>
@@ -23995,7 +24010,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="365" spans="1:44">
+    <row r="365" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>26669894</v>
       </c>
@@ -24042,7 +24057,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="366" spans="1:44">
+    <row r="366" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>26669820</v>
       </c>
@@ -24089,7 +24104,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="367" spans="1:44">
+    <row r="367" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>26669861</v>
       </c>
@@ -24136,7 +24151,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="368" spans="1:44">
+    <row r="368" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>26669057</v>
       </c>
@@ -24183,7 +24198,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="369" spans="1:44">
+    <row r="369" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>26669030</v>
       </c>
@@ -24230,7 +24245,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="370" spans="1:44">
+    <row r="370" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>26668977</v>
       </c>
@@ -24277,7 +24292,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="371" spans="1:44">
+    <row r="371" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>26608781</v>
       </c>
@@ -24324,7 +24339,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="372" spans="1:44">
+    <row r="372" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>26608741</v>
       </c>
@@ -24371,7 +24386,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="373" spans="1:44">
+    <row r="373" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>26609104</v>
       </c>
@@ -24418,7 +24433,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="374" spans="1:44">
+    <row r="374" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>26605140</v>
       </c>
@@ -24468,7 +24483,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="375" spans="1:44">
+    <row r="375" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>29325403</v>
       </c>
@@ -24518,7 +24533,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="376" spans="1:44">
+    <row r="376" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>26605139</v>
       </c>
@@ -24568,7 +24583,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="377" spans="1:44">
+    <row r="377" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>26605440</v>
       </c>
@@ -24618,7 +24633,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="378" spans="1:44">
+    <row r="378" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>26485362</v>
       </c>
@@ -24665,7 +24680,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="379" spans="1:44">
+    <row r="379" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>26485365</v>
       </c>
@@ -24712,7 +24727,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="380" spans="1:44">
+    <row r="380" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>26485363</v>
       </c>
@@ -24759,7 +24774,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="381" spans="1:44">
+    <row r="381" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>26484790</v>
       </c>
@@ -24806,7 +24821,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="382" spans="1:44">
+    <row r="382" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>26484792</v>
       </c>
@@ -24853,7 +24868,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="383" spans="1:44">
+    <row r="383" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>26484791</v>
       </c>
@@ -24900,7 +24915,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="384" spans="1:44">
+    <row r="384" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>26483043</v>
       </c>
@@ -24947,7 +24962,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="385" spans="1:44">
+    <row r="385" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>26483014</v>
       </c>
@@ -24994,7 +25009,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="386" spans="1:44">
+    <row r="386" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>26152617</v>
       </c>
@@ -25041,7 +25056,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="387" spans="1:44">
+    <row r="387" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>26152712</v>
       </c>
@@ -25088,7 +25103,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="388" spans="1:44">
+    <row r="388" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>26152715</v>
       </c>
@@ -25135,7 +25150,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="389" spans="1:44">
+    <row r="389" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>26147917</v>
       </c>
@@ -25182,7 +25197,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="390" spans="1:44">
+    <row r="390" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>26147918</v>
       </c>
@@ -25229,7 +25244,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="391" spans="1:44">
+    <row r="391" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>26147919</v>
       </c>
@@ -25276,7 +25291,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="392" spans="1:44">
+    <row r="392" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>26093303</v>
       </c>
@@ -25323,7 +25338,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="393" spans="1:44">
+    <row r="393" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>26093352</v>
       </c>
@@ -25370,7 +25385,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="394" spans="1:44">
+    <row r="394" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>26093326</v>
       </c>
@@ -25417,7 +25432,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="395" spans="1:44">
+    <row r="395" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>26091473</v>
       </c>
@@ -25464,7 +25479,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="396" spans="1:44">
+    <row r="396" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>26091485</v>
       </c>
@@ -25511,7 +25526,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="397" spans="1:44">
+    <row r="397" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>26091502</v>
       </c>
@@ -25558,7 +25573,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="398" spans="1:44">
+    <row r="398" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>26089912</v>
       </c>
@@ -25605,7 +25620,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="399" spans="1:44">
+    <row r="399" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>26089911</v>
       </c>
@@ -25652,7 +25667,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="400" spans="1:44">
+    <row r="400" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>26089910</v>
       </c>
@@ -25699,7 +25714,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="401" spans="1:44">
+    <row r="401" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>26086501</v>
       </c>
@@ -25746,7 +25761,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="402" spans="1:44">
+    <row r="402" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>26086500</v>
       </c>
@@ -25793,7 +25808,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="403" spans="1:44">
+    <row r="403" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>26086499</v>
       </c>
@@ -25840,7 +25855,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="404" spans="1:44">
+    <row r="404" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>26085988</v>
       </c>
@@ -25887,7 +25902,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="405" spans="1:44">
+    <row r="405" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>26085990</v>
       </c>
@@ -25934,7 +25949,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="406" spans="1:44">
+    <row r="406" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>26085989</v>
       </c>
@@ -25981,7 +25996,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="407" spans="1:44">
+    <row r="407" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>26028179</v>
       </c>
@@ -26028,7 +26043,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="408" spans="1:44">
+    <row r="408" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>26028135</v>
       </c>
@@ -26075,7 +26090,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="409" spans="1:44">
+    <row r="409" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>26028005</v>
       </c>
@@ -26122,7 +26137,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="410" spans="1:44">
+    <row r="410" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>26023329</v>
       </c>
@@ -26169,7 +26184,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="411" spans="1:44">
+    <row r="411" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>26023328</v>
       </c>
@@ -26216,7 +26231,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="412" spans="1:44">
+    <row r="412" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>26023327</v>
       </c>
@@ -26263,7 +26278,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="413" spans="1:44">
+    <row r="413" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>26022537</v>
       </c>
@@ -26310,7 +26325,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="414" spans="1:44">
+    <row r="414" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>26022518</v>
       </c>
@@ -26357,7 +26372,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="415" spans="1:44">
+    <row r="415" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>26022368</v>
       </c>
@@ -26404,7 +26419,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="416" spans="1:44">
+    <row r="416" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>26014571</v>
       </c>
@@ -26451,7 +26466,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="417" spans="1:44">
+    <row r="417" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>26014647</v>
       </c>
@@ -26498,7 +26513,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="418" spans="1:44">
+    <row r="418" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>26014733</v>
       </c>
@@ -26545,7 +26560,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="419" spans="1:44">
+    <row r="419" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>25992876</v>
       </c>
@@ -26592,7 +26607,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="420" spans="1:44">
+    <row r="420" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>25992878</v>
       </c>
@@ -26639,7 +26654,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="421" spans="1:44">
+    <row r="421" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>25992877</v>
       </c>
@@ -26686,7 +26701,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="422" spans="1:44">
+    <row r="422" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>25992333</v>
       </c>
@@ -26733,7 +26748,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="423" spans="1:44">
+    <row r="423" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>25992330</v>
       </c>
@@ -26780,7 +26795,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="424" spans="1:44">
+    <row r="424" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>25992331</v>
       </c>
@@ -26827,7 +26842,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="425" spans="1:44">
+    <row r="425" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>25992332</v>
       </c>
@@ -26874,7 +26889,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="426" spans="1:44">
+    <row r="426" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>25991877</v>
       </c>
@@ -26921,7 +26936,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="427" spans="1:44">
+    <row r="427" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>25991880</v>
       </c>
@@ -26968,7 +26983,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="428" spans="1:44">
+    <row r="428" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>25991872</v>
       </c>
@@ -27015,7 +27030,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="429" spans="1:44">
+    <row r="429" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>25990813</v>
       </c>
@@ -27062,7 +27077,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="430" spans="1:44">
+    <row r="430" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>25990966</v>
       </c>
@@ -27109,7 +27124,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="431" spans="1:44">
+    <row r="431" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>25990962</v>
       </c>
@@ -27153,7 +27168,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="432" spans="1:44">
+    <row r="432" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>25989859</v>
       </c>
@@ -27200,7 +27215,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="433" spans="1:44">
+    <row r="433" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>25989858</v>
       </c>
@@ -27247,7 +27262,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="434" spans="1:44">
+    <row r="434" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>25989860</v>
       </c>
@@ -27294,7 +27309,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="435" spans="1:44">
+    <row r="435" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>25988591</v>
       </c>
@@ -27341,7 +27356,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="436" spans="1:44">
+    <row r="436" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>25988628</v>
       </c>
@@ -27388,7 +27403,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="437" spans="1:44">
+    <row r="437" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>25988524</v>
       </c>
@@ -27435,7 +27450,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="438" spans="1:44">
+    <row r="438" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>25987890</v>
       </c>
@@ -27482,7 +27497,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="439" spans="1:44">
+    <row r="439" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>25987888</v>
       </c>
@@ -27529,7 +27544,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="440" spans="1:44">
+    <row r="440" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>25987889</v>
       </c>
@@ -27576,7 +27591,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="441" spans="1:44">
+    <row r="441" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>25986586</v>
       </c>
@@ -27623,7 +27638,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="442" spans="1:44">
+    <row r="442" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>25986588</v>
       </c>
@@ -27670,7 +27685,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="443" spans="1:44">
+    <row r="443" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>25986587</v>
       </c>
@@ -27717,7 +27732,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="444" spans="1:44">
+    <row r="444" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>25986196</v>
       </c>
@@ -27764,7 +27779,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="445" spans="1:44">
+    <row r="445" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>25986194</v>
       </c>
@@ -27811,7 +27826,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="446" spans="1:44">
+    <row r="446" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>25986195</v>
       </c>
@@ -27858,7 +27873,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="447" spans="1:44">
+    <row r="447" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>25958033</v>
       </c>
@@ -27905,7 +27920,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="448" spans="1:44">
+    <row r="448" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>25958010</v>
       </c>
@@ -27952,7 +27967,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="449" spans="1:44">
+    <row r="449" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>25957970</v>
       </c>
@@ -27999,7 +28014,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="450" spans="1:44">
+    <row r="450" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>25957468</v>
       </c>
@@ -28046,7 +28061,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="451" spans="1:44">
+    <row r="451" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>25957432</v>
       </c>
@@ -28093,7 +28108,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="452" spans="1:44">
+    <row r="452" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>25957419</v>
       </c>
@@ -28140,7 +28155,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="453" spans="1:44">
+    <row r="453" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>25955660</v>
       </c>
@@ -28187,7 +28202,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="454" spans="1:44">
+    <row r="454" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>25955699</v>
       </c>
@@ -28234,7 +28249,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="455" spans="1:44">
+    <row r="455" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>25955614</v>
       </c>
@@ -28281,7 +28296,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="456" spans="1:44">
+    <row r="456" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>25953214</v>
       </c>
@@ -28328,7 +28343,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="457" spans="1:44">
+    <row r="457" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>25953301</v>
       </c>
@@ -28375,7 +28390,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="458" spans="1:44">
+    <row r="458" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>25953189</v>
       </c>
@@ -28422,7 +28437,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="459" spans="1:44">
+    <row r="459" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>25951422</v>
       </c>
@@ -28469,7 +28484,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="460" spans="1:44">
+    <row r="460" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>25951442</v>
       </c>
@@ -28516,7 +28531,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="461" spans="1:44">
+    <row r="461" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>25951491</v>
       </c>
@@ -28563,7 +28578,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="462" spans="1:44">
+    <row r="462" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>25950359</v>
       </c>
@@ -28610,7 +28625,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="463" spans="1:44">
+    <row r="463" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>25950327</v>
       </c>
@@ -28657,7 +28672,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="464" spans="1:44">
+    <row r="464" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>25950383</v>
       </c>
@@ -28704,7 +28719,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="465" spans="1:44">
+    <row r="465" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>25949070</v>
       </c>
@@ -28751,7 +28766,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="466" spans="1:44">
+    <row r="466" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>25949104</v>
       </c>
@@ -28798,7 +28813,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="467" spans="1:44">
+    <row r="467" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>25949155</v>
       </c>
@@ -28845,7 +28860,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="468" spans="1:44">
+    <row r="468" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>25840723</v>
       </c>
@@ -28892,7 +28907,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="469" spans="1:44">
+    <row r="469" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>25840722</v>
       </c>
@@ -28939,7 +28954,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="470" spans="1:44">
+    <row r="470" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>25840721</v>
       </c>
@@ -28986,7 +29001,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="471" spans="1:44">
+    <row r="471" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>25840189</v>
       </c>
@@ -29033,7 +29048,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="472" spans="1:44">
+    <row r="472" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>25839721</v>
       </c>
@@ -29080,7 +29095,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="473" spans="1:44">
+    <row r="473" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>25840207</v>
       </c>
@@ -29127,7 +29142,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="474" spans="1:44">
+    <row r="474" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>25837120</v>
       </c>
@@ -29174,7 +29189,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="475" spans="1:44">
+    <row r="475" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>25837142</v>
       </c>
@@ -29221,7 +29236,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="476" spans="1:44">
+    <row r="476" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>25837154</v>
       </c>
@@ -29268,7 +29283,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="477" spans="1:44">
+    <row r="477" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>25818925</v>
       </c>
@@ -29315,7 +29330,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="478" spans="1:44">
+    <row r="478" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>29264741</v>
       </c>
@@ -29362,7 +29377,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="479" spans="1:44">
+    <row r="479" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>25818783</v>
       </c>
@@ -29409,7 +29424,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="480" spans="1:44">
+    <row r="480" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>25818916</v>
       </c>
@@ -29456,7 +29471,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="481" spans="1:44">
+    <row r="481" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>25770877</v>
       </c>
@@ -29503,7 +29518,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="482" spans="1:44">
+    <row r="482" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>25770912</v>
       </c>
@@ -29550,7 +29565,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="483" spans="1:44">
+    <row r="483" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>25770931</v>
       </c>
@@ -29597,7 +29612,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="484" spans="1:44">
+    <row r="484" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>25768688</v>
       </c>
@@ -29644,7 +29659,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="485" spans="1:44">
+    <row r="485" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>25768426</v>
       </c>
@@ -29691,7 +29706,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="486" spans="1:44">
+    <row r="486" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>25768714</v>
       </c>
@@ -29738,7 +29753,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="487" spans="1:44">
+    <row r="487" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>25767856</v>
       </c>
@@ -29785,7 +29800,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="488" spans="1:44">
+    <row r="488" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>25767899</v>
       </c>
@@ -29832,7 +29847,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="489" spans="1:44">
+    <row r="489" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>25767873</v>
       </c>
@@ -29879,7 +29894,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="490" spans="1:44">
+    <row r="490" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>25764068</v>
       </c>
@@ -29926,7 +29941,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="491" spans="1:44">
+    <row r="491" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>25764088</v>
       </c>
@@ -29973,7 +29988,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="492" spans="1:44">
+    <row r="492" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>25764123</v>
       </c>
@@ -30020,7 +30035,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="493" spans="1:44">
+    <row r="493" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>25761278</v>
       </c>
@@ -30067,7 +30082,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="494" spans="1:44">
+    <row r="494" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>25761310</v>
       </c>
@@ -30114,7 +30129,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="495" spans="1:44">
+    <row r="495" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>25761978</v>
       </c>
@@ -30161,7 +30176,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="496" spans="1:44">
+    <row r="496" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>23240583</v>
       </c>
@@ -30208,7 +30223,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="497" spans="1:44">
+    <row r="497" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>23240541</v>
       </c>
@@ -30255,7 +30270,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="498" spans="1:44">
+    <row r="498" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>23240560</v>
       </c>
@@ -30302,7 +30317,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="499" spans="1:44">
+    <row r="499" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>23240030</v>
       </c>
@@ -30349,7 +30364,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="500" spans="1:44">
+    <row r="500" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>25954377</v>
       </c>
@@ -30396,7 +30411,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="501" spans="1:44">
+    <row r="501" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>23239992</v>
       </c>
@@ -30443,7 +30458,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="502" spans="1:44">
+    <row r="502" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>23239082</v>
       </c>
@@ -30493,7 +30508,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="503" spans="1:44">
+    <row r="503" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>23239049</v>
       </c>
@@ -30543,7 +30558,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="504" spans="1:44">
+    <row r="504" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>23239068</v>
       </c>
@@ -30593,7 +30608,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="505" spans="1:44">
+    <row r="505" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>23238604</v>
       </c>
@@ -30640,7 +30655,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="506" spans="1:44">
+    <row r="506" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>23238619</v>
       </c>
@@ -30687,7 +30702,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="507" spans="1:44">
+    <row r="507" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>23238578</v>
       </c>
@@ -30734,7 +30749,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="508" spans="1:44">
+    <row r="508" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>25952126</v>
       </c>
@@ -30781,7 +30796,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="509" spans="1:44">
+    <row r="509" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>23210910</v>
       </c>
@@ -30828,7 +30843,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="510" spans="1:44">
+    <row r="510" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>25952170</v>
       </c>
@@ -30875,7 +30890,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="511" spans="1:44">
+    <row r="511" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>23141361</v>
       </c>
@@ -30922,7 +30937,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="512" spans="1:44">
+    <row r="512" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>23141349</v>
       </c>
@@ -30969,7 +30984,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="513" spans="1:44">
+    <row r="513" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>25769686</v>
       </c>
@@ -31016,7 +31031,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="514" spans="1:44">
+    <row r="514" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>23110671</v>
       </c>
@@ -31063,7 +31078,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="515" spans="1:44">
+    <row r="515" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>23110677</v>
       </c>
@@ -31110,7 +31125,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="516" spans="1:44">
+    <row r="516" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>23067266</v>
       </c>
@@ -31157,7 +31172,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="517" spans="1:44">
+    <row r="517" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>23067230</v>
       </c>
@@ -31204,7 +31219,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="518" spans="1:44">
+    <row r="518" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>23067245</v>
       </c>
@@ -31251,7 +31266,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="519" spans="1:44">
+    <row r="519" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>22943733</v>
       </c>
@@ -31292,13 +31307,13 @@
         <v>199</v>
       </c>
       <c r="Y519">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR519" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="520" spans="1:44">
+    <row r="520" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>22943694</v>
       </c>
@@ -31339,13 +31354,13 @@
         <v>199</v>
       </c>
       <c r="Y520">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR520" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="521" spans="1:44">
+    <row r="521" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>22943740</v>
       </c>
@@ -31386,13 +31401,13 @@
         <v>199</v>
       </c>
       <c r="Y521">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR521" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="522" spans="1:44">
+    <row r="522" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>22943482</v>
       </c>
@@ -31433,13 +31448,13 @@
         <v>149</v>
       </c>
       <c r="Y522">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR522" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="523" spans="1:44">
+    <row r="523" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>22943513</v>
       </c>
@@ -31480,13 +31495,13 @@
         <v>149</v>
       </c>
       <c r="Y523">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR523" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="524" spans="1:44">
+    <row r="524" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>22943495</v>
       </c>
@@ -31527,13 +31542,13 @@
         <v>149</v>
       </c>
       <c r="Y524">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR524" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="525" spans="1:44">
+    <row r="525" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>22943283</v>
       </c>
@@ -31580,7 +31595,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="526" spans="1:44">
+    <row r="526" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>22943104</v>
       </c>
@@ -31627,7 +31642,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="527" spans="1:44">
+    <row r="527" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>22943352</v>
       </c>
@@ -31668,13 +31683,13 @@
         <v>269</v>
       </c>
       <c r="Y527">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR527" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="528" spans="1:44">
+    <row r="528" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>22943189</v>
       </c>
@@ -31715,13 +31730,13 @@
         <v>269</v>
       </c>
       <c r="Y528">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR528" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="529" spans="1:44">
+    <row r="529" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>22942447</v>
       </c>
@@ -31771,7 +31786,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="530" spans="1:44">
+    <row r="530" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>22942492</v>
       </c>
@@ -31821,7 +31836,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="531" spans="1:44">
+    <row r="531" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>22942524</v>
       </c>
@@ -31871,7 +31886,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="532" spans="1:44">
+    <row r="532" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>22942328</v>
       </c>
@@ -31912,13 +31927,13 @@
         <v>189</v>
       </c>
       <c r="Y532">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR532" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="533" spans="1:44">
+    <row r="533" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>22942330</v>
       </c>
@@ -31959,13 +31974,13 @@
         <v>189</v>
       </c>
       <c r="Y533">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR533" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="534" spans="1:44">
+    <row r="534" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>22942341</v>
       </c>
@@ -32006,13 +32021,13 @@
         <v>189</v>
       </c>
       <c r="Y534">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR534" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="535" spans="1:44">
+    <row r="535" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>22942247</v>
       </c>
@@ -32059,7 +32074,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="536" spans="1:44">
+    <row r="536" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>22942214</v>
       </c>
@@ -32106,7 +32121,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="537" spans="1:44">
+    <row r="537" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>22942226</v>
       </c>
@@ -32153,7 +32168,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="538" spans="1:44">
+    <row r="538" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>22942203</v>
       </c>
@@ -32200,7 +32215,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="539" spans="1:44">
+    <row r="539" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>22942099</v>
       </c>
@@ -32247,7 +32262,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="540" spans="1:44">
+    <row r="540" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>22942074</v>
       </c>
@@ -32294,7 +32309,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="541" spans="1:44">
+    <row r="541" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>22942087</v>
       </c>
@@ -32341,7 +32356,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="542" spans="1:44">
+    <row r="542" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>22940779</v>
       </c>
@@ -32382,13 +32397,13 @@
         <v>129</v>
       </c>
       <c r="Y542">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR542" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="543" spans="1:44">
+    <row r="543" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>22940762</v>
       </c>
@@ -32429,13 +32444,13 @@
         <v>129</v>
       </c>
       <c r="Y543">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR543" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="544" spans="1:44">
+    <row r="544" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>22940747</v>
       </c>
@@ -32476,13 +32491,13 @@
         <v>129</v>
       </c>
       <c r="Y544">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR544" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="545" spans="1:44">
+    <row r="545" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>22940696</v>
       </c>
@@ -32523,13 +32538,13 @@
         <v>119</v>
       </c>
       <c r="Y545">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR545" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="546" spans="1:44">
+    <row r="546" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>22940689</v>
       </c>
@@ -32570,13 +32585,13 @@
         <v>119</v>
       </c>
       <c r="Y546">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR546" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="547" spans="1:44">
+    <row r="547" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>22940701</v>
       </c>
@@ -32617,13 +32632,13 @@
         <v>119</v>
       </c>
       <c r="Y547">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR547" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="548" spans="1:44">
+    <row r="548" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>22940622</v>
       </c>
@@ -32664,13 +32679,13 @@
         <v>119</v>
       </c>
       <c r="Y548">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR548" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="549" spans="1:44">
+    <row r="549" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>22940606</v>
       </c>
@@ -32717,7 +32732,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="550" spans="1:44">
+    <row r="550" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>22940614</v>
       </c>
@@ -32764,7 +32779,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="551" spans="1:44">
+    <row r="551" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>22940454</v>
       </c>
@@ -32811,7 +32826,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="552" spans="1:44">
+    <row r="552" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>22940450</v>
       </c>
@@ -32852,13 +32867,13 @@
         <v>289</v>
       </c>
       <c r="Y552">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AR552" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="553" spans="1:44">
+    <row r="553" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>22940464</v>
       </c>
@@ -32899,13 +32914,13 @@
         <v>289</v>
       </c>
       <c r="Y553">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AR553" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="554" spans="1:44">
+    <row r="554" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>22940404</v>
       </c>
@@ -32946,13 +32961,13 @@
         <v>89</v>
       </c>
       <c r="Y554">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR554" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="555" spans="1:44">
+    <row r="555" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>22940374</v>
       </c>
@@ -32993,13 +33008,13 @@
         <v>89</v>
       </c>
       <c r="Y555">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR555" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="556" spans="1:44">
+    <row r="556" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>22940398</v>
       </c>
@@ -33040,13 +33055,13 @@
         <v>89</v>
       </c>
       <c r="Y556">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR556" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="557" spans="1:44">
+    <row r="557" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>22940319</v>
       </c>
@@ -33087,13 +33102,13 @@
         <v>159</v>
       </c>
       <c r="Y557">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AR557" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="558" spans="1:44">
+    <row r="558" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>22940304</v>
       </c>
@@ -33134,13 +33149,13 @@
         <v>159</v>
       </c>
       <c r="Y558">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AR558" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="559" spans="1:44">
+    <row r="559" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>22940309</v>
       </c>
@@ -33181,13 +33196,13 @@
         <v>159</v>
       </c>
       <c r="Y559">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AR559" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="560" spans="1:44">
+    <row r="560" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>22940230</v>
       </c>
@@ -33228,13 +33243,13 @@
         <v>89</v>
       </c>
       <c r="Y560">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR560" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="561" spans="1:49">
+    <row r="561" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>22940174</v>
       </c>
@@ -33275,13 +33290,13 @@
         <v>89</v>
       </c>
       <c r="Y561">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR561" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="562" spans="1:49">
+    <row r="562" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>22940070</v>
       </c>
@@ -33322,13 +33337,13 @@
         <v>89</v>
       </c>
       <c r="Y562">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR562" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="563" spans="1:49">
+    <row r="563" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>22934678</v>
       </c>
@@ -33369,13 +33384,13 @@
         <v>199</v>
       </c>
       <c r="Y563">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR563" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="564" spans="1:49">
+    <row r="564" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>22934525</v>
       </c>
@@ -33416,13 +33431,13 @@
         <v>199</v>
       </c>
       <c r="Y564">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR564" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="565" spans="1:49">
+    <row r="565" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>22934666</v>
       </c>
@@ -33463,13 +33478,13 @@
         <v>199</v>
       </c>
       <c r="Y565">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR565" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="566" spans="1:49">
+    <row r="566" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>22934122</v>
       </c>
@@ -33510,13 +33525,13 @@
         <v>169</v>
       </c>
       <c r="Y566">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR566" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="567" spans="1:49">
+    <row r="567" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>22934139</v>
       </c>
@@ -33563,7 +33578,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="568" spans="1:49">
+    <row r="568" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>22934088</v>
       </c>
@@ -33604,13 +33619,13 @@
         <v>169</v>
       </c>
       <c r="Y568">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR568" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="569" spans="1:49">
+    <row r="569" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>22933774</v>
       </c>
@@ -33651,13 +33666,13 @@
         <v>99</v>
       </c>
       <c r="Y569">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR569" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="570" spans="1:49">
+    <row r="570" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>22933744</v>
       </c>
@@ -33698,13 +33713,13 @@
         <v>99</v>
       </c>
       <c r="Y570">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR570" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="571" spans="1:49">
+    <row r="571" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>22932369</v>
       </c>
@@ -33754,7 +33769,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="572" spans="1:49">
+    <row r="572" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>22932360</v>
       </c>
@@ -33804,7 +33819,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="573" spans="1:49">
+    <row r="573" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>22932373</v>
       </c>
@@ -33854,7 +33869,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="574" spans="1:49">
+    <row r="574" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>22932189</v>
       </c>
@@ -33895,13 +33910,13 @@
         <v>249</v>
       </c>
       <c r="Y574">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR574" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="575" spans="1:49">
+    <row r="575" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>22932177</v>
       </c>
@@ -33942,13 +33957,13 @@
         <v>249</v>
       </c>
       <c r="Y575">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR575" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="576" spans="1:49">
+    <row r="576" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>22931998</v>
       </c>
@@ -33989,13 +34004,13 @@
         <v>289</v>
       </c>
       <c r="Y576">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AW576" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="577" spans="1:49">
+    <row r="577" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>22931945</v>
       </c>
@@ -34036,13 +34051,13 @@
         <v>289</v>
       </c>
       <c r="Y577">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AW577" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="578" spans="1:49">
+    <row r="578" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>22931877</v>
       </c>
@@ -34083,13 +34098,13 @@
         <v>289</v>
       </c>
       <c r="Y578">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AW578" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="579" spans="1:49">
+    <row r="579" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>21401404</v>
       </c>
@@ -34145,7 +34160,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="580" spans="1:49">
+    <row r="580" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>21401403</v>
       </c>
@@ -34189,7 +34204,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="581" spans="1:49">
+    <row r="581" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>21401401</v>
       </c>
@@ -34233,7 +34248,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="582" spans="1:49">
+    <row r="582" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>13543092</v>
       </c>
@@ -34280,7 +34295,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="583" spans="1:49">
+    <row r="583" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>13543083</v>
       </c>
@@ -34324,7 +34339,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="584" spans="1:49">
+    <row r="584" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>13542101</v>
       </c>
@@ -34368,7 +34383,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="585" spans="1:49">
+    <row r="585" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>13542087</v>
       </c>
@@ -34412,7 +34427,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="586" spans="1:49">
+    <row r="586" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>13542094</v>
       </c>
@@ -34456,7 +34471,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="587" spans="1:49">
+    <row r="587" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>13447537</v>
       </c>
@@ -34500,7 +34515,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="588" spans="1:49">
+    <row r="588" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>13447542</v>
       </c>
@@ -34544,7 +34559,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="589" spans="1:49">
+    <row r="589" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>13447087</v>
       </c>
@@ -34588,7 +34603,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="590" spans="1:49">
+    <row r="590" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>13443731</v>
       </c>
@@ -34632,7 +34647,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="591" spans="1:49">
+    <row r="591" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>13440981</v>
       </c>
@@ -34679,7 +34694,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="592" spans="1:49">
+    <row r="592" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>11952333</v>
       </c>
@@ -34729,7 +34744,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="593" spans="1:44">
+    <row r="593" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>11952302</v>
       </c>
@@ -34779,7 +34794,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="594" spans="1:44">
+    <row r="594" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>13442267</v>
       </c>
@@ -34829,7 +34844,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="595" spans="1:44">
+    <row r="595" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>11950909</v>
       </c>
@@ -34876,7 +34891,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="596" spans="1:44">
+    <row r="596" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>11950848</v>
       </c>
@@ -34923,7 +34938,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="597" spans="1:44">
+    <row r="597" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>9828323</v>
       </c>
@@ -34976,7 +34991,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="598" spans="1:44">
+    <row r="598" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>9828318</v>
       </c>
@@ -35029,7 +35044,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="599" spans="1:44">
+    <row r="599" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>9828312</v>
       </c>
@@ -35082,7 +35097,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="600" spans="1:44">
+    <row r="600" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>9828272</v>
       </c>
@@ -35135,7 +35150,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="601" spans="1:44">
+    <row r="601" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>9828279</v>
       </c>
@@ -35188,7 +35203,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="602" spans="1:44">
+    <row r="602" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>9828260</v>
       </c>
@@ -35241,7 +35256,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="603" spans="1:44">
+    <row r="603" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>9827088</v>
       </c>
@@ -35288,7 +35303,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="604" spans="1:44">
+    <row r="604" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>9827115</v>
       </c>
@@ -35335,7 +35350,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="605" spans="1:44">
+    <row r="605" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>9827101</v>
       </c>
@@ -35382,7 +35397,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="606" spans="1:44">
+    <row r="606" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>9826835</v>
       </c>
@@ -35429,7 +35444,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="607" spans="1:44">
+    <row r="607" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>9826840</v>
       </c>
@@ -35476,7 +35491,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="608" spans="1:44">
+    <row r="608" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>9826828</v>
       </c>
@@ -35523,7 +35538,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="609" spans="1:44">
+    <row r="609" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>10073616</v>
       </c>
@@ -35573,7 +35588,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="610" spans="1:44">
+    <row r="610" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>9826636</v>
       </c>
@@ -35623,7 +35638,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="611" spans="1:44">
+    <row r="611" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>9826642</v>
       </c>
@@ -35673,7 +35688,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="612" spans="1:44">
+    <row r="612" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>9798817</v>
       </c>
@@ -35723,7 +35738,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="613" spans="1:44">
+    <row r="613" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>9798821</v>
       </c>
@@ -35773,7 +35788,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="614" spans="1:44">
+    <row r="614" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>9798826</v>
       </c>
@@ -35823,7 +35838,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="615" spans="1:44">
+    <row r="615" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>10073664</v>
       </c>
@@ -35873,7 +35888,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="616" spans="1:44">
+    <row r="616" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>9798739</v>
       </c>
@@ -35923,7 +35938,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="617" spans="1:44">
+    <row r="617" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>9798744</v>
       </c>
@@ -35973,7 +35988,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="618" spans="1:44">
+    <row r="618" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>9798712</v>
       </c>
@@ -36023,7 +36038,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="619" spans="1:44">
+    <row r="619" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>10073646</v>
       </c>
@@ -36073,7 +36088,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="620" spans="1:44">
+    <row r="620" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>9798711</v>
       </c>
@@ -36123,7 +36138,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="621" spans="1:44">
+    <row r="621" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>9798658</v>
       </c>
@@ -36173,7 +36188,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="622" spans="1:44">
+    <row r="622" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>9798671</v>
       </c>
@@ -36223,7 +36238,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="623" spans="1:44">
+    <row r="623" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>9798674</v>
       </c>
@@ -36273,7 +36288,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="624" spans="1:44">
+    <row r="624" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>9798493</v>
       </c>
@@ -36323,7 +36338,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="625" spans="1:44">
+    <row r="625" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>9798497</v>
       </c>
@@ -36373,7 +36388,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="626" spans="1:44">
+    <row r="626" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>9798500</v>
       </c>
@@ -36423,7 +36438,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="627" spans="1:44">
+    <row r="627" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>9798089</v>
       </c>
@@ -36470,7 +36485,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="628" spans="1:44">
+    <row r="628" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>9798081</v>
       </c>
@@ -36517,7 +36532,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="629" spans="1:44">
+    <row r="629" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>9798087</v>
       </c>
@@ -36564,7 +36579,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="630" spans="1:44">
+    <row r="630" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>9798059</v>
       </c>
@@ -36611,7 +36626,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="631" spans="1:44">
+    <row r="631" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>9798055</v>
       </c>
@@ -36658,7 +36673,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="632" spans="1:44">
+    <row r="632" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>9798050</v>
       </c>
@@ -36705,7 +36720,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="633" spans="1:44">
+    <row r="633" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>9797859</v>
       </c>
@@ -36749,7 +36764,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="634" spans="1:44">
+    <row r="634" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>9797862</v>
       </c>
@@ -36793,7 +36808,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="635" spans="1:44">
+    <row r="635" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>9797849</v>
       </c>
@@ -36837,7 +36852,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="636" spans="1:44">
+    <row r="636" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>9797800</v>
       </c>
@@ -36884,7 +36899,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="637" spans="1:44">
+    <row r="637" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>9797806</v>
       </c>
@@ -36931,7 +36946,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="638" spans="1:44">
+    <row r="638" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>9797804</v>
       </c>
@@ -36978,7 +36993,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="639" spans="1:44">
+    <row r="639" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>9797781</v>
       </c>
@@ -37025,7 +37040,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="640" spans="1:44">
+    <row r="640" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>9797776</v>
       </c>
@@ -37072,7 +37087,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="641" spans="1:44">
+    <row r="641" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>9797771</v>
       </c>
@@ -37119,7 +37134,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="642" spans="1:44">
+    <row r="642" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>9797708</v>
       </c>
@@ -37163,7 +37178,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="643" spans="1:44">
+    <row r="643" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>9797711</v>
       </c>
@@ -37207,7 +37222,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="644" spans="1:44">
+    <row r="644" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>9797705</v>
       </c>
@@ -37251,7 +37266,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="645" spans="1:44">
+    <row r="645" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>9797679</v>
       </c>
@@ -37295,7 +37310,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="646" spans="1:44">
+    <row r="646" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>9797672</v>
       </c>
@@ -37339,7 +37354,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="647" spans="1:44">
+    <row r="647" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>9797684</v>
       </c>
@@ -37383,7 +37398,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="648" spans="1:44">
+    <row r="648" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>9797441</v>
       </c>
@@ -37427,7 +37442,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="649" spans="1:44">
+    <row r="649" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>9797445</v>
       </c>
@@ -37474,7 +37489,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="650" spans="1:44">
+    <row r="650" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>9797451</v>
       </c>
@@ -37521,7 +37536,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="651" spans="1:44">
+    <row r="651" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>9797323</v>
       </c>
@@ -37568,7 +37583,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="652" spans="1:44">
+    <row r="652" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>9797317</v>
       </c>
@@ -37612,7 +37627,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="653" spans="1:44">
+    <row r="653" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>9797313</v>
       </c>
@@ -37659,7 +37674,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="654" spans="1:44">
+    <row r="654" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>9797143</v>
       </c>
@@ -37703,7 +37718,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="655" spans="1:44">
+    <row r="655" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>9797141</v>
       </c>
@@ -37747,7 +37762,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="656" spans="1:44">
+    <row r="656" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>9797146</v>
       </c>
@@ -37791,7 +37806,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="657" spans="1:44">
+    <row r="657" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>9797123</v>
       </c>
@@ -37835,7 +37850,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="658" spans="1:44">
+    <row r="658" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>9797117</v>
       </c>
@@ -37879,7 +37894,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="659" spans="1:44">
+    <row r="659" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>9797119</v>
       </c>
@@ -37923,7 +37938,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="660" spans="1:44">
+    <row r="660" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>9796747</v>
       </c>
@@ -37967,7 +37982,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="661" spans="1:44">
+    <row r="661" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>9796742</v>
       </c>
@@ -38011,7 +38026,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="662" spans="1:44">
+    <row r="662" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>9796740</v>
       </c>
@@ -38055,7 +38070,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="663" spans="1:44">
+    <row r="663" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>9796623</v>
       </c>
@@ -38102,7 +38117,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="664" spans="1:44">
+    <row r="664" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>9796612</v>
       </c>
@@ -38149,7 +38164,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="665" spans="1:44">
+    <row r="665" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>9796618</v>
       </c>
@@ -38196,7 +38211,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="666" spans="1:44">
+    <row r="666" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>9796460</v>
       </c>
@@ -38246,7 +38261,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="667" spans="1:44">
+    <row r="667" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>9796522</v>
       </c>
@@ -38296,7 +38311,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="668" spans="1:44">
+    <row r="668" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>9796458</v>
       </c>
@@ -38346,7 +38361,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="669" spans="1:44">
+    <row r="669" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>9796403</v>
       </c>
@@ -38396,7 +38411,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="670" spans="1:44">
+    <row r="670" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>9796398</v>
       </c>
@@ -38446,7 +38461,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="671" spans="1:44">
+    <row r="671" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>9796407</v>
       </c>
@@ -38496,7 +38511,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="672" spans="1:44">
+    <row r="672" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>9796179</v>
       </c>
@@ -38543,7 +38558,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="673" spans="1:44">
+    <row r="673" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>9796050</v>
       </c>
@@ -38590,7 +38605,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="674" spans="1:44">
+    <row r="674" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>9795914</v>
       </c>
@@ -38640,7 +38655,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="675" spans="1:44">
+    <row r="675" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>9795858</v>
       </c>
@@ -38690,7 +38705,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="676" spans="1:44">
+    <row r="676" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>9795907</v>
       </c>
@@ -38740,7 +38755,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="677" spans="1:44">
+    <row r="677" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>9795669</v>
       </c>
@@ -38790,7 +38805,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="678" spans="1:44">
+    <row r="678" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>13445207</v>
       </c>
@@ -38837,7 +38852,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="679" spans="1:44">
+    <row r="679" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>13445223</v>
       </c>
@@ -38887,7 +38902,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="680" spans="1:44">
+    <row r="680" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>9795152</v>
       </c>
@@ -38937,7 +38952,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="681" spans="1:44">
+    <row r="681" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>9795158</v>
       </c>
@@ -38984,7 +38999,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="682" spans="1:44">
+    <row r="682" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>26151459</v>
       </c>
@@ -39034,7 +39049,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="683" spans="1:44">
+    <row r="683" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>9794858</v>
       </c>
@@ -39081,7 +39096,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="684" spans="1:44">
+    <row r="684" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>9794855</v>
       </c>
@@ -39128,7 +39143,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="685" spans="1:44">
+    <row r="685" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>9398289</v>
       </c>
@@ -39172,7 +39187,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="686" spans="1:44">
+    <row r="686" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>9391096</v>
       </c>
@@ -39216,7 +39231,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="687" spans="1:44">
+    <row r="687" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>9391101</v>
       </c>
@@ -39260,7 +39275,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="688" spans="1:44">
+    <row r="688" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>9391093</v>
       </c>
@@ -39304,7 +39319,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="689" spans="1:44">
+    <row r="689" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>8150031</v>
       </c>
@@ -39354,7 +39369,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="690" spans="1:44">
+    <row r="690" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>8150038</v>
       </c>
@@ -39404,7 +39419,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="691" spans="1:44">
+    <row r="691" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>8150040</v>
       </c>
@@ -39454,7 +39469,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="692" spans="1:44">
+    <row r="692" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>8149727</v>
       </c>
@@ -39507,7 +39522,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="693" spans="1:44">
+    <row r="693" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>8149720</v>
       </c>
@@ -39560,7 +39575,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="694" spans="1:44">
+    <row r="694" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>10974015</v>
       </c>
@@ -39613,7 +39628,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="695" spans="1:44">
+    <row r="695" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>8149650</v>
       </c>
@@ -39663,7 +39678,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="696" spans="1:44">
+    <row r="696" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>8149623</v>
       </c>
@@ -39713,7 +39728,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="697" spans="1:44">
+    <row r="697" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>8149597</v>
       </c>
@@ -39763,7 +39778,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="698" spans="1:44">
+    <row r="698" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>8149576</v>
       </c>
@@ -39813,7 +39828,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="699" spans="1:44">
+    <row r="699" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>8149657</v>
       </c>
@@ -39863,7 +39878,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="700" spans="1:44">
+    <row r="700" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>8149644</v>
       </c>
@@ -39913,7 +39928,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="701" spans="1:44">
+    <row r="701" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>8149511</v>
       </c>
@@ -39966,7 +39981,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="702" spans="1:44">
+    <row r="702" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>8149508</v>
       </c>
@@ -40019,7 +40034,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="703" spans="1:44">
+    <row r="703" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>8149494</v>
       </c>
@@ -40072,7 +40087,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="704" spans="1:44">
+    <row r="704" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>8149399</v>
       </c>
@@ -40122,7 +40137,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="705" spans="1:44">
+    <row r="705" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>8149391</v>
       </c>
@@ -40172,7 +40187,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="706" spans="1:44">
+    <row r="706" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>7307828</v>
       </c>
@@ -40219,7 +40234,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="707" spans="1:44">
+    <row r="707" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>7307813</v>
       </c>
@@ -40266,7 +40281,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="708" spans="1:44">
+    <row r="708" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>7307821</v>
       </c>
@@ -40313,7 +40328,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="709" spans="1:44">
+    <row r="709" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>7307692</v>
       </c>
@@ -40363,7 +40378,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="710" spans="1:44">
+    <row r="710" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>7307561</v>
       </c>
@@ -40413,7 +40428,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="711" spans="1:44">
+    <row r="711" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>7307553</v>
       </c>
@@ -40463,7 +40478,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="712" spans="1:44">
+    <row r="712" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>7293549</v>
       </c>
@@ -40513,7 +40528,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="713" spans="1:44">
+    <row r="713" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>7293548</v>
       </c>
@@ -40563,7 +40578,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="714" spans="1:44">
+    <row r="714" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>7293564</v>
       </c>
@@ -40616,7 +40631,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="715" spans="1:44">
+    <row r="715" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>7293563</v>
       </c>
@@ -40669,7 +40684,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="716" spans="1:44">
+    <row r="716" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>7293562</v>
       </c>
@@ -40722,7 +40737,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="717" spans="1:44">
+    <row r="717" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>7293554</v>
       </c>
@@ -40775,7 +40790,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="718" spans="1:44">
+    <row r="718" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>7293553</v>
       </c>
@@ -40828,7 +40843,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="719" spans="1:44">
+    <row r="719" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>7293557</v>
       </c>
@@ -40881,7 +40896,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="720" spans="1:44">
+    <row r="720" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>7293558</v>
       </c>
@@ -40934,7 +40949,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="721" spans="1:44">
+    <row r="721" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>7293556</v>
       </c>
@@ -40987,7 +41002,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="722" spans="1:44">
+    <row r="722" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>7293555</v>
       </c>
@@ -41040,7 +41055,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="723" spans="1:44">
+    <row r="723" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>7293622</v>
       </c>
@@ -41090,7 +41105,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="724" spans="1:44">
+    <row r="724" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>7293621</v>
       </c>
@@ -41140,7 +41155,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="725" spans="1:44">
+    <row r="725" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>7293623</v>
       </c>
@@ -41193,7 +41208,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="726" spans="1:44">
+    <row r="726" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>26147439</v>
       </c>
@@ -41246,7 +41261,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="727" spans="1:44">
+    <row r="727" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>7293566</v>
       </c>
@@ -41296,7 +41311,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="728" spans="1:44">
+    <row r="728" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>7293589</v>
       </c>
@@ -41349,7 +41364,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="729" spans="1:44">
+    <row r="729" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>26095219</v>
       </c>
@@ -41402,7 +41417,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="730" spans="1:44">
+    <row r="730" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>26095270</v>
       </c>
@@ -41455,7 +41470,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="731" spans="1:44">
+    <row r="731" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>7293630</v>
       </c>
@@ -41508,7 +41523,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="732" spans="1:44">
+    <row r="732" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>7293631</v>
       </c>
@@ -41561,7 +41576,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="733" spans="1:44">
+    <row r="733" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>10073698</v>
       </c>
@@ -41611,7 +41626,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="734" spans="1:44">
+    <row r="734" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>7293661</v>
       </c>
@@ -41661,7 +41676,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="735" spans="1:44">
+    <row r="735" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>7293660</v>
       </c>
@@ -41711,7 +41726,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="736" spans="1:44">
+    <row r="736" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>7293664</v>
       </c>
@@ -41761,7 +41776,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="737" spans="1:44">
+    <row r="737" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>7293662</v>
       </c>
@@ -41811,7 +41826,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="738" spans="1:44">
+    <row r="738" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>7293659</v>
       </c>
@@ -41861,7 +41876,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="739" spans="1:44">
+    <row r="739" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>7293657</v>
       </c>
@@ -41911,7 +41926,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="740" spans="1:44">
+    <row r="740" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>7293656</v>
       </c>
@@ -41961,7 +41976,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="741" spans="1:44">
+    <row r="741" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>7293658</v>
       </c>
@@ -42011,7 +42026,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="742" spans="1:44">
+    <row r="742" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>7293650</v>
       </c>
@@ -42064,7 +42079,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="743" spans="1:44">
+    <row r="743" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>7293646</v>
       </c>
@@ -42114,7 +42129,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="744" spans="1:44">
+    <row r="744" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>7293644</v>
       </c>
@@ -42164,7 +42179,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="745" spans="1:44">
+    <row r="745" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>7293645</v>
       </c>
@@ -42214,7 +42229,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="746" spans="1:44">
+    <row r="746" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>7293580</v>
       </c>
@@ -42264,7 +42279,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="747" spans="1:44">
+    <row r="747" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>7293579</v>
       </c>
@@ -42314,7 +42329,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="748" spans="1:44">
+    <row r="748" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>7293578</v>
       </c>
@@ -42364,7 +42379,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="749" spans="1:44">
+    <row r="749" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>7293611</v>
       </c>
@@ -42414,7 +42429,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="750" spans="1:44">
+    <row r="750" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>7293612</v>
       </c>
@@ -42464,7 +42479,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="751" spans="1:44">
+    <row r="751" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>7293608</v>
       </c>
@@ -42514,7 +42529,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="752" spans="1:44">
+    <row r="752" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>7293609</v>
       </c>

--- a/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export.xlsx
+++ b/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\Google Drive (raphael@remo.marketing)\Remo\_web\remo\FacebookCatalog\Evapore\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -6599,8 +6594,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6646,14 +6641,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -6700,7 +6687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6732,10 +6719,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6767,7 +6753,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6943,14 +6928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AY752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7105,7 +7090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51">
       <c r="A2">
         <v>25762793</v>
       </c>
@@ -7167,7 +7152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51">
       <c r="A3">
         <v>27352588</v>
       </c>
@@ -7235,7 +7220,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51">
       <c r="A4">
         <v>13441289</v>
       </c>
@@ -7303,7 +7288,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51">
       <c r="A5">
         <v>22943553</v>
       </c>
@@ -7350,7 +7335,7 @@
         <v>59</v>
       </c>
       <c r="Y5">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AC5" t="s">
         <v>67</v>
@@ -7371,7 +7356,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51">
       <c r="A6">
         <v>23240731</v>
       </c>
@@ -7442,7 +7427,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51">
       <c r="A7">
         <v>7293516</v>
       </c>
@@ -7507,7 +7492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51">
       <c r="A8">
         <v>27352076</v>
       </c>
@@ -7569,7 +7554,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51">
       <c r="A9">
         <v>29365439</v>
       </c>
@@ -7634,7 +7619,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51">
       <c r="A10">
         <v>26705595</v>
       </c>
@@ -7690,7 +7675,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51">
       <c r="A11">
         <v>27512115</v>
       </c>
@@ -7752,7 +7737,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51">
       <c r="A12">
         <v>30327988</v>
       </c>
@@ -7808,7 +7793,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51">
       <c r="A13">
         <v>23148707</v>
       </c>
@@ -7870,7 +7855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51">
       <c r="A14">
         <v>30801495</v>
       </c>
@@ -7917,7 +7902,7 @@
         <v>59</v>
       </c>
       <c r="Y14">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -7938,7 +7923,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51">
       <c r="A15">
         <v>7293519</v>
       </c>
@@ -8006,7 +7991,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51">
       <c r="A16">
         <v>22941985</v>
       </c>
@@ -8053,7 +8038,7 @@
         <v>59</v>
       </c>
       <c r="Y16">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AC16" t="s">
         <v>140</v>
@@ -8065,7 +8050,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17">
         <v>22942003</v>
       </c>
@@ -8112,7 +8097,7 @@
         <v>59</v>
       </c>
       <c r="Y17">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AC17" t="s">
         <v>140</v>
@@ -8127,7 +8112,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18">
         <v>22941833</v>
       </c>
@@ -8174,7 +8159,7 @@
         <v>59</v>
       </c>
       <c r="Y18">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AC18" t="s">
         <v>140</v>
@@ -8186,7 +8171,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>25838113</v>
       </c>
@@ -8248,7 +8233,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>26885961</v>
       </c>
@@ -8298,7 +8283,7 @@
         <v>59</v>
       </c>
       <c r="Y20">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="Z20">
         <v>10</v>
@@ -8322,7 +8307,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>26089909</v>
       </c>
@@ -8375,7 +8360,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>26085987</v>
       </c>
@@ -8425,7 +8410,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>26086498</v>
       </c>
@@ -8472,7 +8457,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>23239000</v>
       </c>
@@ -8525,7 +8510,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>13440941</v>
       </c>
@@ -8584,7 +8569,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>13447030</v>
       </c>
@@ -8637,7 +8622,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27">
         <v>7293523</v>
       </c>
@@ -8696,7 +8681,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28">
         <v>9798466</v>
       </c>
@@ -8749,7 +8734,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29">
         <v>9798648</v>
       </c>
@@ -8796,7 +8781,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30">
         <v>22939890</v>
       </c>
@@ -8837,7 +8822,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31">
         <v>22940365</v>
       </c>
@@ -8878,7 +8863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32">
         <v>22933710</v>
       </c>
@@ -8925,7 +8910,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33">
         <v>30327131</v>
       </c>
@@ -8966,7 +8951,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34">
         <v>30121167</v>
       </c>
@@ -9007,7 +8992,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35">
         <v>30121486</v>
       </c>
@@ -9042,7 +9027,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36">
         <v>7293524</v>
       </c>
@@ -9101,7 +9086,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37">
         <v>25818648</v>
       </c>
@@ -9148,7 +9133,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38">
         <v>23240500</v>
       </c>
@@ -9201,7 +9186,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39">
         <v>26022325</v>
       </c>
@@ -9254,7 +9239,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40">
         <v>26981246</v>
       </c>
@@ -9295,7 +9280,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41">
         <v>26980111</v>
       </c>
@@ -9333,7 +9318,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42">
         <v>30120444</v>
       </c>
@@ -9374,7 +9359,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43">
         <v>30120136</v>
       </c>
@@ -9412,7 +9397,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44">
         <v>29265282</v>
       </c>
@@ -9453,7 +9438,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45">
         <v>26669604</v>
       </c>
@@ -9491,7 +9476,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46">
         <v>7293525</v>
       </c>
@@ -9550,7 +9535,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47">
         <v>9797842</v>
       </c>
@@ -9606,7 +9591,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48">
         <v>30325568</v>
       </c>
@@ -9650,7 +9635,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37">
       <c r="A49">
         <v>13447523</v>
       </c>
@@ -9697,7 +9682,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37">
       <c r="A50">
         <v>30326532</v>
       </c>
@@ -9741,7 +9726,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37">
       <c r="A51">
         <v>30232918</v>
       </c>
@@ -9782,7 +9767,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37">
       <c r="A52">
         <v>30328055</v>
       </c>
@@ -9826,7 +9811,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37">
       <c r="A53">
         <v>30117699</v>
       </c>
@@ -9864,7 +9849,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37">
       <c r="A54">
         <v>30118074</v>
       </c>
@@ -9899,7 +9884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37">
       <c r="A55">
         <v>7307515</v>
       </c>
@@ -9949,7 +9934,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37">
       <c r="A56">
         <v>26706307</v>
       </c>
@@ -9993,7 +9978,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37">
       <c r="A57">
         <v>26608614</v>
       </c>
@@ -10040,7 +10025,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37">
       <c r="A58">
         <v>22940679</v>
       </c>
@@ -10087,7 +10072,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37">
       <c r="A59">
         <v>22940587</v>
       </c>
@@ -10128,7 +10113,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37">
       <c r="A60">
         <v>26702925</v>
       </c>
@@ -10166,7 +10151,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37">
       <c r="A61">
         <v>7307801</v>
       </c>
@@ -10216,7 +10201,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37">
       <c r="A62">
         <v>30326625</v>
       </c>
@@ -10263,7 +10248,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37">
       <c r="A63">
         <v>30327160</v>
       </c>
@@ -10307,7 +10292,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37">
       <c r="A64">
         <v>7293527</v>
       </c>
@@ -10357,7 +10342,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37">
       <c r="A65">
         <v>13542049</v>
       </c>
@@ -10404,7 +10389,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37">
       <c r="A66">
         <v>30118514</v>
       </c>
@@ -10445,7 +10430,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37">
       <c r="A67">
         <v>9828295</v>
       </c>
@@ -10477,7 +10462,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37">
       <c r="A68">
         <v>9828237</v>
       </c>
@@ -10509,7 +10494,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37">
       <c r="A69">
         <v>7293528</v>
       </c>
@@ -10547,7 +10532,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37">
       <c r="A70">
         <v>25957936</v>
       </c>
@@ -10597,7 +10582,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37">
       <c r="A71">
         <v>25957248</v>
       </c>
@@ -10641,7 +10626,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37">
       <c r="A72">
         <v>25992875</v>
       </c>
@@ -10685,7 +10670,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37">
       <c r="A73">
         <v>30327108</v>
       </c>
@@ -10732,7 +10717,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37">
       <c r="A74">
         <v>9826616</v>
       </c>
@@ -10779,7 +10764,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37">
       <c r="A75">
         <v>9798809</v>
       </c>
@@ -10820,7 +10805,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37">
       <c r="A76">
         <v>9798733</v>
       </c>
@@ -10867,7 +10852,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37">
       <c r="A77">
         <v>9798702</v>
       </c>
@@ -10905,7 +10890,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37">
       <c r="A78">
         <v>22940289</v>
       </c>
@@ -10946,7 +10931,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37">
       <c r="A79">
         <v>26093216</v>
       </c>
@@ -10990,7 +10975,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37">
       <c r="A80">
         <v>13542333</v>
       </c>
@@ -11031,7 +11016,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38">
       <c r="A81">
         <v>9827067</v>
       </c>
@@ -11072,7 +11057,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38">
       <c r="A82">
         <v>9796726</v>
       </c>
@@ -11122,7 +11107,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38">
       <c r="A83">
         <v>9796596</v>
       </c>
@@ -11166,7 +11151,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38">
       <c r="A84">
         <v>9826767</v>
       </c>
@@ -11216,7 +11201,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38">
       <c r="A85">
         <v>30122086</v>
       </c>
@@ -11257,7 +11242,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38">
       <c r="A86">
         <v>30227889</v>
       </c>
@@ -11295,7 +11280,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38">
       <c r="A87">
         <v>30122422</v>
       </c>
@@ -11336,7 +11321,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38">
       <c r="A88">
         <v>25766395</v>
       </c>
@@ -11377,7 +11362,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38">
       <c r="A89">
         <v>21401400</v>
       </c>
@@ -11421,7 +11406,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38">
       <c r="A90">
         <v>30328032</v>
       </c>
@@ -11459,7 +11444,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38">
       <c r="A91">
         <v>26027738</v>
       </c>
@@ -11512,7 +11497,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38">
       <c r="A92">
         <v>27512403</v>
       </c>
@@ -11556,7 +11541,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38">
       <c r="A93">
         <v>30327862</v>
       </c>
@@ -11594,7 +11579,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38">
       <c r="A94">
         <v>7293529</v>
       </c>
@@ -11638,7 +11623,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38">
       <c r="A95">
         <v>8146672</v>
       </c>
@@ -11691,7 +11676,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38">
       <c r="A96">
         <v>30327703</v>
       </c>
@@ -11732,7 +11717,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37">
       <c r="A97">
         <v>22940736</v>
       </c>
@@ -11776,7 +11761,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37">
       <c r="A98">
         <v>25986585</v>
       </c>
@@ -11823,7 +11808,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37">
       <c r="A99">
         <v>22943467</v>
       </c>
@@ -11867,7 +11852,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37">
       <c r="A100">
         <v>30233012</v>
       </c>
@@ -11917,7 +11902,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37">
       <c r="A101">
         <v>26981035</v>
       </c>
@@ -11961,7 +11946,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37">
       <c r="A102">
         <v>23110650</v>
       </c>
@@ -12002,7 +11987,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37">
       <c r="A103">
         <v>25763947</v>
       </c>
@@ -12052,7 +12037,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37">
       <c r="A104">
         <v>26980885</v>
       </c>
@@ -12093,7 +12078,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37">
       <c r="A105">
         <v>29364374</v>
       </c>
@@ -12134,7 +12119,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37">
       <c r="A106">
         <v>25768089</v>
       </c>
@@ -12181,7 +12166,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37">
       <c r="A107">
         <v>26981131</v>
       </c>
@@ -12219,7 +12204,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37">
       <c r="A108">
         <v>9396715</v>
       </c>
@@ -12263,7 +12248,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37">
       <c r="A109">
         <v>30327825</v>
       </c>
@@ -12301,7 +12286,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37">
       <c r="A110">
         <v>30327789</v>
       </c>
@@ -12342,7 +12327,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37">
       <c r="A111">
         <v>9797724</v>
       </c>
@@ -12383,7 +12368,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37">
       <c r="A112">
         <v>9797793</v>
       </c>
@@ -12424,7 +12409,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38">
       <c r="A113">
         <v>7293531</v>
       </c>
@@ -12474,7 +12459,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38">
       <c r="A114">
         <v>11950773</v>
       </c>
@@ -12512,7 +12497,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38">
       <c r="A115">
         <v>26152460</v>
       </c>
@@ -12553,7 +12538,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38">
       <c r="A116">
         <v>9794837</v>
       </c>
@@ -12594,7 +12579,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38">
       <c r="A117">
         <v>25988466</v>
       </c>
@@ -12644,7 +12629,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38">
       <c r="A118">
         <v>26014484</v>
       </c>
@@ -12685,7 +12670,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38">
       <c r="A119">
         <v>25952663</v>
       </c>
@@ -12735,7 +12720,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38">
       <c r="A120">
         <v>22943670</v>
       </c>
@@ -12779,7 +12764,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38">
       <c r="A121">
         <v>11952252</v>
       </c>
@@ -12826,7 +12811,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38">
       <c r="A122">
         <v>30327911</v>
       </c>
@@ -12870,7 +12855,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38">
       <c r="A123">
         <v>30327939</v>
       </c>
@@ -12914,7 +12899,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38">
       <c r="A124">
         <v>22942990</v>
       </c>
@@ -12967,7 +12952,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38">
       <c r="A125">
         <v>25949004</v>
       </c>
@@ -13008,7 +12993,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38">
       <c r="A126">
         <v>30227986</v>
       </c>
@@ -13052,7 +13037,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38">
       <c r="A127">
         <v>22940437</v>
       </c>
@@ -13093,7 +13078,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38">
       <c r="A128">
         <v>25986193</v>
       </c>
@@ -13143,7 +13128,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38">
       <c r="A129">
         <v>22931865</v>
       </c>
@@ -13187,7 +13172,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38">
       <c r="A130">
         <v>9391059</v>
       </c>
@@ -13231,7 +13216,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38">
       <c r="A131">
         <v>22932115</v>
       </c>
@@ -13272,7 +13257,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38">
       <c r="A132">
         <v>23239858</v>
       </c>
@@ -13319,7 +13304,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38">
       <c r="A133">
         <v>23210870</v>
       </c>
@@ -13372,7 +13357,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38">
       <c r="A134">
         <v>9797162</v>
       </c>
@@ -13416,7 +13401,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38">
       <c r="A135">
         <v>25837034</v>
       </c>
@@ -13463,7 +13448,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38">
       <c r="A136">
         <v>9797337</v>
       </c>
@@ -13516,7 +13501,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38">
       <c r="A137">
         <v>7293534</v>
       </c>
@@ -13557,7 +13542,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38">
       <c r="A138">
         <v>13443673</v>
       </c>
@@ -13595,7 +13580,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38">
       <c r="A139">
         <v>30327530</v>
       </c>
@@ -13639,7 +13624,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38">
       <c r="A140">
         <v>30327624</v>
       </c>
@@ -13686,7 +13671,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38">
       <c r="A141">
         <v>30327567</v>
       </c>
@@ -13730,7 +13715,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38">
       <c r="A142">
         <v>25987887</v>
       </c>
@@ -13774,7 +13759,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38">
       <c r="A143">
         <v>7293522</v>
       </c>
@@ -13815,7 +13800,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38">
       <c r="A144">
         <v>7307619</v>
       </c>
@@ -13862,7 +13847,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38">
       <c r="A145">
         <v>26700101</v>
       </c>
@@ -13897,7 +13882,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38">
       <c r="A146">
         <v>25950249</v>
       </c>
@@ -13944,7 +13929,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38">
       <c r="A147">
         <v>9798072</v>
       </c>
@@ -13988,7 +13973,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38">
       <c r="A148">
         <v>9798044</v>
       </c>
@@ -14032,7 +14017,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38">
       <c r="A149">
         <v>22942307</v>
       </c>
@@ -14076,7 +14061,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38">
       <c r="A150">
         <v>26484789</v>
       </c>
@@ -14120,7 +14105,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38">
       <c r="A151">
         <v>9797568</v>
       </c>
@@ -14161,7 +14146,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38">
       <c r="A152">
         <v>9797691</v>
       </c>
@@ -14199,7 +14184,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38">
       <c r="A153">
         <v>30227809</v>
       </c>
@@ -14246,7 +14231,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38">
       <c r="A154">
         <v>9796027</v>
       </c>
@@ -14287,7 +14272,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38">
       <c r="A155">
         <v>9796165</v>
       </c>
@@ -14328,7 +14313,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38">
       <c r="A156">
         <v>22942395</v>
       </c>
@@ -14372,7 +14357,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38">
       <c r="A157">
         <v>7293535</v>
       </c>
@@ -14419,7 +14404,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38">
       <c r="A158">
         <v>25992329</v>
       </c>
@@ -14472,7 +14457,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38">
       <c r="A159">
         <v>7293536</v>
       </c>
@@ -14519,7 +14504,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38">
       <c r="A160">
         <v>26605138</v>
       </c>
@@ -14563,7 +14548,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38">
       <c r="A161">
         <v>8149342</v>
       </c>
@@ -14607,7 +14592,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38">
       <c r="A162">
         <v>8149442</v>
       </c>
@@ -14657,7 +14642,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38">
       <c r="A163">
         <v>22942172</v>
       </c>
@@ -14701,7 +14686,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38">
       <c r="A164">
         <v>26091267</v>
       </c>
@@ -14748,7 +14733,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38">
       <c r="A165">
         <v>9797018</v>
       </c>
@@ -14789,7 +14774,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38">
       <c r="A166">
         <v>9797135</v>
       </c>
@@ -14830,7 +14815,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38">
       <c r="A167">
         <v>25955022</v>
       </c>
@@ -14877,7 +14862,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38">
       <c r="A168">
         <v>26023325</v>
       </c>
@@ -14927,7 +14912,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38">
       <c r="A169">
         <v>22942042</v>
       </c>
@@ -14971,7 +14956,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38">
       <c r="A170">
         <v>30327997</v>
       </c>
@@ -15012,7 +14997,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38">
       <c r="A171">
         <v>30328015</v>
       </c>
@@ -15050,7 +15035,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38">
       <c r="A172">
         <v>29367354</v>
       </c>
@@ -15091,7 +15076,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38">
       <c r="A173">
         <v>29368618</v>
       </c>
@@ -15132,7 +15117,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38">
       <c r="A174">
         <v>25990792</v>
       </c>
@@ -15176,7 +15161,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38">
       <c r="A175">
         <v>23141186</v>
       </c>
@@ -15223,7 +15208,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38">
       <c r="A176">
         <v>8149543</v>
       </c>
@@ -15270,7 +15255,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38">
       <c r="A177">
         <v>25950922</v>
       </c>
@@ -15320,7 +15305,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38">
       <c r="A178">
         <v>26147916</v>
       </c>
@@ -15373,7 +15358,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38">
       <c r="A179">
         <v>7293537</v>
       </c>
@@ -15420,7 +15405,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38">
       <c r="A180">
         <v>30228192</v>
       </c>
@@ -15467,7 +15452,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38">
       <c r="A181">
         <v>9795637</v>
       </c>
@@ -15511,7 +15496,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38">
       <c r="A182">
         <v>9795849</v>
       </c>
@@ -15552,7 +15537,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38">
       <c r="A183">
         <v>25770355</v>
       </c>
@@ -15593,7 +15578,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38">
       <c r="A184">
         <v>9795109</v>
       </c>
@@ -15637,7 +15622,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38">
       <c r="A185">
         <v>22932350</v>
       </c>
@@ -15678,7 +15663,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38">
       <c r="A186">
         <v>25991845</v>
       </c>
@@ -15731,7 +15716,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38">
       <c r="A187">
         <v>30228398</v>
       </c>
@@ -15778,7 +15763,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38">
       <c r="A188">
         <v>26668547</v>
       </c>
@@ -15816,7 +15801,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38">
       <c r="A189">
         <v>29364138</v>
       </c>
@@ -15854,7 +15839,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38">
       <c r="A190">
         <v>22933984</v>
       </c>
@@ -15901,7 +15886,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38">
       <c r="A191">
         <v>30231833</v>
       </c>
@@ -15942,7 +15927,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38">
       <c r="A192">
         <v>8149684</v>
       </c>
@@ -15989,7 +15974,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38">
       <c r="A193">
         <v>7293538</v>
       </c>
@@ -16039,7 +16024,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38">
       <c r="A194">
         <v>23067187</v>
       </c>
@@ -16083,7 +16068,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38">
       <c r="A195">
         <v>25989857</v>
       </c>
@@ -16136,7 +16121,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38">
       <c r="A196">
         <v>26482822</v>
       </c>
@@ -16174,7 +16159,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38">
       <c r="A197">
         <v>28107860</v>
       </c>
@@ -16218,7 +16203,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38">
       <c r="A198">
         <v>22934355</v>
       </c>
@@ -16262,7 +16247,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38">
       <c r="A199">
         <v>25839123</v>
       </c>
@@ -16303,7 +16288,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38">
       <c r="A200">
         <v>26485361</v>
       </c>
@@ -16350,7 +16335,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38">
       <c r="A201">
         <v>25760974</v>
       </c>
@@ -16397,7 +16382,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38">
       <c r="A202">
         <v>25840720</v>
       </c>
@@ -16435,7 +16420,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38">
       <c r="A203">
         <v>27352254</v>
       </c>
@@ -16476,7 +16461,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38">
       <c r="A204">
         <v>8150013</v>
       </c>
@@ -16520,7 +16505,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38">
       <c r="A205">
         <v>7293540</v>
       </c>
@@ -16564,7 +16549,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38">
       <c r="A206">
         <v>9796255</v>
       </c>
@@ -16608,7 +16593,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38">
       <c r="A207">
         <v>9796440</v>
       </c>
@@ -16661,7 +16646,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38">
       <c r="A208">
         <v>30327241</v>
       </c>
@@ -16702,7 +16687,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:44">
       <c r="A209">
         <v>30327492</v>
       </c>
@@ -16746,7 +16731,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:44">
       <c r="A210">
         <v>30327330</v>
       </c>
@@ -16790,7 +16775,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:44">
       <c r="A211">
         <v>30327389</v>
       </c>
@@ -16831,7 +16816,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:44">
       <c r="A212">
         <v>23238436</v>
       </c>
@@ -16878,7 +16863,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:44">
       <c r="A213">
         <v>30328058</v>
       </c>
@@ -16925,7 +16910,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:44">
       <c r="A214">
         <v>30328057</v>
       </c>
@@ -16972,7 +16957,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:44">
       <c r="A215">
         <v>30328060</v>
       </c>
@@ -17019,7 +17004,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:44">
       <c r="A216">
         <v>30328035</v>
       </c>
@@ -17066,7 +17051,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:44">
       <c r="A217">
         <v>30328037</v>
       </c>
@@ -17113,7 +17098,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:44">
       <c r="A218">
         <v>30328038</v>
       </c>
@@ -17160,7 +17145,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:44">
       <c r="A219">
         <v>30328018</v>
       </c>
@@ -17207,7 +17192,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:44">
       <c r="A220">
         <v>30328017</v>
       </c>
@@ -17251,7 +17236,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:44">
       <c r="A221">
         <v>30328016</v>
       </c>
@@ -17295,7 +17280,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:44">
       <c r="A222">
         <v>30327999</v>
       </c>
@@ -17339,7 +17324,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:44">
       <c r="A223">
         <v>30327998</v>
       </c>
@@ -17386,7 +17371,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:44">
       <c r="A224">
         <v>30328003</v>
       </c>
@@ -17430,7 +17415,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:44">
       <c r="A225">
         <v>30327940</v>
       </c>
@@ -17477,7 +17462,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:44">
       <c r="A226">
         <v>30327942</v>
       </c>
@@ -17524,7 +17509,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:44">
       <c r="A227">
         <v>30327941</v>
       </c>
@@ -17571,7 +17556,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:44">
       <c r="A228">
         <v>30327928</v>
       </c>
@@ -17618,7 +17603,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:44">
       <c r="A229">
         <v>30327921</v>
       </c>
@@ -17665,7 +17650,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:44">
       <c r="A230">
         <v>30327926</v>
       </c>
@@ -17712,7 +17697,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:44">
       <c r="A231">
         <v>30327891</v>
       </c>
@@ -17759,7 +17744,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:44">
       <c r="A232">
         <v>30327905</v>
       </c>
@@ -17806,7 +17791,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:44">
       <c r="A233">
         <v>30327882</v>
       </c>
@@ -17853,7 +17838,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:44">
       <c r="A234">
         <v>30327828</v>
       </c>
@@ -17900,7 +17885,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:44">
       <c r="A235">
         <v>30327798</v>
       </c>
@@ -17947,7 +17932,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:44">
       <c r="A236">
         <v>30327707</v>
       </c>
@@ -17994,7 +17979,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:44">
       <c r="A237">
         <v>30327714</v>
       </c>
@@ -18041,7 +18026,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:44">
       <c r="A238">
         <v>30327708</v>
       </c>
@@ -18088,7 +18073,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:44">
       <c r="A239">
         <v>30327627</v>
       </c>
@@ -18135,7 +18120,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:44">
       <c r="A240">
         <v>30327625</v>
       </c>
@@ -18182,7 +18167,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:44">
       <c r="A241">
         <v>30327626</v>
       </c>
@@ -18229,7 +18214,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:44">
       <c r="A242">
         <v>30327568</v>
       </c>
@@ -18276,7 +18261,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:44">
       <c r="A243">
         <v>30327569</v>
       </c>
@@ -18323,7 +18308,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:44">
       <c r="A244">
         <v>30327570</v>
       </c>
@@ -18370,7 +18355,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:44">
       <c r="A245">
         <v>30327534</v>
       </c>
@@ -18417,7 +18402,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:44">
       <c r="A246">
         <v>30327545</v>
       </c>
@@ -18464,7 +18449,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:44">
       <c r="A247">
         <v>30327547</v>
       </c>
@@ -18511,7 +18496,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:44">
       <c r="A248">
         <v>30327494</v>
       </c>
@@ -18558,7 +18543,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:44">
       <c r="A249">
         <v>30327495</v>
       </c>
@@ -18605,7 +18590,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:44">
       <c r="A250">
         <v>30327493</v>
       </c>
@@ -18652,7 +18637,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:44">
       <c r="A251">
         <v>30327391</v>
       </c>
@@ -18699,7 +18684,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:44">
       <c r="A252">
         <v>30327390</v>
       </c>
@@ -18746,7 +18731,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:44">
       <c r="A253">
         <v>30327392</v>
       </c>
@@ -18793,7 +18778,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:44">
       <c r="A254">
         <v>30327337</v>
       </c>
@@ -18840,7 +18825,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:44">
       <c r="A255">
         <v>30327346</v>
       </c>
@@ -18887,7 +18872,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="256" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:44">
       <c r="A256">
         <v>30327334</v>
       </c>
@@ -18934,7 +18919,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="257" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:44">
       <c r="A257">
         <v>30327276</v>
       </c>
@@ -18981,7 +18966,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="258" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:44">
       <c r="A258">
         <v>30327248</v>
       </c>
@@ -19028,7 +19013,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="259" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:44">
       <c r="A259">
         <v>30327273</v>
       </c>
@@ -19075,7 +19060,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="260" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:44">
       <c r="A260">
         <v>30327161</v>
       </c>
@@ -19122,7 +19107,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="261" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:44">
       <c r="A261">
         <v>30327162</v>
       </c>
@@ -19169,7 +19154,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="262" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:44">
       <c r="A262">
         <v>30327163</v>
       </c>
@@ -19216,7 +19201,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="263" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:44">
       <c r="A263">
         <v>30327137</v>
       </c>
@@ -19263,7 +19248,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="264" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:44">
       <c r="A264">
         <v>30327141</v>
       </c>
@@ -19310,7 +19295,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="265" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:44">
       <c r="A265">
         <v>30327136</v>
       </c>
@@ -19357,7 +19342,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="266" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:44">
       <c r="A266">
         <v>30327111</v>
       </c>
@@ -19404,7 +19389,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="267" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:44">
       <c r="A267">
         <v>30327109</v>
       </c>
@@ -19451,7 +19436,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="268" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:44">
       <c r="A268">
         <v>30327110</v>
       </c>
@@ -19498,7 +19483,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="269" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:44">
       <c r="A269">
         <v>30326626</v>
       </c>
@@ -19545,7 +19530,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="270" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:44">
       <c r="A270">
         <v>30326627</v>
       </c>
@@ -19592,7 +19577,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="271" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:44">
       <c r="A271">
         <v>30326628</v>
       </c>
@@ -19639,7 +19624,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="272" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:44">
       <c r="A272">
         <v>30326533</v>
       </c>
@@ -19686,7 +19671,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="273" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:44">
       <c r="A273">
         <v>30326535</v>
       </c>
@@ -19733,7 +19718,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="274" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:44">
       <c r="A274">
         <v>30326534</v>
       </c>
@@ -19780,7 +19765,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="275" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:44">
       <c r="A275">
         <v>30325570</v>
       </c>
@@ -19827,7 +19812,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="276" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:44">
       <c r="A276">
         <v>30325571</v>
       </c>
@@ -19874,7 +19859,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="277" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:44">
       <c r="A277">
         <v>30325569</v>
       </c>
@@ -19921,7 +19906,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="278" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:44">
       <c r="A278">
         <v>30233013</v>
       </c>
@@ -19968,7 +19953,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="279" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:44">
       <c r="A279">
         <v>30233014</v>
       </c>
@@ -20015,7 +20000,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="280" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:44">
       <c r="A280">
         <v>30233015</v>
       </c>
@@ -20062,7 +20047,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="281" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:44">
       <c r="A281">
         <v>30232956</v>
       </c>
@@ -20109,7 +20094,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="282" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:44">
       <c r="A282">
         <v>30232959</v>
       </c>
@@ -20153,7 +20138,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="283" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:44">
       <c r="A283">
         <v>30232953</v>
       </c>
@@ -20200,7 +20185,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="284" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:44">
       <c r="A284">
         <v>30231836</v>
       </c>
@@ -20247,7 +20232,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="285" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:44">
       <c r="A285">
         <v>30231835</v>
       </c>
@@ -20294,7 +20279,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="286" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:44">
       <c r="A286">
         <v>30231834</v>
       </c>
@@ -20341,7 +20326,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="287" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:44">
       <c r="A287">
         <v>30228401</v>
       </c>
@@ -20388,7 +20373,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="288" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:44">
       <c r="A288">
         <v>30228400</v>
       </c>
@@ -20435,7 +20420,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:44">
       <c r="A289">
         <v>30228399</v>
       </c>
@@ -20482,7 +20467,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:44">
       <c r="A290">
         <v>30228194</v>
       </c>
@@ -20529,7 +20514,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:44">
       <c r="A291">
         <v>30228193</v>
       </c>
@@ -20576,7 +20561,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:44">
       <c r="A292">
         <v>30228195</v>
       </c>
@@ -20623,7 +20608,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:44">
       <c r="A293">
         <v>30227988</v>
       </c>
@@ -20670,7 +20655,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:44">
       <c r="A294">
         <v>30227989</v>
       </c>
@@ -20717,7 +20702,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:44">
       <c r="A295">
         <v>30227987</v>
       </c>
@@ -20764,7 +20749,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:44">
       <c r="A296">
         <v>30227909</v>
       </c>
@@ -20811,7 +20796,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:44">
       <c r="A297">
         <v>30227903</v>
       </c>
@@ -20858,7 +20843,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:44">
       <c r="A298">
         <v>30227913</v>
       </c>
@@ -20905,7 +20890,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:44">
       <c r="A299">
         <v>30227860</v>
       </c>
@@ -20952,7 +20937,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:44">
       <c r="A300">
         <v>30227865</v>
       </c>
@@ -20996,7 +20981,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:44">
       <c r="A301">
         <v>30227857</v>
       </c>
@@ -21043,7 +21028,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:44">
       <c r="A302">
         <v>30122462</v>
       </c>
@@ -21090,7 +21075,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:44">
       <c r="A303">
         <v>30122248</v>
       </c>
@@ -21137,7 +21122,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:44">
       <c r="A304">
         <v>30121532</v>
       </c>
@@ -21184,7 +21169,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="305" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:44">
       <c r="A305">
         <v>30121834</v>
       </c>
@@ -21231,7 +21216,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="306" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:44">
       <c r="A306">
         <v>30121780</v>
       </c>
@@ -21278,7 +21263,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="307" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:44">
       <c r="A307">
         <v>30121285</v>
       </c>
@@ -21325,7 +21310,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="308" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:44">
       <c r="A308">
         <v>30121376</v>
       </c>
@@ -21372,7 +21357,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="309" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:44">
       <c r="A309">
         <v>30121337</v>
       </c>
@@ -21419,7 +21404,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="310" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:44">
       <c r="A310">
         <v>30120653</v>
       </c>
@@ -21466,7 +21451,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="311" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:44">
       <c r="A311">
         <v>30120695</v>
       </c>
@@ -21513,7 +21498,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="312" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:44">
       <c r="A312">
         <v>30120743</v>
       </c>
@@ -21560,7 +21545,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="313" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:44">
       <c r="A313">
         <v>30120325</v>
       </c>
@@ -21607,7 +21592,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="314" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:44">
       <c r="A314">
         <v>30120297</v>
       </c>
@@ -21654,7 +21639,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="315" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:44">
       <c r="A315">
         <v>30120360</v>
       </c>
@@ -21701,7 +21686,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="316" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:44">
       <c r="A316">
         <v>30119461</v>
       </c>
@@ -21748,7 +21733,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="317" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:44">
       <c r="A317">
         <v>30118768</v>
       </c>
@@ -21795,7 +21780,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="318" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:44">
       <c r="A318">
         <v>30118802</v>
       </c>
@@ -21842,7 +21827,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="319" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:44">
       <c r="A319">
         <v>30118076</v>
       </c>
@@ -21889,7 +21874,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="320" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:44">
       <c r="A320">
         <v>30118075</v>
       </c>
@@ -21936,7 +21921,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="321" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:44">
       <c r="A321">
         <v>30118077</v>
       </c>
@@ -21983,7 +21968,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="322" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:44">
       <c r="A322">
         <v>30117821</v>
       </c>
@@ -22030,7 +22015,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="323" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:44">
       <c r="A323">
         <v>30117777</v>
       </c>
@@ -22077,7 +22062,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="324" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:44">
       <c r="A324">
         <v>30117865</v>
       </c>
@@ -22124,7 +22109,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="325" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:44">
       <c r="A325">
         <v>29368621</v>
       </c>
@@ -22171,7 +22156,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="326" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:44">
       <c r="A326">
         <v>29368619</v>
       </c>
@@ -22218,7 +22203,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="327" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:44">
       <c r="A327">
         <v>29368706</v>
       </c>
@@ -22265,7 +22250,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="328" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:44">
       <c r="A328">
         <v>29367420</v>
       </c>
@@ -22312,7 +22297,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="329" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:44">
       <c r="A329">
         <v>29367444</v>
       </c>
@@ -22359,7 +22344,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="330" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:44">
       <c r="A330">
         <v>29364376</v>
       </c>
@@ -22406,7 +22391,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="331" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:44">
       <c r="A331">
         <v>29364375</v>
       </c>
@@ -22453,7 +22438,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="332" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:44">
       <c r="A332">
         <v>29364140</v>
       </c>
@@ -22503,7 +22488,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="333" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:44">
       <c r="A333">
         <v>29364139</v>
       </c>
@@ -22553,7 +22538,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="334" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:44">
       <c r="A334">
         <v>29265285</v>
       </c>
@@ -22600,7 +22585,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="335" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:44">
       <c r="A335">
         <v>29265284</v>
       </c>
@@ -22647,7 +22632,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="336" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:44">
       <c r="A336">
         <v>28108221</v>
       </c>
@@ -22694,7 +22679,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="337" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:44">
       <c r="A337">
         <v>28108240</v>
       </c>
@@ -22741,7 +22726,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="338" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:44">
       <c r="A338">
         <v>27512406</v>
       </c>
@@ -22788,7 +22773,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="339" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:44">
       <c r="A339">
         <v>27512405</v>
       </c>
@@ -22835,7 +22820,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="340" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:44">
       <c r="A340">
         <v>27512404</v>
       </c>
@@ -22882,7 +22867,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="341" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:44">
       <c r="A341">
         <v>27352347</v>
       </c>
@@ -22929,7 +22914,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="342" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:44">
       <c r="A342">
         <v>27352359</v>
       </c>
@@ -22976,7 +22961,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="343" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:44">
       <c r="A343">
         <v>26981309</v>
       </c>
@@ -23023,7 +23008,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="344" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:44">
       <c r="A344">
         <v>26981293</v>
       </c>
@@ -23070,7 +23055,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="345" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:44">
       <c r="A345">
         <v>26981176</v>
       </c>
@@ -23117,7 +23102,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="346" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:44">
       <c r="A346">
         <v>26981204</v>
       </c>
@@ -23164,7 +23149,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="347" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:44">
       <c r="A347">
         <v>26981214</v>
       </c>
@@ -23211,7 +23196,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="348" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:44">
       <c r="A348">
         <v>26981084</v>
       </c>
@@ -23258,7 +23243,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="349" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:44">
       <c r="A349">
         <v>26981094</v>
       </c>
@@ -23305,7 +23290,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="350" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:44">
       <c r="A350">
         <v>26980973</v>
       </c>
@@ -23352,7 +23337,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="351" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:44">
       <c r="A351">
         <v>26980959</v>
       </c>
@@ -23399,7 +23384,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="352" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:44">
       <c r="A352">
         <v>26980985</v>
       </c>
@@ -23446,7 +23431,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="353" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:44">
       <c r="A353">
         <v>26980194</v>
       </c>
@@ -23493,7 +23478,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="354" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:44">
       <c r="A354">
         <v>26980223</v>
       </c>
@@ -23540,7 +23525,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="355" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:44">
       <c r="A355">
         <v>26706308</v>
       </c>
@@ -23587,7 +23572,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="356" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:44">
       <c r="A356">
         <v>26706310</v>
       </c>
@@ -23634,7 +23619,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="357" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:44">
       <c r="A357">
         <v>26706309</v>
       </c>
@@ -23681,7 +23666,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="358" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:44">
       <c r="A358">
         <v>26703112</v>
       </c>
@@ -23728,7 +23713,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="359" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:44">
       <c r="A359">
         <v>26703087</v>
       </c>
@@ -23775,7 +23760,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="360" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:44">
       <c r="A360">
         <v>26703046</v>
       </c>
@@ -23822,7 +23807,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="361" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:44">
       <c r="A361">
         <v>26700149</v>
       </c>
@@ -23869,7 +23854,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="362" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:44">
       <c r="A362">
         <v>26700162</v>
       </c>
@@ -23916,7 +23901,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="363" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:44">
       <c r="A363">
         <v>26700243</v>
       </c>
@@ -23963,7 +23948,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="364" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:44">
       <c r="A364">
         <v>26700272</v>
       </c>
@@ -24010,7 +23995,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="365" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:44">
       <c r="A365">
         <v>26669894</v>
       </c>
@@ -24057,7 +24042,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="366" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:44">
       <c r="A366">
         <v>26669820</v>
       </c>
@@ -24104,7 +24089,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="367" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:44">
       <c r="A367">
         <v>26669861</v>
       </c>
@@ -24151,7 +24136,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="368" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:44">
       <c r="A368">
         <v>26669057</v>
       </c>
@@ -24198,7 +24183,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="369" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:44">
       <c r="A369">
         <v>26669030</v>
       </c>
@@ -24245,7 +24230,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="370" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:44">
       <c r="A370">
         <v>26668977</v>
       </c>
@@ -24292,7 +24277,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="371" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:44">
       <c r="A371">
         <v>26608781</v>
       </c>
@@ -24339,7 +24324,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="372" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:44">
       <c r="A372">
         <v>26608741</v>
       </c>
@@ -24386,7 +24371,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="373" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:44">
       <c r="A373">
         <v>26609104</v>
       </c>
@@ -24433,7 +24418,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="374" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:44">
       <c r="A374">
         <v>26605140</v>
       </c>
@@ -24483,7 +24468,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="375" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:44">
       <c r="A375">
         <v>29325403</v>
       </c>
@@ -24533,7 +24518,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="376" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:44">
       <c r="A376">
         <v>26605139</v>
       </c>
@@ -24583,7 +24568,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="377" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:44">
       <c r="A377">
         <v>26605440</v>
       </c>
@@ -24633,7 +24618,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="378" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:44">
       <c r="A378">
         <v>26485362</v>
       </c>
@@ -24680,7 +24665,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="379" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:44">
       <c r="A379">
         <v>26485365</v>
       </c>
@@ -24727,7 +24712,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="380" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:44">
       <c r="A380">
         <v>26485363</v>
       </c>
@@ -24774,7 +24759,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="381" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:44">
       <c r="A381">
         <v>26484790</v>
       </c>
@@ -24821,7 +24806,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="382" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:44">
       <c r="A382">
         <v>26484792</v>
       </c>
@@ -24868,7 +24853,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="383" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:44">
       <c r="A383">
         <v>26484791</v>
       </c>
@@ -24915,7 +24900,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="384" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:44">
       <c r="A384">
         <v>26483043</v>
       </c>
@@ -24962,7 +24947,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="385" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:44">
       <c r="A385">
         <v>26483014</v>
       </c>
@@ -25009,7 +24994,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="386" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:44">
       <c r="A386">
         <v>26152617</v>
       </c>
@@ -25056,7 +25041,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="387" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:44">
       <c r="A387">
         <v>26152712</v>
       </c>
@@ -25103,7 +25088,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="388" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:44">
       <c r="A388">
         <v>26152715</v>
       </c>
@@ -25150,7 +25135,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="389" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:44">
       <c r="A389">
         <v>26147917</v>
       </c>
@@ -25197,7 +25182,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="390" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:44">
       <c r="A390">
         <v>26147918</v>
       </c>
@@ -25244,7 +25229,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="391" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:44">
       <c r="A391">
         <v>26147919</v>
       </c>
@@ -25291,7 +25276,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="392" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:44">
       <c r="A392">
         <v>26093303</v>
       </c>
@@ -25338,7 +25323,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="393" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:44">
       <c r="A393">
         <v>26093352</v>
       </c>
@@ -25385,7 +25370,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="394" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:44">
       <c r="A394">
         <v>26093326</v>
       </c>
@@ -25432,7 +25417,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="395" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:44">
       <c r="A395">
         <v>26091473</v>
       </c>
@@ -25479,7 +25464,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="396" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:44">
       <c r="A396">
         <v>26091485</v>
       </c>
@@ -25526,7 +25511,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="397" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:44">
       <c r="A397">
         <v>26091502</v>
       </c>
@@ -25573,7 +25558,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="398" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:44">
       <c r="A398">
         <v>26089912</v>
       </c>
@@ -25620,7 +25605,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="399" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:44">
       <c r="A399">
         <v>26089911</v>
       </c>
@@ -25667,7 +25652,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="400" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:44">
       <c r="A400">
         <v>26089910</v>
       </c>
@@ -25714,7 +25699,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="401" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:44">
       <c r="A401">
         <v>26086501</v>
       </c>
@@ -25761,7 +25746,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="402" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:44">
       <c r="A402">
         <v>26086500</v>
       </c>
@@ -25808,7 +25793,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="403" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:44">
       <c r="A403">
         <v>26086499</v>
       </c>
@@ -25855,7 +25840,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="404" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:44">
       <c r="A404">
         <v>26085988</v>
       </c>
@@ -25902,7 +25887,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="405" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:44">
       <c r="A405">
         <v>26085990</v>
       </c>
@@ -25949,7 +25934,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="406" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:44">
       <c r="A406">
         <v>26085989</v>
       </c>
@@ -25996,7 +25981,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="407" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:44">
       <c r="A407">
         <v>26028179</v>
       </c>
@@ -26043,7 +26028,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="408" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:44">
       <c r="A408">
         <v>26028135</v>
       </c>
@@ -26090,7 +26075,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="409" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:44">
       <c r="A409">
         <v>26028005</v>
       </c>
@@ -26137,7 +26122,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="410" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:44">
       <c r="A410">
         <v>26023329</v>
       </c>
@@ -26184,7 +26169,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="411" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:44">
       <c r="A411">
         <v>26023328</v>
       </c>
@@ -26231,7 +26216,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="412" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:44">
       <c r="A412">
         <v>26023327</v>
       </c>
@@ -26278,7 +26263,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="413" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:44">
       <c r="A413">
         <v>26022537</v>
       </c>
@@ -26325,7 +26310,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="414" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:44">
       <c r="A414">
         <v>26022518</v>
       </c>
@@ -26372,7 +26357,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="415" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:44">
       <c r="A415">
         <v>26022368</v>
       </c>
@@ -26419,7 +26404,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="416" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:44">
       <c r="A416">
         <v>26014571</v>
       </c>
@@ -26466,7 +26451,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="417" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:44">
       <c r="A417">
         <v>26014647</v>
       </c>
@@ -26513,7 +26498,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="418" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:44">
       <c r="A418">
         <v>26014733</v>
       </c>
@@ -26560,7 +26545,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="419" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:44">
       <c r="A419">
         <v>25992876</v>
       </c>
@@ -26607,7 +26592,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="420" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:44">
       <c r="A420">
         <v>25992878</v>
       </c>
@@ -26654,7 +26639,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="421" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:44">
       <c r="A421">
         <v>25992877</v>
       </c>
@@ -26701,7 +26686,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="422" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:44">
       <c r="A422">
         <v>25992333</v>
       </c>
@@ -26748,7 +26733,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="423" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:44">
       <c r="A423">
         <v>25992330</v>
       </c>
@@ -26795,7 +26780,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="424" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:44">
       <c r="A424">
         <v>25992331</v>
       </c>
@@ -26842,7 +26827,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="425" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:44">
       <c r="A425">
         <v>25992332</v>
       </c>
@@ -26889,7 +26874,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="426" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:44">
       <c r="A426">
         <v>25991877</v>
       </c>
@@ -26936,7 +26921,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="427" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:44">
       <c r="A427">
         <v>25991880</v>
       </c>
@@ -26983,7 +26968,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="428" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:44">
       <c r="A428">
         <v>25991872</v>
       </c>
@@ -27030,7 +27015,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="429" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:44">
       <c r="A429">
         <v>25990813</v>
       </c>
@@ -27077,7 +27062,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="430" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:44">
       <c r="A430">
         <v>25990966</v>
       </c>
@@ -27124,7 +27109,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="431" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:44">
       <c r="A431">
         <v>25990962</v>
       </c>
@@ -27168,7 +27153,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="432" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:44">
       <c r="A432">
         <v>25989859</v>
       </c>
@@ -27215,7 +27200,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="433" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:44">
       <c r="A433">
         <v>25989858</v>
       </c>
@@ -27262,7 +27247,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="434" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:44">
       <c r="A434">
         <v>25989860</v>
       </c>
@@ -27309,7 +27294,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="435" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:44">
       <c r="A435">
         <v>25988591</v>
       </c>
@@ -27356,7 +27341,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="436" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:44">
       <c r="A436">
         <v>25988628</v>
       </c>
@@ -27403,7 +27388,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="437" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:44">
       <c r="A437">
         <v>25988524</v>
       </c>
@@ -27450,7 +27435,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="438" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:44">
       <c r="A438">
         <v>25987890</v>
       </c>
@@ -27497,7 +27482,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="439" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:44">
       <c r="A439">
         <v>25987888</v>
       </c>
@@ -27544,7 +27529,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="440" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:44">
       <c r="A440">
         <v>25987889</v>
       </c>
@@ -27591,7 +27576,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="441" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:44">
       <c r="A441">
         <v>25986586</v>
       </c>
@@ -27638,7 +27623,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="442" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:44">
       <c r="A442">
         <v>25986588</v>
       </c>
@@ -27685,7 +27670,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="443" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:44">
       <c r="A443">
         <v>25986587</v>
       </c>
@@ -27732,7 +27717,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="444" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:44">
       <c r="A444">
         <v>25986196</v>
       </c>
@@ -27779,7 +27764,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="445" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:44">
       <c r="A445">
         <v>25986194</v>
       </c>
@@ -27826,7 +27811,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="446" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:44">
       <c r="A446">
         <v>25986195</v>
       </c>
@@ -27873,7 +27858,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="447" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:44">
       <c r="A447">
         <v>25958033</v>
       </c>
@@ -27920,7 +27905,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="448" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:44">
       <c r="A448">
         <v>25958010</v>
       </c>
@@ -27967,7 +27952,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="449" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:44">
       <c r="A449">
         <v>25957970</v>
       </c>
@@ -28014,7 +27999,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="450" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:44">
       <c r="A450">
         <v>25957468</v>
       </c>
@@ -28061,7 +28046,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="451" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:44">
       <c r="A451">
         <v>25957432</v>
       </c>
@@ -28108,7 +28093,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="452" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:44">
       <c r="A452">
         <v>25957419</v>
       </c>
@@ -28155,7 +28140,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="453" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:44">
       <c r="A453">
         <v>25955660</v>
       </c>
@@ -28202,7 +28187,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="454" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:44">
       <c r="A454">
         <v>25955699</v>
       </c>
@@ -28249,7 +28234,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="455" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:44">
       <c r="A455">
         <v>25955614</v>
       </c>
@@ -28296,7 +28281,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="456" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:44">
       <c r="A456">
         <v>25953214</v>
       </c>
@@ -28343,7 +28328,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="457" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:44">
       <c r="A457">
         <v>25953301</v>
       </c>
@@ -28390,7 +28375,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="458" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:44">
       <c r="A458">
         <v>25953189</v>
       </c>
@@ -28437,7 +28422,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="459" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:44">
       <c r="A459">
         <v>25951422</v>
       </c>
@@ -28484,7 +28469,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="460" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:44">
       <c r="A460">
         <v>25951442</v>
       </c>
@@ -28531,7 +28516,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="461" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:44">
       <c r="A461">
         <v>25951491</v>
       </c>
@@ -28578,7 +28563,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="462" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:44">
       <c r="A462">
         <v>25950359</v>
       </c>
@@ -28625,7 +28610,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="463" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:44">
       <c r="A463">
         <v>25950327</v>
       </c>
@@ -28672,7 +28657,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="464" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:44">
       <c r="A464">
         <v>25950383</v>
       </c>
@@ -28719,7 +28704,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="465" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:44">
       <c r="A465">
         <v>25949070</v>
       </c>
@@ -28766,7 +28751,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="466" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:44">
       <c r="A466">
         <v>25949104</v>
       </c>
@@ -28813,7 +28798,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="467" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:44">
       <c r="A467">
         <v>25949155</v>
       </c>
@@ -28860,7 +28845,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="468" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:44">
       <c r="A468">
         <v>25840723</v>
       </c>
@@ -28907,7 +28892,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="469" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:44">
       <c r="A469">
         <v>25840722</v>
       </c>
@@ -28954,7 +28939,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="470" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:44">
       <c r="A470">
         <v>25840721</v>
       </c>
@@ -29001,7 +28986,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="471" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:44">
       <c r="A471">
         <v>25840189</v>
       </c>
@@ -29048,7 +29033,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="472" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:44">
       <c r="A472">
         <v>25839721</v>
       </c>
@@ -29095,7 +29080,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="473" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:44">
       <c r="A473">
         <v>25840207</v>
       </c>
@@ -29142,7 +29127,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="474" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:44">
       <c r="A474">
         <v>25837120</v>
       </c>
@@ -29189,7 +29174,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="475" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:44">
       <c r="A475">
         <v>25837142</v>
       </c>
@@ -29236,7 +29221,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="476" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:44">
       <c r="A476">
         <v>25837154</v>
       </c>
@@ -29283,7 +29268,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="477" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:44">
       <c r="A477">
         <v>25818925</v>
       </c>
@@ -29330,7 +29315,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="478" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:44">
       <c r="A478">
         <v>29264741</v>
       </c>
@@ -29377,7 +29362,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="479" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:44">
       <c r="A479">
         <v>25818783</v>
       </c>
@@ -29424,7 +29409,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="480" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:44">
       <c r="A480">
         <v>25818916</v>
       </c>
@@ -29471,7 +29456,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="481" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:44">
       <c r="A481">
         <v>25770877</v>
       </c>
@@ -29518,7 +29503,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="482" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:44">
       <c r="A482">
         <v>25770912</v>
       </c>
@@ -29565,7 +29550,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="483" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:44">
       <c r="A483">
         <v>25770931</v>
       </c>
@@ -29612,7 +29597,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="484" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:44">
       <c r="A484">
         <v>25768688</v>
       </c>
@@ -29659,7 +29644,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="485" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:44">
       <c r="A485">
         <v>25768426</v>
       </c>
@@ -29706,7 +29691,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="486" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:44">
       <c r="A486">
         <v>25768714</v>
       </c>
@@ -29753,7 +29738,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="487" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:44">
       <c r="A487">
         <v>25767856</v>
       </c>
@@ -29800,7 +29785,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="488" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:44">
       <c r="A488">
         <v>25767899</v>
       </c>
@@ -29847,7 +29832,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="489" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:44">
       <c r="A489">
         <v>25767873</v>
       </c>
@@ -29894,7 +29879,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="490" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:44">
       <c r="A490">
         <v>25764068</v>
       </c>
@@ -29941,7 +29926,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="491" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:44">
       <c r="A491">
         <v>25764088</v>
       </c>
@@ -29988,7 +29973,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="492" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:44">
       <c r="A492">
         <v>25764123</v>
       </c>
@@ -30035,7 +30020,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="493" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:44">
       <c r="A493">
         <v>25761278</v>
       </c>
@@ -30082,7 +30067,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="494" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:44">
       <c r="A494">
         <v>25761310</v>
       </c>
@@ -30129,7 +30114,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="495" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:44">
       <c r="A495">
         <v>25761978</v>
       </c>
@@ -30176,7 +30161,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="496" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:44">
       <c r="A496">
         <v>23240583</v>
       </c>
@@ -30223,7 +30208,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="497" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:44">
       <c r="A497">
         <v>23240541</v>
       </c>
@@ -30270,7 +30255,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="498" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:44">
       <c r="A498">
         <v>23240560</v>
       </c>
@@ -30317,7 +30302,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="499" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:44">
       <c r="A499">
         <v>23240030</v>
       </c>
@@ -30364,7 +30349,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="500" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:44">
       <c r="A500">
         <v>25954377</v>
       </c>
@@ -30411,7 +30396,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="501" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:44">
       <c r="A501">
         <v>23239992</v>
       </c>
@@ -30458,7 +30443,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="502" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:44">
       <c r="A502">
         <v>23239082</v>
       </c>
@@ -30508,7 +30493,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="503" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:44">
       <c r="A503">
         <v>23239049</v>
       </c>
@@ -30558,7 +30543,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="504" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:44">
       <c r="A504">
         <v>23239068</v>
       </c>
@@ -30608,7 +30593,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="505" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:44">
       <c r="A505">
         <v>23238604</v>
       </c>
@@ -30655,7 +30640,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="506" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:44">
       <c r="A506">
         <v>23238619</v>
       </c>
@@ -30702,7 +30687,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="507" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:44">
       <c r="A507">
         <v>23238578</v>
       </c>
@@ -30749,7 +30734,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="508" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:44">
       <c r="A508">
         <v>25952126</v>
       </c>
@@ -30796,7 +30781,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="509" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:44">
       <c r="A509">
         <v>23210910</v>
       </c>
@@ -30843,7 +30828,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="510" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:44">
       <c r="A510">
         <v>25952170</v>
       </c>
@@ -30890,7 +30875,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="511" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:44">
       <c r="A511">
         <v>23141361</v>
       </c>
@@ -30937,7 +30922,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="512" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:44">
       <c r="A512">
         <v>23141349</v>
       </c>
@@ -30984,7 +30969,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="513" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:44">
       <c r="A513">
         <v>25769686</v>
       </c>
@@ -31031,7 +31016,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="514" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:44">
       <c r="A514">
         <v>23110671</v>
       </c>
@@ -31078,7 +31063,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="515" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:44">
       <c r="A515">
         <v>23110677</v>
       </c>
@@ -31125,7 +31110,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="516" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:44">
       <c r="A516">
         <v>23067266</v>
       </c>
@@ -31172,7 +31157,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="517" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:44">
       <c r="A517">
         <v>23067230</v>
       </c>
@@ -31219,7 +31204,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="518" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:44">
       <c r="A518">
         <v>23067245</v>
       </c>
@@ -31266,7 +31251,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="519" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:44">
       <c r="A519">
         <v>22943733</v>
       </c>
@@ -31307,13 +31292,13 @@
         <v>199</v>
       </c>
       <c r="Y519">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR519" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="520" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:44">
       <c r="A520">
         <v>22943694</v>
       </c>
@@ -31354,13 +31339,13 @@
         <v>199</v>
       </c>
       <c r="Y520">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR520" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="521" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:44">
       <c r="A521">
         <v>22943740</v>
       </c>
@@ -31401,13 +31386,13 @@
         <v>199</v>
       </c>
       <c r="Y521">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR521" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="522" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:44">
       <c r="A522">
         <v>22943482</v>
       </c>
@@ -31448,13 +31433,13 @@
         <v>149</v>
       </c>
       <c r="Y522">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR522" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="523" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:44">
       <c r="A523">
         <v>22943513</v>
       </c>
@@ -31495,13 +31480,13 @@
         <v>149</v>
       </c>
       <c r="Y523">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR523" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="524" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:44">
       <c r="A524">
         <v>22943495</v>
       </c>
@@ -31542,13 +31527,13 @@
         <v>149</v>
       </c>
       <c r="Y524">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR524" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="525" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:44">
       <c r="A525">
         <v>22943283</v>
       </c>
@@ -31595,7 +31580,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="526" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:44">
       <c r="A526">
         <v>22943104</v>
       </c>
@@ -31642,7 +31627,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="527" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:44">
       <c r="A527">
         <v>22943352</v>
       </c>
@@ -31683,13 +31668,13 @@
         <v>269</v>
       </c>
       <c r="Y527">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR527" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="528" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:44">
       <c r="A528">
         <v>22943189</v>
       </c>
@@ -31730,13 +31715,13 @@
         <v>269</v>
       </c>
       <c r="Y528">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR528" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="529" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:44">
       <c r="A529">
         <v>22942447</v>
       </c>
@@ -31786,7 +31771,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="530" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:44">
       <c r="A530">
         <v>22942492</v>
       </c>
@@ -31836,7 +31821,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="531" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:44">
       <c r="A531">
         <v>22942524</v>
       </c>
@@ -31886,7 +31871,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="532" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:44">
       <c r="A532">
         <v>22942328</v>
       </c>
@@ -31927,13 +31912,13 @@
         <v>189</v>
       </c>
       <c r="Y532">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR532" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="533" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:44">
       <c r="A533">
         <v>22942330</v>
       </c>
@@ -31974,13 +31959,13 @@
         <v>189</v>
       </c>
       <c r="Y533">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR533" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="534" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:44">
       <c r="A534">
         <v>22942341</v>
       </c>
@@ -32021,13 +32006,13 @@
         <v>189</v>
       </c>
       <c r="Y534">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR534" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="535" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:44">
       <c r="A535">
         <v>22942247</v>
       </c>
@@ -32074,7 +32059,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="536" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:44">
       <c r="A536">
         <v>22942214</v>
       </c>
@@ -32121,7 +32106,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="537" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:44">
       <c r="A537">
         <v>22942226</v>
       </c>
@@ -32168,7 +32153,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="538" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:44">
       <c r="A538">
         <v>22942203</v>
       </c>
@@ -32215,7 +32200,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="539" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:44">
       <c r="A539">
         <v>22942099</v>
       </c>
@@ -32262,7 +32247,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="540" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:44">
       <c r="A540">
         <v>22942074</v>
       </c>
@@ -32309,7 +32294,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="541" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:44">
       <c r="A541">
         <v>22942087</v>
       </c>
@@ -32356,7 +32341,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="542" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:44">
       <c r="A542">
         <v>22940779</v>
       </c>
@@ -32397,13 +32382,13 @@
         <v>129</v>
       </c>
       <c r="Y542">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR542" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="543" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:44">
       <c r="A543">
         <v>22940762</v>
       </c>
@@ -32444,13 +32429,13 @@
         <v>129</v>
       </c>
       <c r="Y543">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR543" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="544" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:44">
       <c r="A544">
         <v>22940747</v>
       </c>
@@ -32491,13 +32476,13 @@
         <v>129</v>
       </c>
       <c r="Y544">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR544" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="545" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:44">
       <c r="A545">
         <v>22940696</v>
       </c>
@@ -32538,13 +32523,13 @@
         <v>119</v>
       </c>
       <c r="Y545">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR545" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="546" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:44">
       <c r="A546">
         <v>22940689</v>
       </c>
@@ -32585,13 +32570,13 @@
         <v>119</v>
       </c>
       <c r="Y546">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR546" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="547" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:44">
       <c r="A547">
         <v>22940701</v>
       </c>
@@ -32632,13 +32617,13 @@
         <v>119</v>
       </c>
       <c r="Y547">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR547" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="548" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:44">
       <c r="A548">
         <v>22940622</v>
       </c>
@@ -32679,13 +32664,13 @@
         <v>119</v>
       </c>
       <c r="Y548">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR548" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="549" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:44">
       <c r="A549">
         <v>22940606</v>
       </c>
@@ -32732,7 +32717,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="550" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:44">
       <c r="A550">
         <v>22940614</v>
       </c>
@@ -32779,7 +32764,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="551" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:44">
       <c r="A551">
         <v>22940454</v>
       </c>
@@ -32826,7 +32811,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="552" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:44">
       <c r="A552">
         <v>22940450</v>
       </c>
@@ -32867,13 +32852,13 @@
         <v>289</v>
       </c>
       <c r="Y552">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AR552" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="553" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:44">
       <c r="A553">
         <v>22940464</v>
       </c>
@@ -32914,13 +32899,13 @@
         <v>289</v>
       </c>
       <c r="Y553">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AR553" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="554" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:44">
       <c r="A554">
         <v>22940404</v>
       </c>
@@ -32961,13 +32946,13 @@
         <v>89</v>
       </c>
       <c r="Y554">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR554" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="555" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:44">
       <c r="A555">
         <v>22940374</v>
       </c>
@@ -33008,13 +32993,13 @@
         <v>89</v>
       </c>
       <c r="Y555">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR555" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="556" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:44">
       <c r="A556">
         <v>22940398</v>
       </c>
@@ -33055,13 +33040,13 @@
         <v>89</v>
       </c>
       <c r="Y556">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR556" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="557" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:44">
       <c r="A557">
         <v>22940319</v>
       </c>
@@ -33102,13 +33087,13 @@
         <v>159</v>
       </c>
       <c r="Y557">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AR557" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="558" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:44">
       <c r="A558">
         <v>22940304</v>
       </c>
@@ -33149,13 +33134,13 @@
         <v>159</v>
       </c>
       <c r="Y558">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AR558" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="559" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:44">
       <c r="A559">
         <v>22940309</v>
       </c>
@@ -33196,13 +33181,13 @@
         <v>159</v>
       </c>
       <c r="Y559">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AR559" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="560" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:44">
       <c r="A560">
         <v>22940230</v>
       </c>
@@ -33243,13 +33228,13 @@
         <v>89</v>
       </c>
       <c r="Y560">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR560" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="561" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:49">
       <c r="A561">
         <v>22940174</v>
       </c>
@@ -33290,13 +33275,13 @@
         <v>89</v>
       </c>
       <c r="Y561">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR561" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="562" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:49">
       <c r="A562">
         <v>22940070</v>
       </c>
@@ -33337,13 +33322,13 @@
         <v>89</v>
       </c>
       <c r="Y562">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR562" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="563" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:49">
       <c r="A563">
         <v>22934678</v>
       </c>
@@ -33384,13 +33369,13 @@
         <v>199</v>
       </c>
       <c r="Y563">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR563" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="564" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:49">
       <c r="A564">
         <v>22934525</v>
       </c>
@@ -33431,13 +33416,13 @@
         <v>199</v>
       </c>
       <c r="Y564">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR564" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="565" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:49">
       <c r="A565">
         <v>22934666</v>
       </c>
@@ -33478,13 +33463,13 @@
         <v>199</v>
       </c>
       <c r="Y565">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR565" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="566" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:49">
       <c r="A566">
         <v>22934122</v>
       </c>
@@ -33525,13 +33510,13 @@
         <v>169</v>
       </c>
       <c r="Y566">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR566" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="567" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:49">
       <c r="A567">
         <v>22934139</v>
       </c>
@@ -33578,7 +33563,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="568" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:49">
       <c r="A568">
         <v>22934088</v>
       </c>
@@ -33619,13 +33604,13 @@
         <v>169</v>
       </c>
       <c r="Y568">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR568" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="569" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:49">
       <c r="A569">
         <v>22933774</v>
       </c>
@@ -33666,13 +33651,13 @@
         <v>99</v>
       </c>
       <c r="Y569">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR569" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="570" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:49">
       <c r="A570">
         <v>22933744</v>
       </c>
@@ -33713,13 +33698,13 @@
         <v>99</v>
       </c>
       <c r="Y570">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR570" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="571" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:49">
       <c r="A571">
         <v>22932369</v>
       </c>
@@ -33769,7 +33754,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="572" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:49">
       <c r="A572">
         <v>22932360</v>
       </c>
@@ -33819,7 +33804,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="573" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:49">
       <c r="A573">
         <v>22932373</v>
       </c>
@@ -33869,7 +33854,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="574" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:49">
       <c r="A574">
         <v>22932189</v>
       </c>
@@ -33910,13 +33895,13 @@
         <v>249</v>
       </c>
       <c r="Y574">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR574" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="575" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:49">
       <c r="A575">
         <v>22932177</v>
       </c>
@@ -33957,13 +33942,13 @@
         <v>249</v>
       </c>
       <c r="Y575">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AR575" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="576" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:49">
       <c r="A576">
         <v>22931998</v>
       </c>
@@ -34004,13 +33989,13 @@
         <v>289</v>
       </c>
       <c r="Y576">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AW576" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="577" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:49">
       <c r="A577">
         <v>22931945</v>
       </c>
@@ -34051,13 +34036,13 @@
         <v>289</v>
       </c>
       <c r="Y577">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AW577" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="578" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:49">
       <c r="A578">
         <v>22931877</v>
       </c>
@@ -34098,13 +34083,13 @@
         <v>289</v>
       </c>
       <c r="Y578">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AW578" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="579" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:49">
       <c r="A579">
         <v>21401404</v>
       </c>
@@ -34160,7 +34145,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="580" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:49">
       <c r="A580">
         <v>21401403</v>
       </c>
@@ -34204,7 +34189,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="581" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:49">
       <c r="A581">
         <v>21401401</v>
       </c>
@@ -34248,7 +34233,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="582" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:49">
       <c r="A582">
         <v>13543092</v>
       </c>
@@ -34295,7 +34280,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="583" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:49">
       <c r="A583">
         <v>13543083</v>
       </c>
@@ -34339,7 +34324,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="584" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:49">
       <c r="A584">
         <v>13542101</v>
       </c>
@@ -34383,7 +34368,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="585" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:49">
       <c r="A585">
         <v>13542087</v>
       </c>
@@ -34427,7 +34412,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="586" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:49">
       <c r="A586">
         <v>13542094</v>
       </c>
@@ -34471,7 +34456,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="587" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:49">
       <c r="A587">
         <v>13447537</v>
       </c>
@@ -34515,7 +34500,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="588" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:49">
       <c r="A588">
         <v>13447542</v>
       </c>
@@ -34559,7 +34544,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="589" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:49">
       <c r="A589">
         <v>13447087</v>
       </c>
@@ -34603,7 +34588,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="590" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:49">
       <c r="A590">
         <v>13443731</v>
       </c>
@@ -34647,7 +34632,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="591" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:49">
       <c r="A591">
         <v>13440981</v>
       </c>
@@ -34694,7 +34679,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="592" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:49">
       <c r="A592">
         <v>11952333</v>
       </c>
@@ -34744,7 +34729,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="593" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:44">
       <c r="A593">
         <v>11952302</v>
       </c>
@@ -34794,7 +34779,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="594" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:44">
       <c r="A594">
         <v>13442267</v>
       </c>
@@ -34844,7 +34829,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="595" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:44">
       <c r="A595">
         <v>11950909</v>
       </c>
@@ -34891,7 +34876,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="596" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:44">
       <c r="A596">
         <v>11950848</v>
       </c>
@@ -34938,7 +34923,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="597" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:44">
       <c r="A597">
         <v>9828323</v>
       </c>
@@ -34991,7 +34976,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="598" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:44">
       <c r="A598">
         <v>9828318</v>
       </c>
@@ -35044,7 +35029,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="599" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:44">
       <c r="A599">
         <v>9828312</v>
       </c>
@@ -35097,7 +35082,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="600" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:44">
       <c r="A600">
         <v>9828272</v>
       </c>
@@ -35150,7 +35135,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="601" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:44">
       <c r="A601">
         <v>9828279</v>
       </c>
@@ -35203,7 +35188,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="602" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:44">
       <c r="A602">
         <v>9828260</v>
       </c>
@@ -35256,7 +35241,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="603" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:44">
       <c r="A603">
         <v>9827088</v>
       </c>
@@ -35303,7 +35288,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="604" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:44">
       <c r="A604">
         <v>9827115</v>
       </c>
@@ -35350,7 +35335,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="605" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:44">
       <c r="A605">
         <v>9827101</v>
       </c>
@@ -35397,7 +35382,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="606" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:44">
       <c r="A606">
         <v>9826835</v>
       </c>
@@ -35444,7 +35429,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="607" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:44">
       <c r="A607">
         <v>9826840</v>
       </c>
@@ -35491,7 +35476,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="608" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:44">
       <c r="A608">
         <v>9826828</v>
       </c>
@@ -35538,7 +35523,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="609" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:44">
       <c r="A609">
         <v>10073616</v>
       </c>
@@ -35588,7 +35573,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="610" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:44">
       <c r="A610">
         <v>9826636</v>
       </c>
@@ -35638,7 +35623,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="611" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:44">
       <c r="A611">
         <v>9826642</v>
       </c>
@@ -35688,7 +35673,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="612" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:44">
       <c r="A612">
         <v>9798817</v>
       </c>
@@ -35738,7 +35723,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="613" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:44">
       <c r="A613">
         <v>9798821</v>
       </c>
@@ -35788,7 +35773,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="614" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:44">
       <c r="A614">
         <v>9798826</v>
       </c>
@@ -35838,7 +35823,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="615" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:44">
       <c r="A615">
         <v>10073664</v>
       </c>
@@ -35888,7 +35873,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="616" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:44">
       <c r="A616">
         <v>9798739</v>
       </c>
@@ -35938,7 +35923,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="617" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:44">
       <c r="A617">
         <v>9798744</v>
       </c>
@@ -35988,7 +35973,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="618" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:44">
       <c r="A618">
         <v>9798712</v>
       </c>
@@ -36038,7 +36023,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="619" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:44">
       <c r="A619">
         <v>10073646</v>
       </c>
@@ -36088,7 +36073,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="620" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:44">
       <c r="A620">
         <v>9798711</v>
       </c>
@@ -36138,7 +36123,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="621" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:44">
       <c r="A621">
         <v>9798658</v>
       </c>
@@ -36188,7 +36173,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="622" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:44">
       <c r="A622">
         <v>9798671</v>
       </c>
@@ -36238,7 +36223,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="623" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:44">
       <c r="A623">
         <v>9798674</v>
       </c>
@@ -36288,7 +36273,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="624" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:44">
       <c r="A624">
         <v>9798493</v>
       </c>
@@ -36338,7 +36323,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="625" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:44">
       <c r="A625">
         <v>9798497</v>
       </c>
@@ -36388,7 +36373,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="626" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:44">
       <c r="A626">
         <v>9798500</v>
       </c>
@@ -36438,7 +36423,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="627" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:44">
       <c r="A627">
         <v>9798089</v>
       </c>
@@ -36485,7 +36470,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="628" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:44">
       <c r="A628">
         <v>9798081</v>
       </c>
@@ -36532,7 +36517,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="629" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:44">
       <c r="A629">
         <v>9798087</v>
       </c>
@@ -36579,7 +36564,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="630" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:44">
       <c r="A630">
         <v>9798059</v>
       </c>
@@ -36626,7 +36611,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="631" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:44">
       <c r="A631">
         <v>9798055</v>
       </c>
@@ -36673,7 +36658,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="632" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:44">
       <c r="A632">
         <v>9798050</v>
       </c>
@@ -36720,7 +36705,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="633" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:44">
       <c r="A633">
         <v>9797859</v>
       </c>
@@ -36764,7 +36749,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="634" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:44">
       <c r="A634">
         <v>9797862</v>
       </c>
@@ -36808,7 +36793,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="635" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:44">
       <c r="A635">
         <v>9797849</v>
       </c>
@@ -36852,7 +36837,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="636" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:44">
       <c r="A636">
         <v>9797800</v>
       </c>
@@ -36899,7 +36884,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="637" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:44">
       <c r="A637">
         <v>9797806</v>
       </c>
@@ -36946,7 +36931,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="638" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:44">
       <c r="A638">
         <v>9797804</v>
       </c>
@@ -36993,7 +36978,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="639" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:44">
       <c r="A639">
         <v>9797781</v>
       </c>
@@ -37040,7 +37025,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="640" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:44">
       <c r="A640">
         <v>9797776</v>
       </c>
@@ -37087,7 +37072,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="641" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:44">
       <c r="A641">
         <v>9797771</v>
       </c>
@@ -37134,7 +37119,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="642" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:44">
       <c r="A642">
         <v>9797708</v>
       </c>
@@ -37178,7 +37163,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="643" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:44">
       <c r="A643">
         <v>9797711</v>
       </c>
@@ -37222,7 +37207,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="644" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:44">
       <c r="A644">
         <v>9797705</v>
       </c>
@@ -37266,7 +37251,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="645" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:44">
       <c r="A645">
         <v>9797679</v>
       </c>
@@ -37310,7 +37295,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="646" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:44">
       <c r="A646">
         <v>9797672</v>
       </c>
@@ -37354,7 +37339,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="647" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:44">
       <c r="A647">
         <v>9797684</v>
       </c>
@@ -37398,7 +37383,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="648" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:44">
       <c r="A648">
         <v>9797441</v>
       </c>
@@ -37442,7 +37427,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="649" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:44">
       <c r="A649">
         <v>9797445</v>
       </c>
@@ -37489,7 +37474,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="650" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:44">
       <c r="A650">
         <v>9797451</v>
       </c>
@@ -37536,7 +37521,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="651" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:44">
       <c r="A651">
         <v>9797323</v>
       </c>
@@ -37583,7 +37568,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="652" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:44">
       <c r="A652">
         <v>9797317</v>
       </c>
@@ -37627,7 +37612,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="653" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:44">
       <c r="A653">
         <v>9797313</v>
       </c>
@@ -37674,7 +37659,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="654" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:44">
       <c r="A654">
         <v>9797143</v>
       </c>
@@ -37718,7 +37703,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="655" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:44">
       <c r="A655">
         <v>9797141</v>
       </c>
@@ -37762,7 +37747,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="656" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:44">
       <c r="A656">
         <v>9797146</v>
       </c>
@@ -37806,7 +37791,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="657" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:44">
       <c r="A657">
         <v>9797123</v>
       </c>
@@ -37850,7 +37835,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="658" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:44">
       <c r="A658">
         <v>9797117</v>
       </c>
@@ -37894,7 +37879,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="659" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:44">
       <c r="A659">
         <v>9797119</v>
       </c>
@@ -37938,7 +37923,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="660" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:44">
       <c r="A660">
         <v>9796747</v>
       </c>
@@ -37982,7 +37967,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="661" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:44">
       <c r="A661">
         <v>9796742</v>
       </c>
@@ -38026,7 +38011,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="662" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:44">
       <c r="A662">
         <v>9796740</v>
       </c>
@@ -38070,7 +38055,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="663" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:44">
       <c r="A663">
         <v>9796623</v>
       </c>
@@ -38117,7 +38102,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="664" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:44">
       <c r="A664">
         <v>9796612</v>
       </c>
@@ -38164,7 +38149,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="665" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:44">
       <c r="A665">
         <v>9796618</v>
       </c>
@@ -38211,7 +38196,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="666" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:44">
       <c r="A666">
         <v>9796460</v>
       </c>
@@ -38261,7 +38246,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="667" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:44">
       <c r="A667">
         <v>9796522</v>
       </c>
@@ -38311,7 +38296,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="668" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:44">
       <c r="A668">
         <v>9796458</v>
       </c>
@@ -38361,7 +38346,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="669" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:44">
       <c r="A669">
         <v>9796403</v>
       </c>
@@ -38411,7 +38396,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="670" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:44">
       <c r="A670">
         <v>9796398</v>
       </c>
@@ -38461,7 +38446,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="671" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:44">
       <c r="A671">
         <v>9796407</v>
       </c>
@@ -38511,7 +38496,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="672" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:44">
       <c r="A672">
         <v>9796179</v>
       </c>
@@ -38558,7 +38543,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="673" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:44">
       <c r="A673">
         <v>9796050</v>
       </c>
@@ -38605,7 +38590,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="674" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:44">
       <c r="A674">
         <v>9795914</v>
       </c>
@@ -38655,7 +38640,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="675" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:44">
       <c r="A675">
         <v>9795858</v>
       </c>
@@ -38705,7 +38690,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="676" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:44">
       <c r="A676">
         <v>9795907</v>
       </c>
@@ -38755,7 +38740,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="677" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:44">
       <c r="A677">
         <v>9795669</v>
       </c>
@@ -38805,7 +38790,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="678" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:44">
       <c r="A678">
         <v>13445207</v>
       </c>
@@ -38852,7 +38837,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="679" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:44">
       <c r="A679">
         <v>13445223</v>
       </c>
@@ -38902,7 +38887,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="680" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:44">
       <c r="A680">
         <v>9795152</v>
       </c>
@@ -38952,7 +38937,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="681" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:44">
       <c r="A681">
         <v>9795158</v>
       </c>
@@ -38999,7 +38984,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="682" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:44">
       <c r="A682">
         <v>26151459</v>
       </c>
@@ -39049,7 +39034,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="683" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:44">
       <c r="A683">
         <v>9794858</v>
       </c>
@@ -39096,7 +39081,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="684" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:44">
       <c r="A684">
         <v>9794855</v>
       </c>
@@ -39143,7 +39128,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="685" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:44">
       <c r="A685">
         <v>9398289</v>
       </c>
@@ -39187,7 +39172,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="686" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:44">
       <c r="A686">
         <v>9391096</v>
       </c>
@@ -39231,7 +39216,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="687" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:44">
       <c r="A687">
         <v>9391101</v>
       </c>
@@ -39275,7 +39260,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="688" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:44">
       <c r="A688">
         <v>9391093</v>
       </c>
@@ -39319,7 +39304,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="689" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:44">
       <c r="A689">
         <v>8150031</v>
       </c>
@@ -39369,7 +39354,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="690" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:44">
       <c r="A690">
         <v>8150038</v>
       </c>
@@ -39419,7 +39404,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="691" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:44">
       <c r="A691">
         <v>8150040</v>
       </c>
@@ -39469,7 +39454,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="692" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:44">
       <c r="A692">
         <v>8149727</v>
       </c>
@@ -39522,7 +39507,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="693" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:44">
       <c r="A693">
         <v>8149720</v>
       </c>
@@ -39575,7 +39560,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="694" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:44">
       <c r="A694">
         <v>10974015</v>
       </c>
@@ -39628,7 +39613,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="695" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:44">
       <c r="A695">
         <v>8149650</v>
       </c>
@@ -39678,7 +39663,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="696" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:44">
       <c r="A696">
         <v>8149623</v>
       </c>
@@ -39728,7 +39713,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="697" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:44">
       <c r="A697">
         <v>8149597</v>
       </c>
@@ -39778,7 +39763,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="698" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:44">
       <c r="A698">
         <v>8149576</v>
       </c>
@@ -39828,7 +39813,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="699" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:44">
       <c r="A699">
         <v>8149657</v>
       </c>
@@ -39878,7 +39863,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="700" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:44">
       <c r="A700">
         <v>8149644</v>
       </c>
@@ -39928,7 +39913,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="701" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:44">
       <c r="A701">
         <v>8149511</v>
       </c>
@@ -39981,7 +39966,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="702" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:44">
       <c r="A702">
         <v>8149508</v>
       </c>
@@ -40034,7 +40019,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="703" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:44">
       <c r="A703">
         <v>8149494</v>
       </c>
@@ -40087,7 +40072,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="704" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:44">
       <c r="A704">
         <v>8149399</v>
       </c>
@@ -40137,7 +40122,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="705" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:44">
       <c r="A705">
         <v>8149391</v>
       </c>
@@ -40187,7 +40172,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="706" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:44">
       <c r="A706">
         <v>7307828</v>
       </c>
@@ -40234,7 +40219,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="707" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:44">
       <c r="A707">
         <v>7307813</v>
       </c>
@@ -40281,7 +40266,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="708" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:44">
       <c r="A708">
         <v>7307821</v>
       </c>
@@ -40328,7 +40313,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="709" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:44">
       <c r="A709">
         <v>7307692</v>
       </c>
@@ -40378,7 +40363,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="710" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:44">
       <c r="A710">
         <v>7307561</v>
       </c>
@@ -40428,7 +40413,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="711" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:44">
       <c r="A711">
         <v>7307553</v>
       </c>
@@ -40478,7 +40463,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="712" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:44">
       <c r="A712">
         <v>7293549</v>
       </c>
@@ -40528,7 +40513,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="713" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:44">
       <c r="A713">
         <v>7293548</v>
       </c>
@@ -40578,7 +40563,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="714" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:44">
       <c r="A714">
         <v>7293564</v>
       </c>
@@ -40631,7 +40616,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="715" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:44">
       <c r="A715">
         <v>7293563</v>
       </c>
@@ -40684,7 +40669,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="716" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:44">
       <c r="A716">
         <v>7293562</v>
       </c>
@@ -40737,7 +40722,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="717" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:44">
       <c r="A717">
         <v>7293554</v>
       </c>
@@ -40790,7 +40775,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="718" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:44">
       <c r="A718">
         <v>7293553</v>
       </c>
@@ -40843,7 +40828,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="719" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:44">
       <c r="A719">
         <v>7293557</v>
       </c>
@@ -40896,7 +40881,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="720" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:44">
       <c r="A720">
         <v>7293558</v>
       </c>
@@ -40949,7 +40934,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="721" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:44">
       <c r="A721">
         <v>7293556</v>
       </c>
@@ -41002,7 +40987,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="722" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:44">
       <c r="A722">
         <v>7293555</v>
       </c>
@@ -41055,7 +41040,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="723" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:44">
       <c r="A723">
         <v>7293622</v>
       </c>
@@ -41105,7 +41090,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="724" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:44">
       <c r="A724">
         <v>7293621</v>
       </c>
@@ -41155,7 +41140,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="725" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:44">
       <c r="A725">
         <v>7293623</v>
       </c>
@@ -41208,7 +41193,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="726" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:44">
       <c r="A726">
         <v>26147439</v>
       </c>
@@ -41261,7 +41246,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="727" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:44">
       <c r="A727">
         <v>7293566</v>
       </c>
@@ -41311,7 +41296,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="728" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:44">
       <c r="A728">
         <v>7293589</v>
       </c>
@@ -41364,7 +41349,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="729" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:44">
       <c r="A729">
         <v>26095219</v>
       </c>
@@ -41417,7 +41402,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="730" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:44">
       <c r="A730">
         <v>26095270</v>
       </c>
@@ -41470,7 +41455,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="731" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:44">
       <c r="A731">
         <v>7293630</v>
       </c>
@@ -41523,7 +41508,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="732" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:44">
       <c r="A732">
         <v>7293631</v>
       </c>
@@ -41576,7 +41561,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="733" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:44">
       <c r="A733">
         <v>10073698</v>
       </c>
@@ -41626,7 +41611,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="734" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:44">
       <c r="A734">
         <v>7293661</v>
       </c>
@@ -41676,7 +41661,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="735" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:44">
       <c r="A735">
         <v>7293660</v>
       </c>
@@ -41726,7 +41711,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="736" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:44">
       <c r="A736">
         <v>7293664</v>
       </c>
@@ -41776,7 +41761,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="737" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:44">
       <c r="A737">
         <v>7293662</v>
       </c>
@@ -41826,7 +41811,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="738" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:44">
       <c r="A738">
         <v>7293659</v>
       </c>
@@ -41876,7 +41861,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="739" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:44">
       <c r="A739">
         <v>7293657</v>
       </c>
@@ -41926,7 +41911,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="740" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:44">
       <c r="A740">
         <v>7293656</v>
       </c>
@@ -41976,7 +41961,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="741" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:44">
       <c r="A741">
         <v>7293658</v>
       </c>
@@ -42026,7 +42011,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="742" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:44">
       <c r="A742">
         <v>7293650</v>
       </c>
@@ -42079,7 +42064,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="743" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:44">
       <c r="A743">
         <v>7293646</v>
       </c>
@@ -42129,7 +42114,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="744" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:44">
       <c r="A744">
         <v>7293644</v>
       </c>
@@ -42179,7 +42164,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="745" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:44">
       <c r="A745">
         <v>7293645</v>
       </c>
@@ -42229,7 +42214,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="746" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:44">
       <c r="A746">
         <v>7293580</v>
       </c>
@@ -42279,7 +42264,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="747" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:44">
       <c r="A747">
         <v>7293579</v>
       </c>
@@ -42329,7 +42314,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="748" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:44">
       <c r="A748">
         <v>7293578</v>
       </c>
@@ -42379,7 +42364,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="749" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:44">
       <c r="A749">
         <v>7293611</v>
       </c>
@@ -42429,7 +42414,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="750" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:44">
       <c r="A750">
         <v>7293612</v>
       </c>
@@ -42479,7 +42464,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="751" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:44">
       <c r="A751">
         <v>7293608</v>
       </c>
@@ -42529,7 +42514,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="752" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:44">
       <c r="A752">
         <v>7293609</v>
       </c>

--- a/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export.xlsx
+++ b/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export.xlsx
@@ -4896,31 +4896,34 @@
     <t>variacao</t>
   </si>
   <si>
+    <t>blusamalhabegejlh18-p</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>blusamalhabegejlh18-m</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>blusamalhabegejlh18-p</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>blusamalhabegejlh18-g</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
+    <t>calcamalhabrcjlh18-m</t>
+  </si>
+  <si>
     <t>calcamalhabrcjlh18-g</t>
   </si>
   <si>
     <t>calcamalhabrcjlh18-p</t>
   </si>
   <si>
-    <t>calcamalhabrcjlh18-m</t>
+    <t>topmalhaprtjlh18-m</t>
   </si>
   <si>
     <t>topmalhaprtjlh18-p</t>
@@ -4929,7 +4932,7 @@
     <t>topmalhaprtjlh18-g</t>
   </si>
   <si>
-    <t>topmalhaprtjlh18-m</t>
+    <t>topmalhabrcjlh18-p</t>
   </si>
   <si>
     <t>topmalhabrcjlh18-g</t>
@@ -4938,7 +4941,7 @@
     <t>topmalhabrcjlh18-m</t>
   </si>
   <si>
-    <t>topmalhabrcjlh18-p</t>
+    <t>macacaodecotestmpvnhjlh18-m</t>
   </si>
   <si>
     <t>macacaodecotestmpvnhjlh18-g</t>
@@ -4947,18 +4950,15 @@
     <t>macacaodecotestmpvnhjlh18-p</t>
   </si>
   <si>
-    <t>macacaodecotestmpvnhjlh18-m</t>
-  </si>
-  <si>
     <t>macacaodecotestmpprtjlh18-g</t>
   </si>
   <si>
+    <t>macacaodecotestmpprtjlh18-p</t>
+  </si>
+  <si>
     <t>macacaodecotestmpprtjlh18-m</t>
   </si>
   <si>
-    <t>macacaodecotestmpprtjlh18-p</t>
-  </si>
-  <si>
     <t>calcapantacourtviscosejlh18-p</t>
   </si>
   <si>
@@ -4986,13 +4986,16 @@
     <t>calcaxadrezcnzjlh18-m</t>
   </si>
   <si>
+    <t>macacaoxadrezcnzjlh18-g</t>
+  </si>
+  <si>
     <t>macacaoxadrezcnzjlh18-p</t>
   </si>
   <si>
     <t>macacaoxadrezcnzjlh18-m</t>
   </si>
   <si>
-    <t>macacaoxadrezcnzjlh18-g</t>
+    <t>macacaoxadrezprtjlh18-p</t>
   </si>
   <si>
     <t>macacaoxadrezprtjlh18-g</t>
@@ -5001,18 +5004,15 @@
     <t>macacaoxadrezprtjlh18-m</t>
   </si>
   <si>
-    <t>macacaoxadrezprtjlh18-p</t>
+    <t>macacaoxadrezbrcjlh18-p</t>
+  </si>
+  <si>
+    <t>macacaoxadrezbrcjlh18-g</t>
   </si>
   <si>
     <t>macacaoxadrezbrcjlh18-m</t>
   </si>
   <si>
-    <t>macacaoxadrezbrcjlh18-p</t>
-  </si>
-  <si>
-    <t>macacaoxadrezbrcjlh18-g</t>
-  </si>
-  <si>
     <t>vestidotranspassadoazljlh18-m</t>
   </si>
   <si>
@@ -5022,13 +5022,16 @@
     <t>vestidotranspassadoazljlh18-g</t>
   </si>
   <si>
+    <t>vestidotranspassadovnhjlh18-g</t>
+  </si>
+  <si>
+    <t>vestidotranspassadovnhjlh18-p</t>
+  </si>
+  <si>
     <t>vestidotranspassadovnhjlh18-m</t>
   </si>
   <si>
-    <t>vestidotranspassadovnhjlh18-g</t>
-  </si>
-  <si>
-    <t>vestidotranspassadovnhjlh18-p</t>
+    <t>vestidotranspassadorsjlh18-m</t>
   </si>
   <si>
     <t>vestidotranspassadorsjlh18-p</t>
@@ -5037,7 +5040,7 @@
     <t>vestidotranspassadorsjlh18-g</t>
   </si>
   <si>
-    <t>vestidotranspassadorsjlh18-m</t>
+    <t>vestidosinoblazljlh18-m</t>
   </si>
   <si>
     <t>vestidosinoblazljlh18-p</t>
@@ -5046,24 +5049,21 @@
     <t>vestidosinoblazljlh18-g</t>
   </si>
   <si>
-    <t>vestidosinoblazljlh18-m</t>
+    <t>TOP-BL-TRANS-EST-m-MMKCMQL5I-DCPXNNF8X</t>
+  </si>
+  <si>
+    <t>TOP-BL-TRANS-EST-p-4C3N2SXL6-G8ZO25CO5</t>
   </si>
   <si>
     <t>TOP-BL-TRANS-EST-g-9Y8WK23AL-OBIS45L86</t>
   </si>
   <si>
-    <t>TOP-BL-TRANS-EST-m-MMKCMQL5I-DCPXNNF8X</t>
-  </si>
-  <si>
-    <t>TOP-BL-TRANS-EST-p-4C3N2SXL6-G8ZO25CO5</t>
+    <t>blusaalcinhavrdlstrjlh18-m</t>
   </si>
   <si>
     <t>blusaalcinhavrdlstrjlh18-p</t>
   </si>
   <si>
-    <t>blusaalcinhavrdlstrjlh18-m</t>
-  </si>
-  <si>
     <t>blusaalcinhavrdlstrjlh18-g</t>
   </si>
   <si>
@@ -5076,22 +5076,25 @@
     <t>bodydecotadopretofv18-g-383K3BCGP</t>
   </si>
   <si>
+    <t>TOP-BL-TRANS-CRM-g-9Y8WK23AL</t>
+  </si>
+  <si>
+    <t>TOP-BL-TRANS-CRM-m-MMKCMQL5I</t>
+  </si>
+  <si>
     <t>TOP-BL-TRANS-CRM-p-4C3N2SXL6</t>
   </si>
   <si>
-    <t>TOP-BL-TRANS-CRM-m-MMKCMQL5I</t>
-  </si>
-  <si>
-    <t>TOP-BL-TRANS-CRM-g-9Y8WK23AL</t>
+    <t>blusalistrasbrancajlh18-g-AJJT0PDK8</t>
+  </si>
+  <si>
+    <t>blusalistrasbrancajlh18-m-FVP0I6GAK</t>
   </si>
   <si>
     <t>blusalistrasbrancajlh18-p-EX4YJQSXR</t>
   </si>
   <si>
-    <t>blusalistrasbrancajlh18-m-FVP0I6GAK</t>
-  </si>
-  <si>
-    <t>blusalistrasbrancajlh18-g-AJJT0PDK8</t>
+    <t>FWA4UDCHX-p</t>
   </si>
   <si>
     <t>FWA4UDCHX-m</t>
@@ -5100,18 +5103,15 @@
     <t>FWA4UDCHX-g</t>
   </si>
   <si>
-    <t>FWA4UDCHX-p</t>
-  </si>
-  <si>
     <t>camisanopretav17-p-C22UAQ210</t>
   </si>
   <si>
+    <t>camisanopretav17-g-GQYIJEHDN</t>
+  </si>
+  <si>
     <t>camisanopretav17-m-7ATG3IWVZ</t>
   </si>
   <si>
-    <t>camisanopretav17-g-GQYIJEHDN</t>
-  </si>
-  <si>
     <t>blusalistrasverdejlh18-m</t>
   </si>
   <si>
@@ -5130,31 +5130,34 @@
     <t>vestidolistrasvermelho17-79TTOKM0F-p</t>
   </si>
   <si>
+    <t>vestidokimonopretofv18-m-NRHYYXWLM</t>
+  </si>
+  <si>
+    <t>vestidokimonopretofv18-p-GBGRKB63Z</t>
+  </si>
+  <si>
     <t>vestidokimonopretofv18-g-OX1ILWCTZ</t>
   </si>
   <si>
-    <t>vestidokimonopretofv18-m-NRHYYXWLM</t>
-  </si>
-  <si>
-    <t>vestidokimonopretofv18-p-GBGRKB63Z</t>
-  </si>
-  <si>
     <t>vestidobatacerejafv18-m-MA0Q0EFVP</t>
   </si>
   <si>
+    <t>vestidobatacerejafv18-p-CZUDXZO3A</t>
+  </si>
+  <si>
     <t>vestidobatacerejafv18-g-4TU6T7XEM</t>
   </si>
   <si>
-    <t>vestidobatacerejafv18-p-CZUDXZO3A</t>
-  </si>
-  <si>
     <t>macacaomalhatraspassefv18-g-3DT5ASTF3</t>
   </si>
   <si>
+    <t>macacaomalhatraspassefv18-p-GX7BEIGCD</t>
+  </si>
+  <si>
     <t>macacaomalhatraspassefv18-m-EZNKQDOL7</t>
   </si>
   <si>
-    <t>macacaomalhatraspassefv18-p-GX7BEIGCD</t>
+    <t>calcabailarinasuedbgjlh18-m</t>
   </si>
   <si>
     <t>calcabailarinasuedbgjlh18-g</t>
@@ -5163,7 +5166,7 @@
     <t>calcabailarinasuedbgjlh18-p</t>
   </si>
   <si>
-    <t>calcabailarinasuedbgjlh18-m</t>
+    <t>saiasuedjlh18-g</t>
   </si>
   <si>
     <t>saiasuedjlh18-m</t>
@@ -5172,9 +5175,6 @@
     <t>saiasuedjlh18-p</t>
   </si>
   <si>
-    <t>saiasuedjlh18-g</t>
-  </si>
-  <si>
     <t>calcabailarinasuedcafejlh18-p</t>
   </si>
   <si>
@@ -5190,13 +5190,16 @@
     <t>blusaamplacrepevrdjlh18-m</t>
   </si>
   <si>
+    <t>blusaamplacrepeazljlh18-g</t>
+  </si>
+  <si>
+    <t>blusaamplacrepeazljlh18-p</t>
+  </si>
+  <si>
     <t>blusaamplacrepeazljlh18-m</t>
   </si>
   <si>
-    <t>blusaamplacrepeazljlh18-g</t>
-  </si>
-  <si>
-    <t>blusaamplacrepeazljlh18-p</t>
+    <t>blusacrepeazuljlh18-m</t>
   </si>
   <si>
     <t>blusacrepeazuljlh18-p</t>
@@ -5205,120 +5208,117 @@
     <t>blusacrepeazuljlh18-g</t>
   </si>
   <si>
-    <t>blusacrepeazuljlh18-m</t>
+    <t>blusacrepeazulmarinhojlh18-p</t>
+  </si>
+  <si>
+    <t>blusacrepeazulmarinhojlh18-g</t>
   </si>
   <si>
     <t>blusacrepeazulmarinhojlh18-m</t>
   </si>
   <si>
-    <t>blusacrepeazulmarinhojlh18-g</t>
-  </si>
-  <si>
-    <t>blusacrepeazulmarinhojlh18-p</t>
+    <t>blusaverdelistrasjlh18-P</t>
   </si>
   <si>
     <t>blusaverdelistrasjlh18-M</t>
   </si>
   <si>
-    <t>blusaverdelistrasjlh18-P</t>
-  </si>
-  <si>
     <t>blusaverdelistrasjlh18-G</t>
   </si>
   <si>
+    <t>blusamalhaverdejlh18-m</t>
+  </si>
+  <si>
     <t>blusamalhaverdejlh18-g</t>
   </si>
   <si>
     <t>blusamalhaverdejlh18-p</t>
   </si>
   <si>
-    <t>blusamalhaverdejlh18-m</t>
-  </si>
-  <si>
     <t>blusamalharosajlh18-p</t>
   </si>
   <si>
+    <t>blusamalharosajlh18-m</t>
+  </si>
+  <si>
     <t>blusamalharosajlh18-g</t>
   </si>
   <si>
-    <t>blusamalharosajlh18-m</t>
+    <t>vestidoamarracaoprtjnh18-pp</t>
+  </si>
+  <si>
+    <t>PP</t>
   </si>
   <si>
     <t>vestidoamarracaoprtjnh18-m</t>
   </si>
   <si>
-    <t>vestidoamarracaoprtjnh18-pp</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
     <t>vestidoamarracaoprtjnh18-p</t>
   </si>
   <si>
+    <t>vestidoamarracaolbrtjnh18-m</t>
+  </si>
+  <si>
     <t>vestidoamarracaolbrtjnh18-p</t>
   </si>
   <si>
-    <t>vestidoamarracaolbrtjnh18-m</t>
-  </si>
-  <si>
     <t>camisasgoiabamrc18-m</t>
   </si>
   <si>
     <t>camisasgoiabamrc18-p</t>
   </si>
   <si>
+    <t>VE-RS-M-LIS-RT-46-2016-m</t>
+  </si>
+  <si>
+    <t>Mandys Pink</t>
+  </si>
+  <si>
     <t>VE-RS-G-LIS-RT-46-2016-g</t>
   </si>
   <si>
-    <t>Mandys Pink</t>
-  </si>
-  <si>
-    <t>VE-RS-M-LIS-RT-46-2016-m</t>
-  </si>
-  <si>
     <t>blusacreperosafv18-p</t>
   </si>
   <si>
     <t>blusacreperosafv18-m</t>
   </si>
   <si>
+    <t>vestidomood70smaio18-p</t>
+  </si>
+  <si>
     <t>vestidomood70smaio18-m</t>
   </si>
   <si>
-    <t>vestidomood70smaio18-p</t>
+    <t>calcapantacourtpretofv18-p</t>
+  </si>
+  <si>
+    <t>calcapantacourtpretofv18-m</t>
   </si>
   <si>
     <t>calcapantacourtpretofv18-g</t>
   </si>
   <si>
-    <t>calcapantacourtpretofv18-m</t>
-  </si>
-  <si>
-    <t>calcapantacourtpretofv18-p</t>
+    <t>vestidopoabotoesmrc18-m</t>
   </si>
   <si>
     <t>vestidopoabotoesmrc18-p</t>
   </si>
   <si>
-    <t>vestidopoabotoesmrc18-m</t>
-  </si>
-  <si>
     <t>blusacomfylistrasmrc18-p</t>
   </si>
   <si>
     <t>blusacomfylistrasmrc18-m</t>
   </si>
   <si>
+    <t>camisasclrosamrc18-m</t>
+  </si>
+  <si>
+    <t>camisasclrosamrc18-g</t>
+  </si>
+  <si>
     <t>camisasclrosamrc18-p</t>
   </si>
   <si>
-    <t>camisasclrosamrc18-m</t>
-  </si>
-  <si>
-    <t>camisasclrosamrc18-g</t>
-  </si>
-  <si>
     <t>camisasclasaazulmrc18-m</t>
   </si>
   <si>
@@ -5328,57 +5328,57 @@
     <t>camisasclbegemrc18-p</t>
   </si>
   <si>
+    <t>camisasclbegemrc18-g</t>
+  </si>
+  <si>
     <t>camisasclbegemrc18-m</t>
   </si>
   <si>
-    <t>camisasclbegemrc18-g</t>
+    <t>blusacomfypoamrc18-p</t>
   </si>
   <si>
     <t>blusacomfypoamrc18-m</t>
   </si>
   <si>
-    <t>blusacomfypoamrc18-p</t>
+    <t>blusaniponicafv18-p</t>
   </si>
   <si>
     <t>blusaniponicafv18-m</t>
   </si>
   <si>
-    <t>blusaniponicafv18-p</t>
-  </si>
-  <si>
     <t>blusaniponicafv18-g</t>
   </si>
   <si>
+    <t>blusapretabasicafv18-g</t>
+  </si>
+  <si>
+    <t>blusapretabasicafv18-p</t>
+  </si>
+  <si>
     <t>blusapretabasicafv18-m</t>
   </si>
   <si>
-    <t>blusapretabasicafv18-g</t>
-  </si>
-  <si>
-    <t>blusapretabasicafv18-p</t>
-  </si>
-  <si>
     <t>saiaenvelopeverdemusgofv18-m</t>
   </si>
   <si>
+    <t>saiaenvelopeverdemusgofv18-pp</t>
+  </si>
+  <si>
     <t>saiaenvelopeverdemusgofv18-g</t>
   </si>
   <si>
-    <t>saiaenvelopeverdemusgofv18-pp</t>
-  </si>
-  <si>
     <t>saiaenvelopeverdemusgofv18-p</t>
   </si>
   <si>
+    <t>blusacrepeuvafv18-g</t>
+  </si>
+  <si>
+    <t>blusacrepeuvafv18-p</t>
+  </si>
+  <si>
     <t>blusacrepeuvafv18-m</t>
   </si>
   <si>
-    <t>blusacrepeuvafv18-p</t>
-  </si>
-  <si>
-    <t>blusacrepeuvafv18-g</t>
-  </si>
-  <si>
     <t>vestidolastexciganinhafv18-p</t>
   </si>
   <si>
@@ -5388,97 +5388,97 @@
     <t>vestidolastexciganinhafv18-m</t>
   </si>
   <si>
+    <t>blusaniponicafloralfv18-p</t>
+  </si>
+  <si>
+    <t>blusaniponicafloralfv18-g</t>
+  </si>
+  <si>
     <t>blusaniponicafloralfv18-m</t>
   </si>
   <si>
-    <t>blusaniponicafloralfv18-p</t>
-  </si>
-  <si>
-    <t>blusaniponicafloralfv18-g</t>
+    <t>BOT-SH-LINH-JNS-p</t>
+  </si>
+  <si>
+    <t>Hit Gray</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-JNS-g</t>
+  </si>
+  <si>
+    <t>Regent Gray</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-JNS-m</t>
+  </si>
+  <si>
+    <t>Comet</t>
   </si>
   <si>
     <t>BOT-SH-LINH-JNS-gg</t>
   </si>
   <si>
-    <t>Regent Gray</t>
-  </si>
-  <si>
     <t>GG</t>
   </si>
   <si>
-    <t>BOT-SH-LINH-JNS-m</t>
-  </si>
-  <si>
-    <t>Comet</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-JNS-p</t>
-  </si>
-  <si>
-    <t>Hit Gray</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-JNS-g</t>
+    <t>vestidonocurtoxadrezfv18-g</t>
+  </si>
+  <si>
+    <t>vestidonocurtoxadrezfv18-p</t>
   </si>
   <si>
     <t>vestidonocurtoxadrezfv18-m</t>
   </si>
   <si>
-    <t>vestidonocurtoxadrezfv18-g</t>
-  </si>
-  <si>
-    <t>vestidonocurtoxadrezfv18-p</t>
+    <t>saiapantacourtferrugemfv18-m</t>
+  </si>
+  <si>
+    <t>saiapantacourtferrugemfv18-g</t>
   </si>
   <si>
     <t>saiapantacourtferrugemfv18-p</t>
   </si>
   <si>
-    <t>saiapantacourtferrugemfv18-m</t>
-  </si>
-  <si>
-    <t>saiapantacourtferrugemfv18-g</t>
-  </si>
-  <si>
     <t>vestidolongolistrasfv18-p</t>
   </si>
   <si>
     <t>vestidolongolistrasfv18-m</t>
   </si>
   <si>
+    <t>casacorosaquartzfv18-g</t>
+  </si>
+  <si>
+    <t>casacorosaquartzfv18-m</t>
+  </si>
+  <si>
     <t>casacorosaquartzfv18-p</t>
   </si>
   <si>
-    <t>casacorosaquartzfv18-g</t>
-  </si>
-  <si>
-    <t>casacorosaquartzfv18-m</t>
-  </si>
-  <si>
     <t>vestidobataestampadoverdefv18-g</t>
   </si>
   <si>
+    <t>vestidobataestampadoverdefv18-m</t>
+  </si>
+  <si>
     <t>vestidobataestampadoverdefv18-p</t>
   </si>
   <si>
-    <t>vestidobataestampadoverdefv18-m</t>
-  </si>
-  <si>
     <t>bodygolapretofv18-P</t>
   </si>
   <si>
+    <t>bodygolapretofv18-m</t>
+  </si>
+  <si>
     <t>bodygolapretofv18-g</t>
   </si>
   <si>
-    <t>bodygolapretofv18-m</t>
-  </si>
-  <si>
     <t>shortbotaoduplopretofv18-g</t>
   </si>
   <si>
+    <t>shortbotaoduplopretofv18-m</t>
+  </si>
+  <si>
     <t>shortbotaoduplopretofv18-p</t>
-  </si>
-  <si>
-    <t>shortbotaoduplopretofv18-m</t>
   </si>
   <si>
     <t>bataciganinhabrfv18-m</t>
@@ -16865,7 +16865,7 @@
     </row>
     <row r="213" spans="1:44">
       <c r="A213">
-        <v>30328058</v>
+        <v>30328057</v>
       </c>
       <c r="B213" t="s">
         <v>1225</v>
@@ -16889,7 +16889,7 @@
         <v>53</v>
       </c>
       <c r="Q213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R213" t="s">
         <v>57</v>
@@ -16912,7 +16912,7 @@
     </row>
     <row r="214" spans="1:44">
       <c r="A214">
-        <v>30328057</v>
+        <v>30328058</v>
       </c>
       <c r="B214" t="s">
         <v>1225</v>
@@ -16936,7 +16936,7 @@
         <v>53</v>
       </c>
       <c r="Q214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R214" t="s">
         <v>57</v>
@@ -17006,7 +17006,7 @@
     </row>
     <row r="216" spans="1:44">
       <c r="A216">
-        <v>30328038</v>
+        <v>30328037</v>
       </c>
       <c r="B216" t="s">
         <v>1225</v>
@@ -17048,12 +17048,12 @@
         <v>0.3</v>
       </c>
       <c r="AR216" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="217" spans="1:44">
       <c r="A217">
-        <v>30328035</v>
+        <v>30328038</v>
       </c>
       <c r="B217" t="s">
         <v>1225</v>
@@ -17077,7 +17077,7 @@
         <v>53</v>
       </c>
       <c r="Q217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R217" t="s">
         <v>57</v>
@@ -17095,12 +17095,12 @@
         <v>0.3</v>
       </c>
       <c r="AR217" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="218" spans="1:44">
       <c r="A218">
-        <v>30328037</v>
+        <v>30328035</v>
       </c>
       <c r="B218" t="s">
         <v>1225</v>
@@ -17124,7 +17124,7 @@
         <v>53</v>
       </c>
       <c r="Q218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R218" t="s">
         <v>57</v>
@@ -17147,7 +17147,7 @@
     </row>
     <row r="219" spans="1:44">
       <c r="A219">
-        <v>30328018</v>
+        <v>30328017</v>
       </c>
       <c r="B219" t="s">
         <v>1225</v>
@@ -17171,7 +17171,7 @@
         <v>53</v>
       </c>
       <c r="Q219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R219" t="s">
         <v>57</v>
@@ -17182,9 +17182,6 @@
       <c r="T219" t="s">
         <v>54</v>
       </c>
-      <c r="V219">
-        <v>69</v>
-      </c>
       <c r="Y219">
         <v>0.3</v>
       </c>
@@ -17194,7 +17191,7 @@
     </row>
     <row r="220" spans="1:44">
       <c r="A220">
-        <v>30328016</v>
+        <v>30328018</v>
       </c>
       <c r="B220" t="s">
         <v>1225</v>
@@ -17218,7 +17215,7 @@
         <v>53</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R220" t="s">
         <v>57</v>
@@ -17229,16 +17226,19 @@
       <c r="T220" t="s">
         <v>54</v>
       </c>
+      <c r="V220">
+        <v>69</v>
+      </c>
       <c r="Y220">
         <v>0.3</v>
       </c>
       <c r="AR220" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="221" spans="1:44">
       <c r="A221">
-        <v>30328017</v>
+        <v>30328016</v>
       </c>
       <c r="B221" t="s">
         <v>1225</v>
@@ -17277,12 +17277,12 @@
         <v>0.3</v>
       </c>
       <c r="AR221" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="222" spans="1:44">
       <c r="A222">
-        <v>30328003</v>
+        <v>30327998</v>
       </c>
       <c r="B222" t="s">
         <v>1225</v>
@@ -17306,7 +17306,7 @@
         <v>53</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R222" t="s">
         <v>57</v>
@@ -17317,16 +17317,19 @@
       <c r="T222" t="s">
         <v>54</v>
       </c>
+      <c r="V222">
+        <v>69</v>
+      </c>
       <c r="Y222">
         <v>0.3</v>
       </c>
       <c r="AR222" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="223" spans="1:44">
       <c r="A223">
-        <v>30327999</v>
+        <v>30328003</v>
       </c>
       <c r="B223" t="s">
         <v>1225</v>
@@ -17365,12 +17368,12 @@
         <v>0.3</v>
       </c>
       <c r="AR223" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="224" spans="1:44">
       <c r="A224">
-        <v>30327998</v>
+        <v>30327999</v>
       </c>
       <c r="B224" t="s">
         <v>1225</v>
@@ -17394,7 +17397,7 @@
         <v>53</v>
       </c>
       <c r="Q224">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R224" t="s">
         <v>57</v>
@@ -17405,9 +17408,6 @@
       <c r="T224" t="s">
         <v>54</v>
       </c>
-      <c r="V224">
-        <v>69</v>
-      </c>
       <c r="Y224">
         <v>0.3</v>
       </c>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="225" spans="1:44">
       <c r="A225">
-        <v>30327940</v>
+        <v>30327941</v>
       </c>
       <c r="B225" t="s">
         <v>1225</v>
@@ -17441,7 +17441,7 @@
         <v>53</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R225" t="s">
         <v>57</v>
@@ -17459,12 +17459,12 @@
         <v>0.3</v>
       </c>
       <c r="AR225" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="226" spans="1:44">
       <c r="A226">
-        <v>30327942</v>
+        <v>30327940</v>
       </c>
       <c r="B226" t="s">
         <v>1225</v>
@@ -17488,7 +17488,7 @@
         <v>53</v>
       </c>
       <c r="Q226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R226" t="s">
         <v>57</v>
@@ -17506,12 +17506,12 @@
         <v>0.3</v>
       </c>
       <c r="AR226" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="227" spans="1:44">
       <c r="A227">
-        <v>30327941</v>
+        <v>30327942</v>
       </c>
       <c r="B227" t="s">
         <v>1225</v>
@@ -17535,7 +17535,7 @@
         <v>53</v>
       </c>
       <c r="Q227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R227" t="s">
         <v>57</v>
@@ -17605,7 +17605,7 @@
     </row>
     <row r="229" spans="1:44">
       <c r="A229">
-        <v>30327926</v>
+        <v>30327921</v>
       </c>
       <c r="B229" t="s">
         <v>1225</v>
@@ -17629,7 +17629,7 @@
         <v>53</v>
       </c>
       <c r="Q229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R229" t="s">
         <v>57</v>
@@ -17652,7 +17652,7 @@
     </row>
     <row r="230" spans="1:44">
       <c r="A230">
-        <v>30327921</v>
+        <v>30327926</v>
       </c>
       <c r="B230" t="s">
         <v>1225</v>
@@ -17676,7 +17676,7 @@
         <v>53</v>
       </c>
       <c r="Q230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R230" t="s">
         <v>57</v>
@@ -17741,7 +17741,7 @@
         <v>0.3</v>
       </c>
       <c r="AR231" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="232" spans="1:44">
@@ -17835,7 +17835,7 @@
         <v>0.3</v>
       </c>
       <c r="AR233" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="234" spans="1:44">
@@ -17929,7 +17929,7 @@
         <v>0.3</v>
       </c>
       <c r="AR235" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="236" spans="1:44">
@@ -17976,7 +17976,7 @@
         <v>0.3</v>
       </c>
       <c r="AR236" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="237" spans="1:44">
@@ -18070,12 +18070,12 @@
         <v>0.3</v>
       </c>
       <c r="AR238" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="239" spans="1:44">
       <c r="A239">
-        <v>30327625</v>
+        <v>30327627</v>
       </c>
       <c r="B239" t="s">
         <v>1225</v>
@@ -18117,12 +18117,12 @@
         <v>0.3</v>
       </c>
       <c r="AR239" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="240" spans="1:44">
       <c r="A240">
-        <v>30327626</v>
+        <v>30327625</v>
       </c>
       <c r="B240" t="s">
         <v>1225</v>
@@ -18146,7 +18146,7 @@
         <v>53</v>
       </c>
       <c r="Q240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R240" t="s">
         <v>57</v>
@@ -18169,7 +18169,7 @@
     </row>
     <row r="241" spans="1:44">
       <c r="A241">
-        <v>30327627</v>
+        <v>30327626</v>
       </c>
       <c r="B241" t="s">
         <v>1225</v>
@@ -18193,7 +18193,7 @@
         <v>53</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R241" t="s">
         <v>57</v>
@@ -18211,12 +18211,12 @@
         <v>0.3</v>
       </c>
       <c r="AR241" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="242" spans="1:44">
       <c r="A242">
-        <v>30327568</v>
+        <v>30327570</v>
       </c>
       <c r="B242" t="s">
         <v>1225</v>
@@ -18240,7 +18240,7 @@
         <v>53</v>
       </c>
       <c r="Q242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R242" t="s">
         <v>57</v>
@@ -18258,12 +18258,12 @@
         <v>0.3</v>
       </c>
       <c r="AR242" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="243" spans="1:44">
       <c r="A243">
-        <v>30327569</v>
+        <v>30327568</v>
       </c>
       <c r="B243" t="s">
         <v>1225</v>
@@ -18305,12 +18305,12 @@
         <v>0.3</v>
       </c>
       <c r="AR243" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="244" spans="1:44">
       <c r="A244">
-        <v>30327570</v>
+        <v>30327569</v>
       </c>
       <c r="B244" t="s">
         <v>1225</v>
@@ -18334,7 +18334,7 @@
         <v>53</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R244" t="s">
         <v>57</v>
@@ -18357,7 +18357,7 @@
     </row>
     <row r="245" spans="1:44">
       <c r="A245">
-        <v>30327545</v>
+        <v>30327534</v>
       </c>
       <c r="B245" t="s">
         <v>1225</v>
@@ -18381,7 +18381,7 @@
         <v>53</v>
       </c>
       <c r="Q245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R245" t="s">
         <v>57</v>
@@ -18404,7 +18404,7 @@
     </row>
     <row r="246" spans="1:44">
       <c r="A246">
-        <v>30327534</v>
+        <v>30327547</v>
       </c>
       <c r="B246" t="s">
         <v>1225</v>
@@ -18446,12 +18446,12 @@
         <v>0.3</v>
       </c>
       <c r="AR246" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="247" spans="1:44">
       <c r="A247">
-        <v>30327547</v>
+        <v>30327545</v>
       </c>
       <c r="B247" t="s">
         <v>1225</v>
@@ -18475,7 +18475,7 @@
         <v>53</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R247" t="s">
         <v>57</v>
@@ -18493,7 +18493,7 @@
         <v>0.3</v>
       </c>
       <c r="AR247" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="248" spans="1:44">
@@ -18540,7 +18540,7 @@
         <v>0.3</v>
       </c>
       <c r="AR248" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="249" spans="1:44">
@@ -18587,7 +18587,7 @@
         <v>0.3</v>
       </c>
       <c r="AR249" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="250" spans="1:44">
@@ -18639,7 +18639,7 @@
     </row>
     <row r="251" spans="1:44">
       <c r="A251">
-        <v>30327391</v>
+        <v>30327390</v>
       </c>
       <c r="B251" t="s">
         <v>1225</v>
@@ -18663,7 +18663,7 @@
         <v>53</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251" t="s">
         <v>57</v>
@@ -18681,12 +18681,12 @@
         <v>0.3</v>
       </c>
       <c r="AR251" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="252" spans="1:44">
       <c r="A252">
-        <v>30327390</v>
+        <v>30327392</v>
       </c>
       <c r="B252" t="s">
         <v>1225</v>
@@ -18710,7 +18710,7 @@
         <v>53</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252" t="s">
         <v>57</v>
@@ -18728,12 +18728,12 @@
         <v>0.3</v>
       </c>
       <c r="AR252" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="253" spans="1:44">
       <c r="A253">
-        <v>30327392</v>
+        <v>30327391</v>
       </c>
       <c r="B253" t="s">
         <v>1225</v>
@@ -18780,7 +18780,7 @@
     </row>
     <row r="254" spans="1:44">
       <c r="A254">
-        <v>30327334</v>
+        <v>30327337</v>
       </c>
       <c r="B254" t="s">
         <v>1225</v>
@@ -18827,7 +18827,7 @@
     </row>
     <row r="255" spans="1:44">
       <c r="A255">
-        <v>30327346</v>
+        <v>30327334</v>
       </c>
       <c r="B255" t="s">
         <v>1225</v>
@@ -18851,7 +18851,7 @@
         <v>53</v>
       </c>
       <c r="Q255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R255" t="s">
         <v>57</v>
@@ -18869,12 +18869,12 @@
         <v>0.3</v>
       </c>
       <c r="AR255" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="256" spans="1:44">
       <c r="A256">
-        <v>30327337</v>
+        <v>30327346</v>
       </c>
       <c r="B256" t="s">
         <v>1225</v>
@@ -18898,7 +18898,7 @@
         <v>53</v>
       </c>
       <c r="Q256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R256" t="s">
         <v>57</v>
@@ -18916,12 +18916,12 @@
         <v>0.3</v>
       </c>
       <c r="AR256" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="257" spans="1:44">
       <c r="A257">
-        <v>30327248</v>
+        <v>30327273</v>
       </c>
       <c r="B257" t="s">
         <v>1225</v>
@@ -18945,7 +18945,7 @@
         <v>53</v>
       </c>
       <c r="Q257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R257" t="s">
         <v>57</v>
@@ -18968,7 +18968,7 @@
     </row>
     <row r="258" spans="1:44">
       <c r="A258">
-        <v>30327276</v>
+        <v>30327248</v>
       </c>
       <c r="B258" t="s">
         <v>1225</v>
@@ -19010,12 +19010,12 @@
         <v>0.3</v>
       </c>
       <c r="AR258" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="259" spans="1:44">
       <c r="A259">
-        <v>30327273</v>
+        <v>30327276</v>
       </c>
       <c r="B259" t="s">
         <v>1225</v>
@@ -19039,7 +19039,7 @@
         <v>53</v>
       </c>
       <c r="Q259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R259" t="s">
         <v>57</v>
@@ -19057,12 +19057,12 @@
         <v>0.3</v>
       </c>
       <c r="AR259" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="260" spans="1:44">
       <c r="A260">
-        <v>30327163</v>
+        <v>30327162</v>
       </c>
       <c r="B260" t="s">
         <v>1225</v>
@@ -19086,7 +19086,7 @@
         <v>53</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R260" t="s">
         <v>57</v>
@@ -19104,12 +19104,12 @@
         <v>0.3</v>
       </c>
       <c r="AR260" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="261" spans="1:44">
       <c r="A261">
-        <v>30327162</v>
+        <v>30327161</v>
       </c>
       <c r="B261" t="s">
         <v>1225</v>
@@ -19133,7 +19133,7 @@
         <v>53</v>
       </c>
       <c r="Q261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R261" t="s">
         <v>57</v>
@@ -19156,7 +19156,7 @@
     </row>
     <row r="262" spans="1:44">
       <c r="A262">
-        <v>30327161</v>
+        <v>30327163</v>
       </c>
       <c r="B262" t="s">
         <v>1225</v>
@@ -19198,12 +19198,12 @@
         <v>0.3</v>
       </c>
       <c r="AR262" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="263" spans="1:44">
       <c r="A263">
-        <v>30327136</v>
+        <v>30327137</v>
       </c>
       <c r="B263" t="s">
         <v>1225</v>
@@ -19227,7 +19227,7 @@
         <v>53</v>
       </c>
       <c r="Q263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R263" t="s">
         <v>57</v>
@@ -19250,7 +19250,7 @@
     </row>
     <row r="264" spans="1:44">
       <c r="A264">
-        <v>30327137</v>
+        <v>30327136</v>
       </c>
       <c r="B264" t="s">
         <v>1225</v>
@@ -19274,7 +19274,7 @@
         <v>53</v>
       </c>
       <c r="Q264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R264" t="s">
         <v>57</v>
@@ -19386,7 +19386,7 @@
         <v>0.3</v>
       </c>
       <c r="AR266" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="267" spans="1:44">
@@ -19433,7 +19433,7 @@
         <v>0.3</v>
       </c>
       <c r="AR267" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="268" spans="1:44">
@@ -19485,7 +19485,7 @@
     </row>
     <row r="269" spans="1:44">
       <c r="A269">
-        <v>30326628</v>
+        <v>30326626</v>
       </c>
       <c r="B269" t="s">
         <v>1225</v>
@@ -19509,7 +19509,7 @@
         <v>53</v>
       </c>
       <c r="Q269">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R269" t="s">
         <v>57</v>
@@ -19527,7 +19527,7 @@
         <v>0.3</v>
       </c>
       <c r="AR269" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="270" spans="1:44">
@@ -19574,12 +19574,12 @@
         <v>0.3</v>
       </c>
       <c r="AR270" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="271" spans="1:44">
       <c r="A271">
-        <v>30326626</v>
+        <v>30326628</v>
       </c>
       <c r="B271" t="s">
         <v>1225</v>
@@ -19603,7 +19603,7 @@
         <v>53</v>
       </c>
       <c r="Q271">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R271" t="s">
         <v>57</v>
@@ -19621,12 +19621,12 @@
         <v>0.3</v>
       </c>
       <c r="AR271" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="272" spans="1:44">
       <c r="A272">
-        <v>30326535</v>
+        <v>30326533</v>
       </c>
       <c r="B272" t="s">
         <v>1225</v>
@@ -19668,7 +19668,7 @@
         <v>0.3</v>
       </c>
       <c r="AR272" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="273" spans="1:44">
@@ -19715,12 +19715,12 @@
         <v>0.3</v>
       </c>
       <c r="AR273" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="274" spans="1:44">
       <c r="A274">
-        <v>30326533</v>
+        <v>30326535</v>
       </c>
       <c r="B274" t="s">
         <v>1225</v>
@@ -19762,12 +19762,12 @@
         <v>0.3</v>
       </c>
       <c r="AR274" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="275" spans="1:44">
       <c r="A275">
-        <v>30325570</v>
+        <v>30325571</v>
       </c>
       <c r="B275" t="s">
         <v>1225</v>
@@ -19791,7 +19791,7 @@
         <v>53</v>
       </c>
       <c r="Q275">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R275" t="s">
         <v>57</v>
@@ -19814,7 +19814,7 @@
     </row>
     <row r="276" spans="1:44">
       <c r="A276">
-        <v>30325569</v>
+        <v>30325570</v>
       </c>
       <c r="B276" t="s">
         <v>1225</v>
@@ -19838,7 +19838,7 @@
         <v>53</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R276" t="s">
         <v>57</v>
@@ -19856,12 +19856,12 @@
         <v>0.3</v>
       </c>
       <c r="AR276" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="277" spans="1:44">
       <c r="A277">
-        <v>30325571</v>
+        <v>30325569</v>
       </c>
       <c r="B277" t="s">
         <v>1225</v>
@@ -19903,7 +19903,7 @@
         <v>0.3</v>
       </c>
       <c r="AR277" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="278" spans="1:44">
@@ -19950,12 +19950,12 @@
         <v>0.3</v>
       </c>
       <c r="AR278" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="279" spans="1:44">
       <c r="A279">
-        <v>30233014</v>
+        <v>30233013</v>
       </c>
       <c r="B279" t="s">
         <v>1225</v>
@@ -19979,7 +19979,7 @@
         <v>53</v>
       </c>
       <c r="Q279">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R279" t="s">
         <v>57</v>
@@ -19997,12 +19997,12 @@
         <v>0.3</v>
       </c>
       <c r="AR279" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="280" spans="1:44">
       <c r="A280">
-        <v>30233013</v>
+        <v>30233014</v>
       </c>
       <c r="B280" t="s">
         <v>1225</v>
@@ -20026,7 +20026,7 @@
         <v>53</v>
       </c>
       <c r="Q280">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R280" t="s">
         <v>57</v>
@@ -20044,7 +20044,7 @@
         <v>0.3</v>
       </c>
       <c r="AR280" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="281" spans="1:44">
@@ -20091,7 +20091,7 @@
         <v>0.3</v>
       </c>
       <c r="AR281" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="282" spans="1:44">
@@ -20138,7 +20138,7 @@
         <v>0.3</v>
       </c>
       <c r="AR282" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="283" spans="1:44">
@@ -20276,7 +20276,7 @@
         <v>0.3</v>
       </c>
       <c r="AR285" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="286" spans="1:44">
@@ -20323,12 +20323,12 @@
         <v>0.3</v>
       </c>
       <c r="AR286" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="287" spans="1:44">
       <c r="A287">
-        <v>30228399</v>
+        <v>30228400</v>
       </c>
       <c r="B287" t="s">
         <v>1225</v>
@@ -20352,7 +20352,7 @@
         <v>53</v>
       </c>
       <c r="Q287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R287" t="s">
         <v>57</v>
@@ -20370,12 +20370,12 @@
         <v>0.3</v>
       </c>
       <c r="AR287" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="288" spans="1:44">
       <c r="A288">
-        <v>30228400</v>
+        <v>30228401</v>
       </c>
       <c r="B288" t="s">
         <v>1225</v>
@@ -20399,7 +20399,7 @@
         <v>53</v>
       </c>
       <c r="Q288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R288" t="s">
         <v>57</v>
@@ -20422,7 +20422,7 @@
     </row>
     <row r="289" spans="1:44">
       <c r="A289">
-        <v>30228401</v>
+        <v>30228399</v>
       </c>
       <c r="B289" t="s">
         <v>1225</v>
@@ -20464,7 +20464,7 @@
         <v>0.3</v>
       </c>
       <c r="AR289" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="290" spans="1:44">
@@ -20511,12 +20511,12 @@
         <v>0.3</v>
       </c>
       <c r="AR290" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="291" spans="1:44">
       <c r="A291">
-        <v>30228193</v>
+        <v>30228195</v>
       </c>
       <c r="B291" t="s">
         <v>1225</v>
@@ -20558,12 +20558,12 @@
         <v>0.3</v>
       </c>
       <c r="AR291" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="292" spans="1:44">
       <c r="A292">
-        <v>30228195</v>
+        <v>30228193</v>
       </c>
       <c r="B292" t="s">
         <v>1225</v>
@@ -20605,7 +20605,7 @@
         <v>0.3</v>
       </c>
       <c r="AR292" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="293" spans="1:44">
@@ -20657,7 +20657,7 @@
     </row>
     <row r="294" spans="1:44">
       <c r="A294">
-        <v>30227988</v>
+        <v>30227989</v>
       </c>
       <c r="B294" t="s">
         <v>1225</v>
@@ -20681,7 +20681,7 @@
         <v>53</v>
       </c>
       <c r="Q294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R294" t="s">
         <v>57</v>
@@ -20704,7 +20704,7 @@
     </row>
     <row r="295" spans="1:44">
       <c r="A295">
-        <v>30227989</v>
+        <v>30227988</v>
       </c>
       <c r="B295" t="s">
         <v>1225</v>
@@ -20728,7 +20728,7 @@
         <v>53</v>
       </c>
       <c r="Q295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R295" t="s">
         <v>57</v>
@@ -20751,7 +20751,7 @@
     </row>
     <row r="296" spans="1:44">
       <c r="A296">
-        <v>30227913</v>
+        <v>30227909</v>
       </c>
       <c r="B296" t="s">
         <v>1225</v>
@@ -20793,12 +20793,12 @@
         <v>0.3</v>
       </c>
       <c r="AR296" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="297" spans="1:44">
       <c r="A297">
-        <v>30227903</v>
+        <v>30227913</v>
       </c>
       <c r="B297" t="s">
         <v>1225</v>
@@ -20822,7 +20822,7 @@
         <v>53</v>
       </c>
       <c r="Q297">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R297" t="s">
         <v>57</v>
@@ -20840,12 +20840,12 @@
         <v>0.3</v>
       </c>
       <c r="AR297" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="298" spans="1:44">
       <c r="A298">
-        <v>30227909</v>
+        <v>30227903</v>
       </c>
       <c r="B298" t="s">
         <v>1225</v>
@@ -20869,7 +20869,7 @@
         <v>53</v>
       </c>
       <c r="Q298">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R298" t="s">
         <v>57</v>
@@ -20892,7 +20892,7 @@
     </row>
     <row r="299" spans="1:44">
       <c r="A299">
-        <v>30227860</v>
+        <v>30227865</v>
       </c>
       <c r="B299" t="s">
         <v>1225</v>
@@ -20916,7 +20916,7 @@
         <v>53</v>
       </c>
       <c r="Q299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R299" t="s">
         <v>57</v>
@@ -20930,16 +20930,13 @@
       <c r="V299">
         <v>129</v>
       </c>
-      <c r="Y299">
-        <v>0.3</v>
-      </c>
       <c r="AR299" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="300" spans="1:44">
       <c r="A300">
-        <v>30227857</v>
+        <v>30227860</v>
       </c>
       <c r="B300" t="s">
         <v>1225</v>
@@ -20963,7 +20960,7 @@
         <v>53</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R300" t="s">
         <v>57</v>
@@ -20986,7 +20983,7 @@
     </row>
     <row r="301" spans="1:44">
       <c r="A301">
-        <v>30227865</v>
+        <v>30227857</v>
       </c>
       <c r="B301" t="s">
         <v>1225</v>
@@ -21024,8 +21021,11 @@
       <c r="V301">
         <v>129</v>
       </c>
+      <c r="Y301">
+        <v>0.3</v>
+      </c>
       <c r="AR301" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="302" spans="1:44">
@@ -21072,7 +21072,7 @@
         <v>0.3</v>
       </c>
       <c r="AR302" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="303" spans="1:44">
@@ -21213,7 +21213,7 @@
         <v>0.3</v>
       </c>
       <c r="AR305" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="306" spans="1:44">
@@ -21260,12 +21260,12 @@
         <v>0.3</v>
       </c>
       <c r="AR306" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="307" spans="1:44">
       <c r="A307">
-        <v>30121337</v>
+        <v>30121376</v>
       </c>
       <c r="B307" t="s">
         <v>1225</v>
@@ -21307,12 +21307,12 @@
         <v>0.3</v>
       </c>
       <c r="AR307" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="308" spans="1:44">
       <c r="A308">
-        <v>30121376</v>
+        <v>30121285</v>
       </c>
       <c r="B308" t="s">
         <v>1225</v>
@@ -21354,12 +21354,12 @@
         <v>0.3</v>
       </c>
       <c r="AR308" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="309" spans="1:44">
       <c r="A309">
-        <v>30121285</v>
+        <v>30121337</v>
       </c>
       <c r="B309" t="s">
         <v>1225</v>
@@ -21406,7 +21406,7 @@
     </row>
     <row r="310" spans="1:44">
       <c r="A310">
-        <v>30120653</v>
+        <v>30120695</v>
       </c>
       <c r="B310" t="s">
         <v>1225</v>
@@ -21453,7 +21453,7 @@
     </row>
     <row r="311" spans="1:44">
       <c r="A311">
-        <v>30120743</v>
+        <v>30120653</v>
       </c>
       <c r="B311" t="s">
         <v>1225</v>
@@ -21495,12 +21495,12 @@
         <v>0.3</v>
       </c>
       <c r="AR311" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="312" spans="1:44">
       <c r="A312">
-        <v>30120695</v>
+        <v>30120743</v>
       </c>
       <c r="B312" t="s">
         <v>1225</v>
@@ -21542,12 +21542,12 @@
         <v>0.3</v>
       </c>
       <c r="AR312" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="313" spans="1:44">
       <c r="A313">
-        <v>30120325</v>
+        <v>30120297</v>
       </c>
       <c r="B313" t="s">
         <v>1225</v>
@@ -21571,7 +21571,7 @@
         <v>53</v>
       </c>
       <c r="Q313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R313" t="s">
         <v>57</v>
@@ -21641,7 +21641,7 @@
     </row>
     <row r="315" spans="1:44">
       <c r="A315">
-        <v>30120297</v>
+        <v>30120325</v>
       </c>
       <c r="B315" t="s">
         <v>1225</v>
@@ -21665,7 +21665,7 @@
         <v>53</v>
       </c>
       <c r="Q315">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R315" t="s">
         <v>57</v>
@@ -21688,7 +21688,7 @@
     </row>
     <row r="316" spans="1:44">
       <c r="A316">
-        <v>30118802</v>
+        <v>30118768</v>
       </c>
       <c r="B316" t="s">
         <v>1225</v>
@@ -21712,7 +21712,7 @@
         <v>53</v>
       </c>
       <c r="Q316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R316" t="s">
         <v>57</v>
@@ -21735,7 +21735,7 @@
     </row>
     <row r="317" spans="1:44">
       <c r="A317">
-        <v>30118768</v>
+        <v>30118802</v>
       </c>
       <c r="B317" t="s">
         <v>1225</v>
@@ -21759,7 +21759,7 @@
         <v>53</v>
       </c>
       <c r="Q317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R317" t="s">
         <v>57</v>
@@ -21829,7 +21829,7 @@
     </row>
     <row r="319" spans="1:44">
       <c r="A319">
-        <v>30118075</v>
+        <v>30118076</v>
       </c>
       <c r="B319" t="s">
         <v>1225</v>
@@ -21853,7 +21853,7 @@
         <v>53</v>
       </c>
       <c r="Q319">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R319" t="s">
         <v>57</v>
@@ -21871,12 +21871,12 @@
         <v>0.3</v>
       </c>
       <c r="AR319" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="320" spans="1:44">
       <c r="A320">
-        <v>30118077</v>
+        <v>30118075</v>
       </c>
       <c r="B320" t="s">
         <v>1225</v>
@@ -21918,12 +21918,12 @@
         <v>0.3</v>
       </c>
       <c r="AR320" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="321" spans="1:44">
       <c r="A321">
-        <v>30118076</v>
+        <v>30118077</v>
       </c>
       <c r="B321" t="s">
         <v>1225</v>
@@ -21947,7 +21947,7 @@
         <v>53</v>
       </c>
       <c r="Q321">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R321" t="s">
         <v>57</v>
@@ -22012,12 +22012,12 @@
         <v>0.3</v>
       </c>
       <c r="AR322" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="323" spans="1:44">
       <c r="A323">
-        <v>30117865</v>
+        <v>30117821</v>
       </c>
       <c r="B323" t="s">
         <v>1225</v>
@@ -22041,7 +22041,7 @@
         <v>53</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R323" t="s">
         <v>57</v>
@@ -22059,12 +22059,12 @@
         <v>0.3</v>
       </c>
       <c r="AR323" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="324" spans="1:44">
       <c r="A324">
-        <v>30117821</v>
+        <v>30117865</v>
       </c>
       <c r="B324" t="s">
         <v>1225</v>
@@ -22088,7 +22088,7 @@
         <v>53</v>
       </c>
       <c r="Q324">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R324" t="s">
         <v>57</v>
@@ -22106,12 +22106,12 @@
         <v>0.3</v>
       </c>
       <c r="AR324" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="325" spans="1:44">
       <c r="A325">
-        <v>29368619</v>
+        <v>29368706</v>
       </c>
       <c r="B325" t="s">
         <v>1225</v>
@@ -22135,7 +22135,7 @@
         <v>53</v>
       </c>
       <c r="Q325">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R325" t="s">
         <v>57</v>
@@ -22153,12 +22153,12 @@
         <v>0.3</v>
       </c>
       <c r="AR325" t="s">
-        <v>1227</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="326" spans="1:44">
       <c r="A326">
-        <v>29368706</v>
+        <v>29368619</v>
       </c>
       <c r="B326" t="s">
         <v>1225</v>
@@ -22167,7 +22167,7 @@
         <v>1006</v>
       </c>
       <c r="D326" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="E326" t="s">
         <v>53</v>
@@ -22182,7 +22182,7 @@
         <v>53</v>
       </c>
       <c r="Q326">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R326" t="s">
         <v>57</v>
@@ -22200,7 +22200,7 @@
         <v>0.3</v>
       </c>
       <c r="AR326" t="s">
-        <v>1344</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="327" spans="1:44">
@@ -22247,12 +22247,12 @@
         <v>0.3</v>
       </c>
       <c r="AR327" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="328" spans="1:44">
       <c r="A328">
-        <v>29367420</v>
+        <v>29367444</v>
       </c>
       <c r="B328" t="s">
         <v>1225</v>
@@ -22299,7 +22299,7 @@
     </row>
     <row r="329" spans="1:44">
       <c r="A329">
-        <v>29367444</v>
+        <v>29367420</v>
       </c>
       <c r="B329" t="s">
         <v>1225</v>
@@ -22388,7 +22388,7 @@
         <v>0.3</v>
       </c>
       <c r="AR330" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="331" spans="1:44">
@@ -22435,12 +22435,12 @@
         <v>0.3</v>
       </c>
       <c r="AR331" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="332" spans="1:44">
       <c r="A332">
-        <v>29364139</v>
+        <v>29364140</v>
       </c>
       <c r="B332" t="s">
         <v>1225</v>
@@ -22479,18 +22479,18 @@
         <v>195</v>
       </c>
       <c r="Y332">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AN332" t="s">
         <v>1351</v>
       </c>
       <c r="AR332" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="333" spans="1:44">
       <c r="A333">
-        <v>29364140</v>
+        <v>29364139</v>
       </c>
       <c r="B333" t="s">
         <v>1225</v>
@@ -22529,13 +22529,13 @@
         <v>195</v>
       </c>
       <c r="Y333">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AN333" t="s">
         <v>1351</v>
       </c>
       <c r="AR333" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="334" spans="1:44">
@@ -22582,7 +22582,7 @@
         <v>0.3</v>
       </c>
       <c r="AR334" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="335" spans="1:44">
@@ -22629,12 +22629,12 @@
         <v>0.3</v>
       </c>
       <c r="AR335" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="336" spans="1:44">
       <c r="A336">
-        <v>28108240</v>
+        <v>28108221</v>
       </c>
       <c r="B336" t="s">
         <v>1225</v>
@@ -22658,7 +22658,7 @@
         <v>53</v>
       </c>
       <c r="Q336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R336" t="s">
         <v>57</v>
@@ -22681,7 +22681,7 @@
     </row>
     <row r="337" spans="1:44">
       <c r="A337">
-        <v>28108221</v>
+        <v>28108240</v>
       </c>
       <c r="B337" t="s">
         <v>1225</v>
@@ -22705,7 +22705,7 @@
         <v>53</v>
       </c>
       <c r="Q337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R337" t="s">
         <v>57</v>
@@ -22728,7 +22728,7 @@
     </row>
     <row r="338" spans="1:44">
       <c r="A338">
-        <v>27512404</v>
+        <v>27512406</v>
       </c>
       <c r="B338" t="s">
         <v>1225</v>
@@ -22752,7 +22752,7 @@
         <v>53</v>
       </c>
       <c r="Q338">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R338" t="s">
         <v>57</v>
@@ -22770,7 +22770,7 @@
         <v>0.3</v>
       </c>
       <c r="AR338" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="339" spans="1:44">
@@ -22817,12 +22817,12 @@
         <v>0.3</v>
       </c>
       <c r="AR339" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="340" spans="1:44">
       <c r="A340">
-        <v>27512406</v>
+        <v>27512404</v>
       </c>
       <c r="B340" t="s">
         <v>1225</v>
@@ -22846,7 +22846,7 @@
         <v>53</v>
       </c>
       <c r="Q340">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R340" t="s">
         <v>57</v>
@@ -22864,12 +22864,12 @@
         <v>0.3</v>
       </c>
       <c r="AR340" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="341" spans="1:44">
       <c r="A341">
-        <v>27352347</v>
+        <v>27352359</v>
       </c>
       <c r="B341" t="s">
         <v>1225</v>
@@ -22893,7 +22893,7 @@
         <v>53</v>
       </c>
       <c r="Q341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R341" t="s">
         <v>57</v>
@@ -22916,7 +22916,7 @@
     </row>
     <row r="342" spans="1:44">
       <c r="A342">
-        <v>27352359</v>
+        <v>27352347</v>
       </c>
       <c r="B342" t="s">
         <v>1225</v>
@@ -22940,7 +22940,7 @@
         <v>53</v>
       </c>
       <c r="Q342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R342" t="s">
         <v>57</v>
@@ -23005,7 +23005,7 @@
         <v>0.3</v>
       </c>
       <c r="AR343" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="344" spans="1:44">
@@ -23052,12 +23052,12 @@
         <v>0.3</v>
       </c>
       <c r="AR344" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="345" spans="1:44">
       <c r="A345">
-        <v>26981176</v>
+        <v>26981204</v>
       </c>
       <c r="B345" t="s">
         <v>1225</v>
@@ -23081,7 +23081,7 @@
         <v>53</v>
       </c>
       <c r="Q345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R345" t="s">
         <v>57</v>
@@ -23104,7 +23104,7 @@
     </row>
     <row r="346" spans="1:44">
       <c r="A346">
-        <v>26981204</v>
+        <v>26981214</v>
       </c>
       <c r="B346" t="s">
         <v>1225</v>
@@ -23128,7 +23128,7 @@
         <v>53</v>
       </c>
       <c r="Q346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R346" t="s">
         <v>57</v>
@@ -23146,12 +23146,12 @@
         <v>0.3</v>
       </c>
       <c r="AR346" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="347" spans="1:44">
       <c r="A347">
-        <v>26981214</v>
+        <v>26981176</v>
       </c>
       <c r="B347" t="s">
         <v>1225</v>
@@ -23193,7 +23193,7 @@
         <v>0.3</v>
       </c>
       <c r="AR347" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="348" spans="1:44">
@@ -23240,7 +23240,7 @@
         <v>0.3</v>
       </c>
       <c r="AR348" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="349" spans="1:44">
@@ -23287,7 +23287,7 @@
         <v>0.3</v>
       </c>
       <c r="AR349" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="350" spans="1:44">
@@ -23334,12 +23334,12 @@
         <v>0.3</v>
       </c>
       <c r="AR350" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="351" spans="1:44">
       <c r="A351">
-        <v>26980973</v>
+        <v>26980985</v>
       </c>
       <c r="B351" t="s">
         <v>1225</v>
@@ -23363,7 +23363,7 @@
         <v>53</v>
       </c>
       <c r="Q351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R351" t="s">
         <v>57</v>
@@ -23381,12 +23381,12 @@
         <v>0.3</v>
       </c>
       <c r="AR351" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="352" spans="1:44">
       <c r="A352">
-        <v>26980985</v>
+        <v>26980973</v>
       </c>
       <c r="B352" t="s">
         <v>1225</v>
@@ -23410,7 +23410,7 @@
         <v>53</v>
       </c>
       <c r="Q352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R352" t="s">
         <v>57</v>
@@ -23428,12 +23428,12 @@
         <v>0.3</v>
       </c>
       <c r="AR352" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="353" spans="1:44">
       <c r="A353">
-        <v>26980223</v>
+        <v>26980194</v>
       </c>
       <c r="B353" t="s">
         <v>1225</v>
@@ -23457,7 +23457,7 @@
         <v>53</v>
       </c>
       <c r="Q353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R353" t="s">
         <v>57</v>
@@ -23480,7 +23480,7 @@
     </row>
     <row r="354" spans="1:44">
       <c r="A354">
-        <v>26980194</v>
+        <v>26980223</v>
       </c>
       <c r="B354" t="s">
         <v>1225</v>
@@ -23504,7 +23504,7 @@
         <v>53</v>
       </c>
       <c r="Q354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R354" t="s">
         <v>57</v>
@@ -23527,7 +23527,7 @@
     </row>
     <row r="355" spans="1:44">
       <c r="A355">
-        <v>26706309</v>
+        <v>26706310</v>
       </c>
       <c r="B355" t="s">
         <v>1225</v>
@@ -23551,7 +23551,7 @@
         <v>53</v>
       </c>
       <c r="Q355">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R355" t="s">
         <v>57</v>
@@ -23574,7 +23574,7 @@
     </row>
     <row r="356" spans="1:44">
       <c r="A356">
-        <v>26706310</v>
+        <v>26706309</v>
       </c>
       <c r="B356" t="s">
         <v>1225</v>
@@ -23598,7 +23598,7 @@
         <v>53</v>
       </c>
       <c r="Q356">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R356" t="s">
         <v>57</v>
@@ -23668,7 +23668,7 @@
     </row>
     <row r="358" spans="1:44">
       <c r="A358">
-        <v>26703087</v>
+        <v>26703112</v>
       </c>
       <c r="B358" t="s">
         <v>1225</v>
@@ -23692,7 +23692,7 @@
         <v>53</v>
       </c>
       <c r="Q358">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R358" t="s">
         <v>57</v>
@@ -23710,12 +23710,12 @@
         <v>0.3</v>
       </c>
       <c r="AR358" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="359" spans="1:44">
       <c r="A359">
-        <v>26703112</v>
+        <v>26703046</v>
       </c>
       <c r="B359" t="s">
         <v>1225</v>
@@ -23739,7 +23739,7 @@
         <v>53</v>
       </c>
       <c r="Q359">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R359" t="s">
         <v>57</v>
@@ -23757,12 +23757,12 @@
         <v>0.3</v>
       </c>
       <c r="AR359" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="360" spans="1:44">
       <c r="A360">
-        <v>26703046</v>
+        <v>26703087</v>
       </c>
       <c r="B360" t="s">
         <v>1225</v>
@@ -23851,12 +23851,12 @@
         <v>0.3</v>
       </c>
       <c r="AR361" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="362" spans="1:44">
       <c r="A362">
-        <v>26700272</v>
+        <v>26700149</v>
       </c>
       <c r="B362" t="s">
         <v>1225</v>
@@ -23880,7 +23880,7 @@
         <v>53</v>
       </c>
       <c r="Q362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R362" t="s">
         <v>57</v>
@@ -23898,12 +23898,12 @@
         <v>0.3</v>
       </c>
       <c r="AR362" t="s">
-        <v>1231</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="363" spans="1:44">
       <c r="A363">
-        <v>26700149</v>
+        <v>26700272</v>
       </c>
       <c r="B363" t="s">
         <v>1225</v>
@@ -23927,7 +23927,7 @@
         <v>53</v>
       </c>
       <c r="Q363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R363" t="s">
         <v>57</v>
@@ -23945,7 +23945,7 @@
         <v>0.3</v>
       </c>
       <c r="AR363" t="s">
-        <v>1344</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="364" spans="1:44">
@@ -23992,12 +23992,12 @@
         <v>0.3</v>
       </c>
       <c r="AR364" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="365" spans="1:44">
       <c r="A365">
-        <v>26669861</v>
+        <v>26669894</v>
       </c>
       <c r="B365" t="s">
         <v>1225</v>
@@ -24021,7 +24021,7 @@
         <v>53</v>
       </c>
       <c r="Q365">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R365" t="s">
         <v>57</v>
@@ -24039,7 +24039,7 @@
         <v>0.3</v>
       </c>
       <c r="AR365" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="366" spans="1:44">
@@ -24086,12 +24086,12 @@
         <v>0.3</v>
       </c>
       <c r="AR366" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="367" spans="1:44">
       <c r="A367">
-        <v>26669894</v>
+        <v>26669861</v>
       </c>
       <c r="B367" t="s">
         <v>1225</v>
@@ -24115,7 +24115,7 @@
         <v>53</v>
       </c>
       <c r="Q367">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R367" t="s">
         <v>57</v>
@@ -24133,7 +24133,7 @@
         <v>0.3</v>
       </c>
       <c r="AR367" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="368" spans="1:44">
@@ -24180,7 +24180,7 @@
         <v>0.3</v>
       </c>
       <c r="AR368" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="369" spans="1:44">
@@ -24274,12 +24274,12 @@
         <v>0.3</v>
       </c>
       <c r="AR370" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="371" spans="1:44">
       <c r="A371">
-        <v>26608781</v>
+        <v>26608741</v>
       </c>
       <c r="B371" t="s">
         <v>1225</v>
@@ -24303,7 +24303,7 @@
         <v>53</v>
       </c>
       <c r="Q371">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R371" t="s">
         <v>57</v>
@@ -24326,7 +24326,7 @@
     </row>
     <row r="372" spans="1:44">
       <c r="A372">
-        <v>26608741</v>
+        <v>26609104</v>
       </c>
       <c r="B372" t="s">
         <v>1225</v>
@@ -24350,7 +24350,7 @@
         <v>53</v>
       </c>
       <c r="Q372">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R372" t="s">
         <v>57</v>
@@ -24368,12 +24368,12 @@
         <v>0.3</v>
       </c>
       <c r="AR372" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="373" spans="1:44">
       <c r="A373">
-        <v>26609104</v>
+        <v>26608781</v>
       </c>
       <c r="B373" t="s">
         <v>1225</v>
@@ -24397,7 +24397,7 @@
         <v>53</v>
       </c>
       <c r="Q373">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R373" t="s">
         <v>57</v>
@@ -24415,12 +24415,12 @@
         <v>0.3</v>
       </c>
       <c r="AR373" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="374" spans="1:44">
       <c r="A374">
-        <v>29325403</v>
+        <v>26605139</v>
       </c>
       <c r="B374" t="s">
         <v>1225</v>
@@ -24444,7 +24444,7 @@
         <v>53</v>
       </c>
       <c r="Q374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R374" t="s">
         <v>57</v>
@@ -24465,12 +24465,12 @@
         <v>1394</v>
       </c>
       <c r="AR374" t="s">
-        <v>1395</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="375" spans="1:44">
       <c r="A375">
-        <v>26605140</v>
+        <v>26605440</v>
       </c>
       <c r="B375" t="s">
         <v>1225</v>
@@ -24479,7 +24479,7 @@
         <v>940</v>
       </c>
       <c r="D375" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E375" t="s">
         <v>53</v>
@@ -24494,7 +24494,7 @@
         <v>53</v>
       </c>
       <c r="Q375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R375" t="s">
         <v>57</v>
@@ -24512,15 +24512,15 @@
         <v>0.3</v>
       </c>
       <c r="AN375" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="AR375" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="376" spans="1:44">
       <c r="A376">
-        <v>26605139</v>
+        <v>26605140</v>
       </c>
       <c r="B376" t="s">
         <v>1225</v>
@@ -24529,7 +24529,7 @@
         <v>940</v>
       </c>
       <c r="D376" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E376" t="s">
         <v>53</v>
@@ -24562,7 +24562,7 @@
         <v>0.3</v>
       </c>
       <c r="AN376" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="AR376" t="s">
         <v>1229</v>
@@ -24570,7 +24570,7 @@
     </row>
     <row r="377" spans="1:44">
       <c r="A377">
-        <v>26605440</v>
+        <v>29325403</v>
       </c>
       <c r="B377" t="s">
         <v>1225</v>
@@ -24579,7 +24579,7 @@
         <v>940</v>
       </c>
       <c r="D377" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E377" t="s">
         <v>53</v>
@@ -24612,15 +24612,15 @@
         <v>0.3</v>
       </c>
       <c r="AN377" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="AR377" t="s">
-        <v>1231</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="378" spans="1:44">
       <c r="A378">
-        <v>26485363</v>
+        <v>26485362</v>
       </c>
       <c r="B378" t="s">
         <v>1225</v>
@@ -24662,12 +24662,12 @@
         <v>0.3</v>
       </c>
       <c r="AR378" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="379" spans="1:44">
       <c r="A379">
-        <v>26485362</v>
+        <v>26485365</v>
       </c>
       <c r="B379" t="s">
         <v>1225</v>
@@ -24691,7 +24691,7 @@
         <v>53</v>
       </c>
       <c r="Q379">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R379" t="s">
         <v>57</v>
@@ -24709,12 +24709,12 @@
         <v>0.3</v>
       </c>
       <c r="AR379" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="380" spans="1:44">
       <c r="A380">
-        <v>26485365</v>
+        <v>26485363</v>
       </c>
       <c r="B380" t="s">
         <v>1225</v>
@@ -24738,7 +24738,7 @@
         <v>53</v>
       </c>
       <c r="Q380">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R380" t="s">
         <v>57</v>
@@ -24761,7 +24761,7 @@
     </row>
     <row r="381" spans="1:44">
       <c r="A381">
-        <v>26484792</v>
+        <v>26484791</v>
       </c>
       <c r="B381" t="s">
         <v>1225</v>
@@ -24785,7 +24785,7 @@
         <v>53</v>
       </c>
       <c r="Q381">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R381" t="s">
         <v>57</v>
@@ -24808,7 +24808,7 @@
     </row>
     <row r="382" spans="1:44">
       <c r="A382">
-        <v>26484791</v>
+        <v>26484790</v>
       </c>
       <c r="B382" t="s">
         <v>1225</v>
@@ -24850,12 +24850,12 @@
         <v>0.3</v>
       </c>
       <c r="AR382" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="383" spans="1:44">
       <c r="A383">
-        <v>26484790</v>
+        <v>26484792</v>
       </c>
       <c r="B383" t="s">
         <v>1225</v>
@@ -24879,7 +24879,7 @@
         <v>53</v>
       </c>
       <c r="Q383">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R383" t="s">
         <v>57</v>
@@ -24897,7 +24897,7 @@
         <v>0.3</v>
       </c>
       <c r="AR383" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="384" spans="1:44">
@@ -24944,7 +24944,7 @@
         <v>0.3</v>
       </c>
       <c r="AR384" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="385" spans="1:44">
@@ -24991,12 +24991,12 @@
         <v>0.3</v>
       </c>
       <c r="AR385" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="386" spans="1:44">
       <c r="A386">
-        <v>26152617</v>
+        <v>26152715</v>
       </c>
       <c r="B386" t="s">
         <v>1225</v>
@@ -25038,12 +25038,12 @@
         <v>0.3</v>
       </c>
       <c r="AR386" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="387" spans="1:44">
       <c r="A387">
-        <v>26152715</v>
+        <v>26152712</v>
       </c>
       <c r="B387" t="s">
         <v>1225</v>
@@ -25067,7 +25067,7 @@
         <v>53</v>
       </c>
       <c r="Q387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R387" t="s">
         <v>57</v>
@@ -25085,12 +25085,12 @@
         <v>0.3</v>
       </c>
       <c r="AR387" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="388" spans="1:44">
       <c r="A388">
-        <v>26152712</v>
+        <v>26152617</v>
       </c>
       <c r="B388" t="s">
         <v>1225</v>
@@ -25114,7 +25114,7 @@
         <v>53</v>
       </c>
       <c r="Q388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R388" t="s">
         <v>57</v>
@@ -25184,7 +25184,7 @@
     </row>
     <row r="390" spans="1:44">
       <c r="A390">
-        <v>26147919</v>
+        <v>26147918</v>
       </c>
       <c r="B390" t="s">
         <v>1225</v>
@@ -25208,7 +25208,7 @@
         <v>53</v>
       </c>
       <c r="Q390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R390" t="s">
         <v>57</v>
@@ -25231,7 +25231,7 @@
     </row>
     <row r="391" spans="1:44">
       <c r="A391">
-        <v>26147918</v>
+        <v>26147919</v>
       </c>
       <c r="B391" t="s">
         <v>1225</v>
@@ -25255,7 +25255,7 @@
         <v>53</v>
       </c>
       <c r="Q391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R391" t="s">
         <v>57</v>
@@ -25320,12 +25320,12 @@
         <v>0.3</v>
       </c>
       <c r="AR392" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="393" spans="1:44">
       <c r="A393">
-        <v>26093352</v>
+        <v>26093326</v>
       </c>
       <c r="B393" t="s">
         <v>1225</v>
@@ -25367,12 +25367,12 @@
         <v>0.3</v>
       </c>
       <c r="AR393" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="394" spans="1:44">
       <c r="A394">
-        <v>26093326</v>
+        <v>26093352</v>
       </c>
       <c r="B394" t="s">
         <v>1225</v>
@@ -25414,7 +25414,7 @@
         <v>0.3</v>
       </c>
       <c r="AR394" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="395" spans="1:44">
@@ -25466,7 +25466,7 @@
     </row>
     <row r="396" spans="1:44">
       <c r="A396">
-        <v>26091473</v>
+        <v>26091485</v>
       </c>
       <c r="B396" t="s">
         <v>1225</v>
@@ -25490,7 +25490,7 @@
         <v>53</v>
       </c>
       <c r="Q396">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R396" t="s">
         <v>57</v>
@@ -25513,7 +25513,7 @@
     </row>
     <row r="397" spans="1:44">
       <c r="A397">
-        <v>26091485</v>
+        <v>26091473</v>
       </c>
       <c r="B397" t="s">
         <v>1225</v>
@@ -25537,7 +25537,7 @@
         <v>53</v>
       </c>
       <c r="Q397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R397" t="s">
         <v>57</v>
@@ -25602,7 +25602,7 @@
         <v>0.3</v>
       </c>
       <c r="AR398" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="399" spans="1:44">
@@ -25649,7 +25649,7 @@
         <v>0.3</v>
       </c>
       <c r="AR399" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="400" spans="1:44">
@@ -25743,7 +25743,7 @@
         <v>0.3</v>
       </c>
       <c r="AR401" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="402" spans="1:44">
@@ -25837,7 +25837,7 @@
         <v>0.3</v>
       </c>
       <c r="AR403" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="404" spans="1:44">
@@ -25931,7 +25931,7 @@
         <v>0.3</v>
       </c>
       <c r="AR405" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="406" spans="1:44">
@@ -25978,7 +25978,7 @@
         <v>0.3</v>
       </c>
       <c r="AR406" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="407" spans="1:44">
@@ -26025,7 +26025,7 @@
         <v>0.3</v>
       </c>
       <c r="AR407" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="408" spans="1:44">
@@ -26119,7 +26119,7 @@
         <v>0.3</v>
       </c>
       <c r="AR409" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="410" spans="1:44">
@@ -26166,7 +26166,7 @@
         <v>0.3</v>
       </c>
       <c r="AR410" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="411" spans="1:44">
@@ -26213,7 +26213,7 @@
         <v>0.3</v>
       </c>
       <c r="AR411" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="412" spans="1:44">
@@ -26307,7 +26307,7 @@
         <v>0.3</v>
       </c>
       <c r="AR413" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="414" spans="1:44">
@@ -26354,7 +26354,7 @@
         <v>0.3</v>
       </c>
       <c r="AR414" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="415" spans="1:44">
@@ -26495,7 +26495,7 @@
         <v>0.3</v>
       </c>
       <c r="AR417" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="418" spans="1:44">
@@ -26542,7 +26542,7 @@
         <v>0.3</v>
       </c>
       <c r="AR418" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="419" spans="1:44">
@@ -26589,7 +26589,7 @@
         <v>0.3</v>
       </c>
       <c r="AR419" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="420" spans="1:44">
@@ -26683,7 +26683,7 @@
         <v>0.3</v>
       </c>
       <c r="AR421" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="422" spans="1:44">
@@ -26777,7 +26777,7 @@
         <v>0.3</v>
       </c>
       <c r="AR423" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="424" spans="1:44">
@@ -26824,7 +26824,7 @@
         <v>0.3</v>
       </c>
       <c r="AR424" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="425" spans="1:44">
@@ -26871,7 +26871,7 @@
         <v>0.3</v>
       </c>
       <c r="AR425" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="426" spans="1:44">
@@ -26965,7 +26965,7 @@
         <v>0.3</v>
       </c>
       <c r="AR427" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="428" spans="1:44">
@@ -27012,7 +27012,7 @@
         <v>0.3</v>
       </c>
       <c r="AR428" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="429" spans="1:44">
@@ -27056,7 +27056,7 @@
         <v>149</v>
       </c>
       <c r="AR429" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="430" spans="1:44">
@@ -27103,7 +27103,7 @@
         <v>0.3</v>
       </c>
       <c r="AR430" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="431" spans="1:44">
@@ -27197,7 +27197,7 @@
         <v>0.3</v>
       </c>
       <c r="AR432" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="433" spans="1:44">
@@ -27291,7 +27291,7 @@
         <v>0.3</v>
       </c>
       <c r="AR434" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="435" spans="1:44">
@@ -27338,7 +27338,7 @@
         <v>0.3</v>
       </c>
       <c r="AR435" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="436" spans="1:44">
@@ -27385,7 +27385,7 @@
         <v>0.3</v>
       </c>
       <c r="AR436" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="437" spans="1:44">
@@ -27526,7 +27526,7 @@
         <v>0.3</v>
       </c>
       <c r="AR439" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="440" spans="1:44">
@@ -27573,7 +27573,7 @@
         <v>0.3</v>
       </c>
       <c r="AR440" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="441" spans="1:44">
@@ -27667,7 +27667,7 @@
         <v>0.3</v>
       </c>
       <c r="AR442" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="443" spans="1:44">
@@ -27714,7 +27714,7 @@
         <v>0.3</v>
       </c>
       <c r="AR443" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="444" spans="1:44">
@@ -27761,7 +27761,7 @@
         <v>0.3</v>
       </c>
       <c r="AR444" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="445" spans="1:44">
@@ -27808,7 +27808,7 @@
         <v>0.3</v>
       </c>
       <c r="AR445" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="446" spans="1:44">
@@ -27949,7 +27949,7 @@
         <v>0.3</v>
       </c>
       <c r="AR448" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="449" spans="1:44">
@@ -27996,7 +27996,7 @@
         <v>0.3</v>
       </c>
       <c r="AR449" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="450" spans="1:44">
@@ -28043,7 +28043,7 @@
         <v>0.3</v>
       </c>
       <c r="AR450" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="451" spans="1:44">
@@ -28090,7 +28090,7 @@
         <v>0.3</v>
       </c>
       <c r="AR451" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="452" spans="1:44">
@@ -28184,7 +28184,7 @@
         <v>0.3</v>
       </c>
       <c r="AR453" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="454" spans="1:44">
@@ -28231,7 +28231,7 @@
         <v>0.3</v>
       </c>
       <c r="AR454" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="455" spans="1:44">
@@ -28372,7 +28372,7 @@
         <v>0.3</v>
       </c>
       <c r="AR457" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="458" spans="1:44">
@@ -28419,7 +28419,7 @@
         <v>0.3</v>
       </c>
       <c r="AR458" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="459" spans="1:44">
@@ -28466,7 +28466,7 @@
         <v>0.3</v>
       </c>
       <c r="AR459" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="460" spans="1:44">
@@ -28560,7 +28560,7 @@
         <v>0.3</v>
       </c>
       <c r="AR461" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="462" spans="1:44">
@@ -28607,7 +28607,7 @@
         <v>0.3</v>
       </c>
       <c r="AR462" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="463" spans="1:44">
@@ -28701,7 +28701,7 @@
         <v>0.3</v>
       </c>
       <c r="AR464" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="465" spans="1:44">
@@ -28795,7 +28795,7 @@
         <v>0.3</v>
       </c>
       <c r="AR466" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="467" spans="1:44">
@@ -28842,7 +28842,7 @@
         <v>0.3</v>
       </c>
       <c r="AR467" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="468" spans="1:44">
@@ -28889,7 +28889,7 @@
         <v>0.3</v>
       </c>
       <c r="AR468" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="469" spans="1:44">
@@ -28983,7 +28983,7 @@
         <v>0.3</v>
       </c>
       <c r="AR470" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="471" spans="1:44">
@@ -29030,7 +29030,7 @@
         <v>0.3</v>
       </c>
       <c r="AR471" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="472" spans="1:44">
@@ -29124,7 +29124,7 @@
         <v>0.3</v>
       </c>
       <c r="AR473" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="474" spans="1:44">
@@ -29171,7 +29171,7 @@
         <v>0.3</v>
       </c>
       <c r="AR474" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="475" spans="1:44">
@@ -29218,7 +29218,7 @@
         <v>0.3</v>
       </c>
       <c r="AR475" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="476" spans="1:44">
@@ -29312,7 +29312,7 @@
         <v>0.3</v>
       </c>
       <c r="AR477" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="478" spans="1:44">
@@ -29406,7 +29406,7 @@
         <v>0.3</v>
       </c>
       <c r="AR479" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="480" spans="1:44">
@@ -29453,7 +29453,7 @@
         <v>0.3</v>
       </c>
       <c r="AR480" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="481" spans="1:44">
@@ -29547,7 +29547,7 @@
         <v>0.3</v>
       </c>
       <c r="AR482" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="483" spans="1:44">
@@ -29594,7 +29594,7 @@
         <v>0.3</v>
       </c>
       <c r="AR483" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="484" spans="1:44">
@@ -29641,7 +29641,7 @@
         <v>0.3</v>
       </c>
       <c r="AR484" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="485" spans="1:44">
@@ -29735,7 +29735,7 @@
         <v>0.3</v>
       </c>
       <c r="AR486" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="487" spans="1:44">
@@ -29829,7 +29829,7 @@
         <v>0.3</v>
       </c>
       <c r="AR488" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="489" spans="1:44">
@@ -29876,7 +29876,7 @@
         <v>0.3</v>
       </c>
       <c r="AR489" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="490" spans="1:44">
@@ -29970,7 +29970,7 @@
         <v>0.3</v>
       </c>
       <c r="AR491" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="492" spans="1:44">
@@ -30017,7 +30017,7 @@
         <v>0.3</v>
       </c>
       <c r="AR492" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="493" spans="1:44">
@@ -30111,7 +30111,7 @@
         <v>0.3</v>
       </c>
       <c r="AR494" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="495" spans="1:44">
@@ -30158,7 +30158,7 @@
         <v>0.3</v>
       </c>
       <c r="AR495" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="496" spans="1:44">
@@ -30252,7 +30252,7 @@
         <v>0.3</v>
       </c>
       <c r="AR497" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="498" spans="1:44">
@@ -30299,7 +30299,7 @@
         <v>0.3</v>
       </c>
       <c r="AR498" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="499" spans="1:44">
@@ -30346,7 +30346,7 @@
         <v>0.3</v>
       </c>
       <c r="AR499" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="500" spans="1:44">
@@ -30440,7 +30440,7 @@
         <v>0.3</v>
       </c>
       <c r="AR501" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="502" spans="1:44">
@@ -30540,7 +30540,7 @@
         <v>0.3</v>
       </c>
       <c r="AR503" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="504" spans="1:44">
@@ -30590,7 +30590,7 @@
         <v>0.3</v>
       </c>
       <c r="AR504" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="505" spans="1:44">
@@ -30684,7 +30684,7 @@
         <v>0.3</v>
       </c>
       <c r="AR506" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="507" spans="1:44">
@@ -30731,7 +30731,7 @@
         <v>0.3</v>
       </c>
       <c r="AR507" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="508" spans="1:44">
@@ -30778,7 +30778,7 @@
         <v>0.3</v>
       </c>
       <c r="AR508" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="509" spans="1:44">
@@ -30872,7 +30872,7 @@
         <v>0.3</v>
       </c>
       <c r="AR510" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="511" spans="1:44">
@@ -30919,7 +30919,7 @@
         <v>0.3</v>
       </c>
       <c r="AR511" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="512" spans="1:44">
@@ -30966,7 +30966,7 @@
         <v>0.3</v>
       </c>
       <c r="AR512" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="513" spans="1:44">
@@ -31060,7 +31060,7 @@
         <v>0.3</v>
       </c>
       <c r="AR514" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="515" spans="1:44">
@@ -31107,7 +31107,7 @@
         <v>0.3</v>
       </c>
       <c r="AR515" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="516" spans="1:44">
@@ -31154,7 +31154,7 @@
         <v>0.3</v>
       </c>
       <c r="AR516" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="517" spans="1:44">
@@ -31201,7 +31201,7 @@
         <v>0.3</v>
       </c>
       <c r="AR517" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="518" spans="1:44">
@@ -31295,7 +31295,7 @@
         <v>0.003</v>
       </c>
       <c r="AR519" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="520" spans="1:44">
@@ -31389,7 +31389,7 @@
         <v>0.003</v>
       </c>
       <c r="AR521" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="522" spans="1:44">
@@ -31436,7 +31436,7 @@
         <v>0.003</v>
       </c>
       <c r="AR522" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="523" spans="1:44">
@@ -31483,7 +31483,7 @@
         <v>0.003</v>
       </c>
       <c r="AR523" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="524" spans="1:44">
@@ -31577,7 +31577,7 @@
         <v>0.3</v>
       </c>
       <c r="AR525" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="526" spans="1:44">
@@ -31624,7 +31624,7 @@
         <v>0.3</v>
       </c>
       <c r="AR526" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="527" spans="1:44">
@@ -31671,7 +31671,7 @@
         <v>0.003</v>
       </c>
       <c r="AR527" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="528" spans="1:44">
@@ -31818,7 +31818,7 @@
         <v>0.3</v>
       </c>
       <c r="AR530" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="531" spans="1:44">
@@ -31868,7 +31868,7 @@
         <v>0.3</v>
       </c>
       <c r="AR531" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="532" spans="1:44">
@@ -31915,7 +31915,7 @@
         <v>0.003</v>
       </c>
       <c r="AR532" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="533" spans="1:44">
@@ -32009,7 +32009,7 @@
         <v>0.003</v>
       </c>
       <c r="AR534" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="535" spans="1:44">
@@ -32056,7 +32056,7 @@
         <v>0.3</v>
       </c>
       <c r="AR535" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="536" spans="1:44">
@@ -32150,7 +32150,7 @@
         <v>0.3</v>
       </c>
       <c r="AR537" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="538" spans="1:44">
@@ -32197,7 +32197,7 @@
         <v>0.3</v>
       </c>
       <c r="AR538" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="539" spans="1:44">
@@ -32244,7 +32244,7 @@
         <v>0.3</v>
       </c>
       <c r="AR539" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="540" spans="1:44">
@@ -32291,7 +32291,7 @@
         <v>0.3</v>
       </c>
       <c r="AR540" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="541" spans="1:44">
@@ -32385,7 +32385,7 @@
         <v>0.003</v>
       </c>
       <c r="AR542" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="543" spans="1:44">
@@ -32479,7 +32479,7 @@
         <v>0.003</v>
       </c>
       <c r="AR544" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="545" spans="1:44">
@@ -32526,7 +32526,7 @@
         <v>0.003</v>
       </c>
       <c r="AR545" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="546" spans="1:44">
@@ -32573,7 +32573,7 @@
         <v>0.003</v>
       </c>
       <c r="AR546" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="547" spans="1:44">
@@ -32667,7 +32667,7 @@
         <v>0.3</v>
       </c>
       <c r="AR548" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="549" spans="1:44">
@@ -32714,7 +32714,7 @@
         <v>0.3</v>
       </c>
       <c r="AR549" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="550" spans="1:44">
@@ -32855,7 +32855,7 @@
         <v>0.002</v>
       </c>
       <c r="AR552" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="553" spans="1:44">
@@ -32902,7 +32902,7 @@
         <v>0.3</v>
       </c>
       <c r="AR553" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="554" spans="1:44">
@@ -32949,7 +32949,7 @@
         <v>0.003</v>
       </c>
       <c r="AR554" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="555" spans="1:44">
@@ -33043,7 +33043,7 @@
         <v>0.003</v>
       </c>
       <c r="AR556" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="557" spans="1:44">
@@ -33090,7 +33090,7 @@
         <v>0.005</v>
       </c>
       <c r="AR557" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="558" spans="1:44">
@@ -33137,7 +33137,7 @@
         <v>0.005</v>
       </c>
       <c r="AR558" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="559" spans="1:44">
@@ -33278,7 +33278,7 @@
         <v>0.003</v>
       </c>
       <c r="AR561" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="562" spans="1:49">
@@ -33325,7 +33325,7 @@
         <v>0.003</v>
       </c>
       <c r="AR562" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="563" spans="1:49">
@@ -33372,7 +33372,7 @@
         <v>0.003</v>
       </c>
       <c r="AR563" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="564" spans="1:49">
@@ -33419,7 +33419,7 @@
         <v>0.003</v>
       </c>
       <c r="AR564" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="565" spans="1:49">
@@ -33513,7 +33513,7 @@
         <v>0.003</v>
       </c>
       <c r="AR566" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="567" spans="1:49">
@@ -33607,7 +33607,7 @@
         <v>0.003</v>
       </c>
       <c r="AR568" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="569" spans="1:49">
@@ -33654,7 +33654,7 @@
         <v>0.003</v>
       </c>
       <c r="AR569" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="570" spans="1:49">
@@ -33701,7 +33701,7 @@
         <v>0.003</v>
       </c>
       <c r="AR570" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="571" spans="1:49">
@@ -33751,7 +33751,7 @@
         <v>0.3</v>
       </c>
       <c r="AR571" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="572" spans="1:49">
@@ -33801,7 +33801,7 @@
         <v>0.3</v>
       </c>
       <c r="AR572" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="573" spans="1:49">
@@ -33898,7 +33898,7 @@
         <v>0.003</v>
       </c>
       <c r="AR574" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="575" spans="1:49">
@@ -33945,7 +33945,7 @@
         <v>0.003</v>
       </c>
       <c r="AR575" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="576" spans="1:49">
@@ -34039,7 +34039,7 @@
         <v>0.005</v>
       </c>
       <c r="AW577" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="578" spans="1:49">
@@ -34086,7 +34086,7 @@
         <v>0.005</v>
       </c>
       <c r="AW578" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="579" spans="1:49">
@@ -34174,7 +34174,7 @@
         <v>189</v>
       </c>
       <c r="AR580" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="581" spans="1:49">
@@ -34230,7 +34230,7 @@
         <v>10</v>
       </c>
       <c r="AR581" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="582" spans="1:49">
@@ -34274,7 +34274,7 @@
         <v>79</v>
       </c>
       <c r="AR582" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="583" spans="1:49">
@@ -34321,7 +34321,7 @@
         <v>99</v>
       </c>
       <c r="AR583" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="584" spans="1:49">
@@ -34365,7 +34365,7 @@
         <v>109</v>
       </c>
       <c r="AR584" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="585" spans="1:49">
@@ -34453,7 +34453,7 @@
         <v>109</v>
       </c>
       <c r="AR586" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="587" spans="1:49">
@@ -34541,7 +34541,7 @@
         <v>89</v>
       </c>
       <c r="AR588" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="589" spans="1:49">
@@ -34585,7 +34585,7 @@
         <v>249</v>
       </c>
       <c r="AR589" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="590" spans="1:49">
@@ -34629,7 +34629,7 @@
         <v>229</v>
       </c>
       <c r="AR590" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="591" spans="1:49">
@@ -34676,7 +34676,7 @@
         <v>0.3</v>
       </c>
       <c r="AR591" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="592" spans="1:49">
@@ -34776,7 +34776,7 @@
         <v>0.5</v>
       </c>
       <c r="AR593" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="594" spans="1:44">
@@ -34826,7 +34826,7 @@
         <v>0.3</v>
       </c>
       <c r="AR594" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="595" spans="1:44">
@@ -34873,7 +34873,7 @@
         <v>0.5</v>
       </c>
       <c r="AR595" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="596" spans="1:44">
@@ -34920,7 +34920,7 @@
         <v>0.5</v>
       </c>
       <c r="AR596" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="597" spans="1:44">
@@ -34973,7 +34973,7 @@
         <v>0</v>
       </c>
       <c r="AR597" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="598" spans="1:44">
@@ -35079,7 +35079,7 @@
         <v>0</v>
       </c>
       <c r="AR599" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="600" spans="1:44">
@@ -35132,7 +35132,7 @@
         <v>0</v>
       </c>
       <c r="AR600" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="601" spans="1:44">
@@ -35185,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="AR601" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="602" spans="1:44">
@@ -35285,7 +35285,7 @@
         <v>0.3</v>
       </c>
       <c r="AR603" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="604" spans="1:44">
@@ -35379,7 +35379,7 @@
         <v>0.3</v>
       </c>
       <c r="AR605" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="606" spans="1:44">
@@ -35426,7 +35426,7 @@
         <v>0.3</v>
       </c>
       <c r="AR606" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="607" spans="1:44">
@@ -35520,7 +35520,7 @@
         <v>0.3</v>
       </c>
       <c r="AR608" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="609" spans="1:44">
@@ -35620,7 +35620,7 @@
         <v>0.3</v>
       </c>
       <c r="AR610" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="611" spans="1:44">
@@ -35670,7 +35670,7 @@
         <v>0.3</v>
       </c>
       <c r="AR611" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="612" spans="1:44">
@@ -35770,7 +35770,7 @@
         <v>0.3</v>
       </c>
       <c r="AR613" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="614" spans="1:44">
@@ -35820,7 +35820,7 @@
         <v>0.3</v>
       </c>
       <c r="AR614" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="615" spans="1:44">
@@ -35870,7 +35870,7 @@
         <v>0.3</v>
       </c>
       <c r="AR615" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="616" spans="1:44">
@@ -35970,7 +35970,7 @@
         <v>0.3</v>
       </c>
       <c r="AR617" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="618" spans="1:44">
@@ -36070,7 +36070,7 @@
         <v>0.3</v>
       </c>
       <c r="AR619" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="620" spans="1:44">
@@ -36120,7 +36120,7 @@
         <v>0.3</v>
       </c>
       <c r="AR620" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="621" spans="1:44">
@@ -36170,7 +36170,7 @@
         <v>0.3</v>
       </c>
       <c r="AR621" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="622" spans="1:44">
@@ -36270,7 +36270,7 @@
         <v>0.3</v>
       </c>
       <c r="AR623" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="624" spans="1:44">
@@ -36320,7 +36320,7 @@
         <v>0.3</v>
       </c>
       <c r="AR624" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="625" spans="1:44">
@@ -36420,7 +36420,7 @@
         <v>0.3</v>
       </c>
       <c r="AR626" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="627" spans="1:44">
@@ -36467,7 +36467,7 @@
         <v>0.3</v>
       </c>
       <c r="AR627" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="628" spans="1:44">
@@ -36514,7 +36514,7 @@
         <v>0.3</v>
       </c>
       <c r="AR628" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="629" spans="1:44">
@@ -36655,7 +36655,7 @@
         <v>0.3</v>
       </c>
       <c r="AR631" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="632" spans="1:44">
@@ -36702,7 +36702,7 @@
         <v>0.3</v>
       </c>
       <c r="AR632" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="633" spans="1:44">
@@ -36790,7 +36790,7 @@
         <v>59</v>
       </c>
       <c r="AR634" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="635" spans="1:44">
@@ -36834,7 +36834,7 @@
         <v>59</v>
       </c>
       <c r="AR635" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="636" spans="1:44">
@@ -36881,7 +36881,7 @@
         <v>289</v>
       </c>
       <c r="AR636" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="637" spans="1:44">
@@ -36975,7 +36975,7 @@
         <v>289</v>
       </c>
       <c r="AR638" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="639" spans="1:44">
@@ -37022,7 +37022,7 @@
         <v>289</v>
       </c>
       <c r="AR639" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="640" spans="1:44">
@@ -37116,7 +37116,7 @@
         <v>289</v>
       </c>
       <c r="AR641" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="642" spans="1:44">
@@ -37160,7 +37160,7 @@
         <v>169</v>
       </c>
       <c r="AR642" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="643" spans="1:44">
@@ -37248,7 +37248,7 @@
         <v>169</v>
       </c>
       <c r="AR644" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="645" spans="1:44">
@@ -37336,7 +37336,7 @@
         <v>229</v>
       </c>
       <c r="AR646" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="647" spans="1:44">
@@ -37380,7 +37380,7 @@
         <v>229</v>
       </c>
       <c r="AR647" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="648" spans="1:44">
@@ -37471,7 +37471,7 @@
         <v>179</v>
       </c>
       <c r="AR649" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="650" spans="1:44">
@@ -37518,7 +37518,7 @@
         <v>0.3</v>
       </c>
       <c r="AR650" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="651" spans="1:44">
@@ -37565,7 +37565,7 @@
         <v>0.3</v>
       </c>
       <c r="AR651" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="652" spans="1:44">
@@ -37609,7 +37609,7 @@
         <v>199</v>
       </c>
       <c r="AR652" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="653" spans="1:44">
@@ -37700,7 +37700,7 @@
         <v>139</v>
       </c>
       <c r="AR654" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="655" spans="1:44">
@@ -37744,7 +37744,7 @@
         <v>139</v>
       </c>
       <c r="AR655" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="656" spans="1:44">
@@ -37832,7 +37832,7 @@
         <v>139</v>
       </c>
       <c r="AR657" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="658" spans="1:44">
@@ -37920,7 +37920,7 @@
         <v>139</v>
       </c>
       <c r="AR659" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="660" spans="1:44">
@@ -37964,7 +37964,7 @@
         <v>189</v>
       </c>
       <c r="AR660" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="661" spans="1:44">
@@ -38052,7 +38052,7 @@
         <v>189</v>
       </c>
       <c r="AR662" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="663" spans="1:44">
@@ -38099,7 +38099,7 @@
         <v>0.3</v>
       </c>
       <c r="AR663" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="664" spans="1:44">
@@ -38146,7 +38146,7 @@
         <v>0.3</v>
       </c>
       <c r="AR664" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="665" spans="1:44">
@@ -38243,7 +38243,7 @@
         <v>0.3</v>
       </c>
       <c r="AR666" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="667" spans="1:44">
@@ -38343,7 +38343,7 @@
         <v>0.3</v>
       </c>
       <c r="AR668" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="669" spans="1:44">
@@ -38443,7 +38443,7 @@
         <v>0.3</v>
       </c>
       <c r="AR670" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="671" spans="1:44">
@@ -38493,7 +38493,7 @@
         <v>0.3</v>
       </c>
       <c r="AR671" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="672" spans="1:44">
@@ -38540,7 +38540,7 @@
         <v>129</v>
       </c>
       <c r="AR672" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="673" spans="1:44">
@@ -38637,7 +38637,7 @@
         <v>0.3</v>
       </c>
       <c r="AR674" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="675" spans="1:44">
@@ -38737,7 +38737,7 @@
         <v>0.3</v>
       </c>
       <c r="AR676" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="677" spans="1:44">
@@ -38837,7 +38837,7 @@
         <v>0.3</v>
       </c>
       <c r="AR678" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="679" spans="1:44">
@@ -38884,7 +38884,7 @@
         <v>190</v>
       </c>
       <c r="AR679" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="680" spans="1:44">
@@ -38981,7 +38981,7 @@
         <v>0.3</v>
       </c>
       <c r="AR681" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="682" spans="1:44">
@@ -39031,7 +39031,7 @@
         <v>0.3</v>
       </c>
       <c r="AR682" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="683" spans="1:44">
@@ -39078,7 +39078,7 @@
         <v>0.3</v>
       </c>
       <c r="AR683" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="684" spans="1:44">
@@ -39125,7 +39125,7 @@
         <v>0.3</v>
       </c>
       <c r="AR684" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="685" spans="1:44">
@@ -39213,7 +39213,7 @@
         <v>269</v>
       </c>
       <c r="AR686" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="687" spans="1:44">
@@ -39301,7 +39301,7 @@
         <v>269</v>
       </c>
       <c r="AR688" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="689" spans="1:44">
@@ -39351,7 +39351,7 @@
         <v>1716</v>
       </c>
       <c r="AR689" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="690" spans="1:44">
@@ -39451,7 +39451,7 @@
         <v>1716</v>
       </c>
       <c r="AR691" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="692" spans="1:44">
@@ -39557,7 +39557,7 @@
         <v>1720</v>
       </c>
       <c r="AR693" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="694" spans="1:44">
@@ -39610,7 +39610,7 @@
         <v>1720</v>
       </c>
       <c r="AR694" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="695" spans="1:44">
@@ -39760,7 +39760,7 @@
         <v>1720</v>
       </c>
       <c r="AR697" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="698" spans="1:44">
@@ -39810,7 +39810,7 @@
         <v>1720</v>
       </c>
       <c r="AR698" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="699" spans="1:44">
@@ -39860,7 +39860,7 @@
         <v>1724</v>
       </c>
       <c r="AR699" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="700" spans="1:44">
@@ -39910,7 +39910,7 @@
         <v>1724</v>
       </c>
       <c r="AR700" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="701" spans="1:44">
@@ -39963,7 +39963,7 @@
         <v>1731</v>
       </c>
       <c r="AR701" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="702" spans="1:44">
@@ -40069,7 +40069,7 @@
         <v>1731</v>
       </c>
       <c r="AR703" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="704" spans="1:44">
@@ -40119,7 +40119,7 @@
         <v>1724</v>
       </c>
       <c r="AR704" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="705" spans="1:44">
@@ -40216,7 +40216,7 @@
         <v>0.35</v>
       </c>
       <c r="AR706" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="707" spans="1:44">
@@ -40263,7 +40263,7 @@
         <v>0.35</v>
       </c>
       <c r="AR707" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="708" spans="1:44">
@@ -40410,7 +40410,7 @@
         <v>0.35</v>
       </c>
       <c r="AR710" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="711" spans="1:44">
@@ -40510,7 +40510,7 @@
         <v>1351</v>
       </c>
       <c r="AR712" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="713" spans="1:44">
@@ -40666,7 +40666,7 @@
         <v>1724</v>
       </c>
       <c r="AR715" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="716" spans="1:44">
@@ -40719,7 +40719,7 @@
         <v>1724</v>
       </c>
       <c r="AR716" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="717" spans="1:44">
@@ -40772,7 +40772,7 @@
         <v>1724</v>
       </c>
       <c r="AR717" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="718" spans="1:44">
@@ -40825,7 +40825,7 @@
         <v>1720</v>
       </c>
       <c r="AR718" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="719" spans="1:44">
@@ -40878,7 +40878,7 @@
         <v>1720</v>
       </c>
       <c r="AR719" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="720" spans="1:44">
@@ -40931,7 +40931,7 @@
         <v>1724</v>
       </c>
       <c r="AR720" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="721" spans="1:44">
@@ -41137,7 +41137,7 @@
         <v>1755</v>
       </c>
       <c r="AR724" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="725" spans="1:44">
@@ -41190,7 +41190,7 @@
         <v>1724</v>
       </c>
       <c r="AR725" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="726" spans="1:44">
@@ -41293,7 +41293,7 @@
         <v>1760</v>
       </c>
       <c r="AR727" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="728" spans="1:44">
@@ -41346,7 +41346,7 @@
         <v>1724</v>
       </c>
       <c r="AR728" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="729" spans="1:44">
@@ -41399,7 +41399,7 @@
         <v>1724</v>
       </c>
       <c r="AR729" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="730" spans="1:44">
@@ -41555,7 +41555,7 @@
         <v>1765</v>
       </c>
       <c r="AR732" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="733" spans="1:44">
@@ -41608,7 +41608,7 @@
         <v>1765</v>
       </c>
       <c r="AR733" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="734" spans="1:44">
@@ -41658,7 +41658,7 @@
         <v>1769</v>
       </c>
       <c r="AR734" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="735" spans="1:44">
@@ -41758,7 +41758,7 @@
         <v>1769</v>
       </c>
       <c r="AR736" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="737" spans="1:44">
@@ -41808,7 +41808,7 @@
         <v>1724</v>
       </c>
       <c r="AR737" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="738" spans="1:44">
@@ -41908,7 +41908,7 @@
         <v>1775</v>
       </c>
       <c r="AR739" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="740" spans="1:44">
@@ -41958,7 +41958,7 @@
         <v>1777</v>
       </c>
       <c r="AR740" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="741" spans="1:44">
@@ -42061,7 +42061,7 @@
         <v>1720</v>
       </c>
       <c r="AR742" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="743" spans="1:44">
@@ -42161,7 +42161,7 @@
         <v>1720</v>
       </c>
       <c r="AR744" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="745" spans="1:44">
@@ -42211,7 +42211,7 @@
         <v>1720</v>
       </c>
       <c r="AR745" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="746" spans="1:44">
@@ -42261,7 +42261,7 @@
         <v>1724</v>
       </c>
       <c r="AR746" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="747" spans="1:44">
@@ -42361,7 +42361,7 @@
         <v>1724</v>
       </c>
       <c r="AR748" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="749" spans="1:44">
@@ -42411,7 +42411,7 @@
         <v>1787</v>
       </c>
       <c r="AR749" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="750" spans="1:44">
@@ -42461,7 +42461,7 @@
         <v>1787</v>
       </c>
       <c r="AR750" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="751" spans="1:44">
@@ -42511,7 +42511,7 @@
         <v>1724</v>
       </c>
       <c r="AR751" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="752" spans="1:44">
@@ -42561,7 +42561,7 @@
         <v>1724</v>
       </c>
       <c r="AR752" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
